--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,6 +247,58 @@
   </si>
   <si>
     <t>탁상거울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 KT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알뜰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1기가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사은품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500메가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500메가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +308,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -322,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -330,6 +382,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -339,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,7 +428,7 @@
     <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -373,8 +440,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,17 +736,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.75" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="11" customWidth="1"/>
@@ -679,7 +759,7 @@
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="2"/>
@@ -1046,17 +1126,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="E37" s="4" t="s">
         <v>29</v>
@@ -1065,17 +1145,17 @@
         <v>299000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
         <v>36</v>
       </c>
@@ -1083,7 +1163,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="4" t="s">
         <v>37</v>
       </c>
@@ -1091,10 +1171,177 @@
         <v>146020</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13">
+        <f>170000-90000</f>
+        <v>80000</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="13">
+        <f>(22000*10%)+22000</f>
+        <v>24200</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="13">
+        <f>(22000*10%)+22000</f>
+        <v>24200</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13">
+        <f>(17000*10%)+17000</f>
+        <v>18700</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13">
+        <f>(17000*10%)+17000</f>
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="13">
+        <v>93500</v>
+      </c>
+      <c r="C50" s="13">
+        <v>93500</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1100</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1100</v>
+      </c>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15">
+        <f>SUM(B48:B51)</f>
+        <v>118800</v>
+      </c>
+      <c r="C52" s="15">
+        <f>SUM(C48:C51)</f>
+        <v>112200</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15">
+        <f>SUM(E48:E51)</f>
+        <v>25300</v>
+      </c>
+      <c r="F52" s="15">
+        <f>SUM(F48:F51)</f>
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="13">
+        <v>27500</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="13">
+        <v>27500</v>
+      </c>
+      <c r="F55" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -739,7 +739,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1272,8 +1272,14 @@
       <c r="D50" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="13">
+        <f>24000</f>
+        <v>24000</v>
+      </c>
+      <c r="F50" s="13">
+        <f>24000</f>
+        <v>24000</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
@@ -1304,11 +1310,11 @@
       <c r="D52" s="14"/>
       <c r="E52" s="15">
         <f>SUM(E48:E51)</f>
-        <v>25300</v>
+        <v>49300</v>
       </c>
       <c r="F52" s="15">
         <f>SUM(F48:F51)</f>
-        <v>18700</v>
+        <v>42700</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D2DB5-0C84-904D-BC28-6447FD382CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -206,10 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>납부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>홈앤홈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -222,14 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신성월드 임대인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드 임대인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전기, 가스, 수도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,10 +283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>설치비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사은품</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -298,19 +291,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500메가</t>
+    <t>kt 인터넷 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님용 토퍼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7만</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -416,43 +417,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -735,31 +736,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="3"/>
+    <col min="7" max="7" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="2"/>
@@ -771,12 +772,12 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -791,7 +792,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -799,15 +800,15 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -826,7 +827,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -843,8 +844,14 @@
       <c r="F8" s="3">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="11">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -864,10 +871,10 @@
         <v>44568</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -889,10 +896,10 @@
         <v>44567</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -914,10 +921,10 @@
         <v>44568</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -937,10 +944,10 @@
         <v>44568</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -959,10 +966,10 @@
         <v>44568</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -981,10 +988,10 @@
         <v>44568</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1002,12 +1009,12 @@
         <v>1631600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="18.75" customHeight="1">
       <c r="E17" s="8" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" ht="18.75" customHeight="1">
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="19" spans="3:8" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4" t="s">
@@ -1041,22 +1048,22 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" ht="18.75" customHeight="1">
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" ht="18.75" customHeight="1">
       <c r="E21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" ht="18.75" customHeight="1">
       <c r="E22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" ht="18.75" customHeight="1">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="4" t="s">
@@ -1064,7 +1071,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" ht="18.75" customHeight="1">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="4" t="s">
@@ -1072,7 +1079,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" ht="18.75" customHeight="1">
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="4" t="s">
@@ -1080,7 +1087,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" ht="18.75" customHeight="1">
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="4" t="s">
@@ -1096,47 +1103,52 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" ht="18.75" customHeight="1">
       <c r="E27" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" ht="18.75" customHeight="1">
       <c r="E28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" ht="18.75" customHeight="1">
       <c r="E29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" ht="18.75" customHeight="1">
       <c r="E30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" ht="18.75" customHeight="1">
       <c r="E31" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="18.75" customHeight="1">
+      <c r="E32" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1">
+      <c r="E33" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1">
+      <c r="E34" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1">
+      <c r="E35" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="E37" s="4" t="s">
         <v>29</v>
@@ -1145,38 +1157,49 @@
         <v>299000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1">
       <c r="E38" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1">
       <c r="E39" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1">
       <c r="E40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1">
       <c r="E41" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="3">
         <v>146020</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1">
       <c r="E42" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="13">
         <f>170000-90000</f>
@@ -1184,48 +1207,50 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="12">
+        <f>170000-70000</f>
+        <v>100000</v>
+      </c>
       <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B48" s="13">
         <f>(22000*10%)+22000</f>
@@ -1233,35 +1258,38 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E48" s="13">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
       <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13">
-        <f>(17000*10%)+17000</f>
-        <v>18700</v>
+        <v>19550</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13">
-        <f>(17000*10%)+17000</f>
-        <v>18700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16250</v>
+      </c>
+      <c r="G49" s="4">
+        <f>F49-8000</f>
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="13">
         <v>93500</v>
@@ -1270,34 +1298,36 @@
         <v>93500</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E50" s="13">
-        <f>24000</f>
-        <v>24000</v>
+        <f>24000+35500+1320</f>
+        <v>60820</v>
       </c>
       <c r="F50" s="13">
-        <f>24000</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>24000+35500+1320</f>
+        <v>60820</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="A51" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51" s="13">
         <v>1100</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E51" s="13">
         <v>1100</v>
       </c>
       <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="A52" s="12"/>
       <c r="B52" s="15">
         <f>SUM(B48:B51)</f>
@@ -1305,49 +1335,96 @@
       </c>
       <c r="C52" s="15">
         <f>SUM(C48:C51)</f>
-        <v>112200</v>
+        <v>113050</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="15">
         <f>SUM(E48:E51)</f>
-        <v>49300</v>
+        <v>86120</v>
       </c>
       <c r="F52" s="15">
         <f>SUM(F48:F51)</f>
-        <v>42700</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77070</v>
+      </c>
+      <c r="G52" s="4">
+        <f>G49+F50</f>
+        <v>69070</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="12">
+        <f>B52-E52</f>
+        <v>32680</v>
+      </c>
+      <c r="F53" s="13">
+        <f>C52-F52</f>
+        <v>35980</v>
+      </c>
+      <c r="G53" s="4">
+        <f>C52-G52</f>
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="12"/>
       <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" s="13">
         <v>27500</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="13">
+        <v>27500</v>
+      </c>
       <c r="D55" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E55" s="13">
         <v>27500</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="13">
+        <v>27500</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" customHeight="1">
+      <c r="G64" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D2DB5-0C84-904D-BC28-6447FD382CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673267C-673F-2C48-949D-89CCC7DA5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>협탁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소파</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -737,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
@@ -754,7 +750,9 @@
     <col min="7" max="7" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="3"/>
+    <col min="10" max="10" width="8.6640625" style="3"/>
+    <col min="11" max="11" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
@@ -802,10 +800,10 @@
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
@@ -845,7 +843,7 @@
         <v>1000000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="11">
         <v>44568</v>
@@ -871,7 +869,7 @@
         <v>44568</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1">
@@ -896,7 +894,7 @@
         <v>44567</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1">
@@ -921,7 +919,7 @@
         <v>44568</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1">
@@ -944,7 +942,7 @@
         <v>44568</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
@@ -966,7 +964,7 @@
         <v>44568</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1">
@@ -979,7 +977,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="3">
         <v>50000</v>
@@ -988,7 +986,7 @@
         <v>44568</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1">
@@ -1019,14 +1017,14 @@
         <v>20</v>
       </c>
       <c r="F17" s="9">
-        <f>F15-F18-F19-F20-F21-F22-F23-F24-F25-F26-F27-F28-F29-F30-F31-F32-F33-F34-F35</f>
-        <v>1108600</v>
+        <f>F15-F18-F19-F20-F21-F22-F23-F24-F25-F26-F27-F28-F29-F30-F31-F32-F33-F34</f>
+        <v>407500</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="18.75" customHeight="1">
@@ -1046,6 +1044,9 @@
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F19" s="4">
+        <v>269000</v>
+      </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="3:8" ht="18.75" customHeight="1">
@@ -1077,6 +1078,10 @@
       <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="F24" s="3">
+        <f>44900+16000</f>
+        <v>60900</v>
+      </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="3:8" ht="18.75" customHeight="1">
@@ -1085,6 +1090,10 @@
       <c r="E25" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F25" s="3">
+        <f>117500+11000+25800+6000</f>
+        <v>160300</v>
+      </c>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="3:8" ht="18.75" customHeight="1">
@@ -1100,17 +1109,21 @@
         <v>44926</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="18.75" customHeight="1">
       <c r="E27" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="F27" s="3">
+        <f>149000+20000</f>
+        <v>169000</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="18.75" customHeight="1">
       <c r="E28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="18.75" customHeight="1">
@@ -1120,7 +1133,7 @@
     </row>
     <row r="30" spans="3:8" ht="18.75" customHeight="1">
       <c r="E30" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="18.75" customHeight="1">
@@ -1140,32 +1153,39 @@
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1">
       <c r="E34" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1">
-      <c r="E35" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="F34" s="3">
+        <v>41900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="E36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="3">
+        <v>299000</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A37" s="3"/>
       <c r="E37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="3">
-        <v>299000</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1">
       <c r="E38" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" customHeight="1">
       <c r="E39" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="F39" s="3">
+        <v>200000</v>
       </c>
       <c r="G39" s="4"/>
     </row>
@@ -1174,7 +1194,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="3">
-        <v>200000</v>
+        <v>146020</v>
       </c>
       <c r="G40" s="4"/>
     </row>
@@ -1182,173 +1202,182 @@
       <c r="E41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="3">
-        <v>146020</v>
-      </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" customHeight="1">
-      <c r="E42" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1">
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" customHeight="1">
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13">
         <f>170000-90000</f>
         <v>80000</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="12">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="12">
         <f>170000-70000</f>
         <v>100000</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="4"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="B47" s="13">
+        <f>(22000*10%)+22000</f>
+        <v>24200</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="13">
+        <f>(22000*10%)+22000</f>
+        <v>24200</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="13">
-        <f>(22000*10%)+22000</f>
-        <v>24200</v>
-      </c>
-      <c r="C48" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13">
+        <v>19550</v>
+      </c>
       <c r="D48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="13">
-        <f>(22000*10%)+22000</f>
-        <v>24200</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13">
+        <v>16250</v>
+      </c>
+      <c r="G48" s="4">
+        <f>F48-8000</f>
+        <v>8250</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="18.75" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="B49" s="13">
+        <v>93500</v>
+      </c>
       <c r="C49" s="13">
-        <v>19550</v>
+        <v>93500</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13">
-        <v>16250</v>
-      </c>
-      <c r="G49" s="4">
-        <f>F49-8000</f>
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A50" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="13">
-        <v>93500</v>
-      </c>
-      <c r="C50" s="13">
-        <v>93500</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="13">
+      <c r="E49" s="13">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F49" s="13">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1100</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="13">
+        <v>1100</v>
+      </c>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A51" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="13">
-        <v>1100</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="13">
-        <v>1100</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15">
+        <f>SUM(B47:B50)</f>
+        <v>118800</v>
+      </c>
+      <c r="C51" s="15">
+        <f>SUM(C47:C50)</f>
+        <v>113050</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15">
+        <f>SUM(E47:E50)</f>
+        <v>86120</v>
+      </c>
+      <c r="F51" s="15">
+        <f>SUM(F47:F50)</f>
+        <v>77070</v>
+      </c>
+      <c r="G51" s="4">
+        <f>G48+F49</f>
+        <v>69070</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1">
       <c r="A52" s="12"/>
-      <c r="B52" s="15">
-        <f>SUM(B48:B51)</f>
-        <v>118800</v>
-      </c>
-      <c r="C52" s="15">
-        <f>SUM(C48:C51)</f>
-        <v>113050</v>
-      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="15">
-        <f>SUM(E48:E51)</f>
-        <v>86120</v>
-      </c>
-      <c r="F52" s="15">
-        <f>SUM(F48:F51)</f>
-        <v>77070</v>
+      <c r="E52" s="12">
+        <f>B51-E51</f>
+        <v>32680</v>
+      </c>
+      <c r="F52" s="13">
+        <f>C51-F51</f>
+        <v>35980</v>
       </c>
       <c r="G52" s="4">
-        <f>G49+F50</f>
-        <v>69070</v>
+        <f>C51-G51</f>
+        <v>43980</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18.75" customHeight="1">
@@ -1356,47 +1385,32 @@
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="12">
-        <f>B52-E52</f>
-        <v>32680</v>
-      </c>
-      <c r="F53" s="13">
-        <f>C52-F52</f>
-        <v>35980</v>
-      </c>
-      <c r="G53" s="4">
-        <f>C52-G52</f>
-        <v>43980</v>
-      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
+      <c r="A54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="13">
+        <v>27500</v>
+      </c>
+      <c r="C54" s="13">
+        <v>27500</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="13">
+        <v>27500</v>
+      </c>
+      <c r="F54" s="13">
+        <v>27500</v>
+      </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A55" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="13">
-        <v>27500</v>
-      </c>
-      <c r="C55" s="13">
-        <v>27500</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="13">
-        <v>27500</v>
-      </c>
-      <c r="F55" s="13">
-        <v>27500</v>
-      </c>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="18.75" customHeight="1">
@@ -1422,9 +1436,6 @@
     </row>
     <row r="63" spans="1:7" ht="18.75" customHeight="1">
       <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1">
-      <c r="G64" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673267C-673F-2C48-949D-89CCC7DA5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -296,18 +295,34 @@
   </si>
   <si>
     <t>7만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m\/d"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -413,43 +428,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -732,30 +747,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="E17:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="3"/>
-    <col min="11" max="11" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="3"/>
+    <col min="10" max="10" width="8.625" style="3"/>
+    <col min="11" max="11" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44925</v>
@@ -770,12 +785,12 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -790,7 +805,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -798,7 +813,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
@@ -806,7 +821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -825,7 +840,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -849,7 +864,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -872,7 +887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -897,7 +912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -922,7 +937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -945,7 +960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -967,7 +982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1007,18 +1022,18 @@
         <v>1631600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="3:8" ht="18.75" customHeight="1">
+    <row r="17" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="9">
         <f>F15-F18-F19-F20-F21-F22-F23-F24-F25-F26-F27-F28-F29-F30-F31-F32-F33-F34</f>
-        <v>407500</v>
+        <v>411800</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>43</v>
@@ -1026,8 +1041,11 @@
       <c r="H17" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1035,10 +1053,16 @@
         <v>434700</v>
       </c>
       <c r="G18" s="11">
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" s="4" customFormat="1" ht="18.75" customHeight="1">
+        <v>44921</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4" t="s">
@@ -1049,30 +1073,34 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="3:8" ht="18.75" customHeight="1">
+    <row r="20" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="4" t="s">
@@ -1083,8 +1111,9 @@
         <v>60900</v>
       </c>
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="4" t="s">
@@ -1095,24 +1124,28 @@
         <v>160300</v>
       </c>
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="3">
-        <v>88300</v>
+        <v>84000</v>
       </c>
       <c r="G26" s="7">
-        <v>44926</v>
+        <v>44925</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I26" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1120,46 +1153,57 @@
         <f>149000+20000</f>
         <v>169000</v>
       </c>
-    </row>
-    <row r="28" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" ht="18.75" customHeight="1">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F34" s="3">
         <v>41900</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="E36" s="4" t="s">
         <v>29</v>
@@ -1167,20 +1211,23 @@
       <c r="F36" s="3">
         <v>299000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
         <v>35</v>
       </c>
@@ -1188,8 +1235,9 @@
         <v>200000</v>
       </c>
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
         <v>36</v>
       </c>
@@ -1197,20 +1245,22 @@
         <v>146020</v>
       </c>
       <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1">
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="13">
         <f>170000-90000</f>
@@ -1225,7 +1275,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>61</v>
       </c>
@@ -1243,7 +1293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
         <v>53</v>
@@ -1259,7 +1309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>62</v>
       </c>
@@ -1278,7 +1328,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>56</v>
       </c>
@@ -1298,7 +1348,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>54</v>
       </c>
@@ -1321,7 +1371,7 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>60</v>
       </c>
@@ -1338,7 +1388,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="15">
         <f>SUM(B47:B50)</f>
@@ -1362,7 +1412,7 @@
         <v>69070</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -1380,7 +1430,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -1389,7 +1439,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>59</v>
       </c>
@@ -1410,31 +1460,31 @@
       </c>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G63" s="4"/>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -751,7 +751,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="E17:I34"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F17" s="9">
         <f>F15-F18-F19-F20-F21-F22-F23-F24-F25-F26-F27-F28-F29-F30-F31-F32-F33-F34</f>
-        <v>411800</v>
+        <v>321700</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>43</v>
@@ -1069,9 +1069,12 @@
         <v>23</v>
       </c>
       <c r="F19" s="4">
-        <v>269000</v>
+        <v>359100</v>
       </c>
       <c r="G19" s="11"/>
+      <c r="H19" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="s">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,135 +182,139 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>수건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공과금 정산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤워기, 호스, 필터(6개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈앤홈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐싸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드 임대인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기, 가스, 수도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분리수거함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽티슈 커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁상거울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 KT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알뜰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1기가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사은품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500메가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kt 인터넷 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님용 토퍼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>러그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>미니빔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공과금 정산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤워기, 호스, 필터(6개)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>납부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈앤홈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>짐싸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드 임대인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기, 가스, 수도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분리수거함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>물티슈통</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곽티슈 커버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탁상거울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰 KT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알뜰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1기가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사은품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500메가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kt 인터넷 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님용 토퍼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포레나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -748,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -815,10 +819,10 @@
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -858,7 +862,7 @@
         <v>1000000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J8" s="11">
         <v>44568</v>
@@ -884,7 +888,7 @@
         <v>44568</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -909,7 +913,7 @@
         <v>44567</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -934,7 +938,7 @@
         <v>44568</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -957,7 +961,7 @@
         <v>44568</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -979,7 +983,7 @@
         <v>44568</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -992,7 +996,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3">
         <v>50000</v>
@@ -1001,7 +1005,7 @@
         <v>44568</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1033,16 +1037,16 @@
       </c>
       <c r="F17" s="9">
         <f>F15-F18-F19-F20-F21-F22-F23-F24-F25-F26-F27-F28-F29-F30-F31-F32-F33-F34</f>
-        <v>321700</v>
+        <v>121700</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1056,10 +1060,10 @@
         <v>44921</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="3:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1073,6 +1077,9 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1085,6 +1092,9 @@
     <row r="21" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="F21" s="3">
+        <v>200000</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1142,10 +1152,10 @@
         <v>44925</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1166,42 +1176,47 @@
     </row>
     <row r="29" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F34" s="3">
         <v>41900</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="H34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I35" s="4"/>
@@ -1225,212 +1240,201 @@
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="3">
-        <v>200000</v>
+        <v>37</v>
       </c>
       <c r="G39" s="4"/>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="3">
-        <v>146020</v>
+        <v>200000</v>
       </c>
       <c r="G40" s="4"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F41" s="3">
+        <v>146020</v>
       </c>
       <c r="G41" s="4"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13">
         <f>170000-90000</f>
         <v>80000</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="12">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12">
         <f>170000-70000</f>
         <v>100000</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="B46" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="D46" s="14"/>
       <c r="E46" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="13">
+        <v>55</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="13">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="13">
+      <c r="C48" s="14"/>
+      <c r="D48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="13">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13">
-        <v>19550</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13">
-        <v>16250</v>
-      </c>
-      <c r="G48" s="4">
-        <f>F48-8000</f>
-        <v>8250</v>
-      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13">
+        <v>19550</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13">
+        <v>16250</v>
+      </c>
+      <c r="G49" s="4">
+        <f>F49-8000</f>
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="13">
         <v>93500</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C50" s="13">
         <v>93500</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="13">
+      <c r="D50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="13">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="13">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="13">
         <v>1100</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="13">
+      <c r="C51" s="13"/>
+      <c r="D51" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="13">
         <v>1100</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15">
-        <f>SUM(B47:B50)</f>
+      <c r="F51" s="14"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15">
+        <f>SUM(B48:B51)</f>
         <v>118800</v>
       </c>
-      <c r="C51" s="15">
-        <f>SUM(C47:C50)</f>
+      <c r="C52" s="15">
+        <f>SUM(C48:C51)</f>
         <v>113050</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15">
-        <f>SUM(E47:E50)</f>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15">
+        <f>SUM(E48:E51)</f>
         <v>86120</v>
       </c>
-      <c r="F51" s="15">
-        <f>SUM(F47:F50)</f>
+      <c r="F52" s="15">
+        <f>SUM(F48:F51)</f>
         <v>77070</v>
       </c>
-      <c r="G51" s="4">
-        <f>G48+F49</f>
+      <c r="G52" s="4">
+        <f>G49+F50</f>
         <v>69070</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="12">
-        <f>B51-E51</f>
-        <v>32680</v>
-      </c>
-      <c r="F52" s="13">
-        <f>C51-F51</f>
-        <v>35980</v>
-      </c>
-      <c r="G52" s="4">
-        <f>C51-G51</f>
-        <v>43980</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1438,32 +1442,47 @@
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="4"/>
+      <c r="E53" s="12">
+        <f>B52-E52</f>
+        <v>32680</v>
+      </c>
+      <c r="F53" s="13">
+        <f>C52-F52</f>
+        <v>35980</v>
+      </c>
+      <c r="G53" s="4">
+        <f>C52-G52</f>
+        <v>43980</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="13">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="13">
         <v>27500</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C55" s="13">
         <v>27500</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="13">
+      <c r="D55" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="13">
         <v>27500</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>27500</v>
       </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,6 +1508,9 @@
     </row>
     <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -315,6 +315,10 @@
   </si>
   <si>
     <t>물티슈통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55만</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -754,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1317,6 +1321,12 @@
       <c r="F46" s="12" t="s">
         <v>63</v>
       </c>
+      <c r="G46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
@@ -1333,6 +1343,12 @@
       <c r="F47" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="G47" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
@@ -1351,9 +1367,15 @@
         <v>24200</v>
       </c>
       <c r="F48" s="13"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="4">
+        <v>44000</v>
+      </c>
+      <c r="H48" s="3">
+        <f>G48-17000</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>54</v>
       </c>
@@ -1368,12 +1390,9 @@
       <c r="F49" s="13">
         <v>16250</v>
       </c>
-      <c r="G49" s="4">
-        <f>F49-8000</f>
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>52</v>
       </c>
@@ -1394,9 +1413,16 @@
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="13">
+        <f>24000+35500+1320</f>
+        <v>60820</v>
+      </c>
+      <c r="H50" s="13">
+        <f>24000+35500+1320</f>
+        <v>60820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>58</v>
       </c>
@@ -1413,7 +1439,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="15">
         <f>SUM(B48:B51)</f>
@@ -1432,12 +1458,16 @@
         <f>SUM(F48:F51)</f>
         <v>77070</v>
       </c>
-      <c r="G52" s="4">
-        <f>G49+F50</f>
-        <v>69070</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="15">
+        <f>SUM(G48:G51)</f>
+        <v>104820</v>
+      </c>
+      <c r="H52" s="15">
+        <f>SUM(H48:H51)</f>
+        <v>87820</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -1451,11 +1481,11 @@
         <v>35980</v>
       </c>
       <c r="G53" s="4">
-        <f>C52-G52</f>
-        <v>43980</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>G52-F52</f>
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -1464,7 +1494,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>57</v>
       </c>
@@ -1483,33 +1513,38 @@
       <c r="F55" s="13">
         <v>27500</v>
       </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="13">
+        <v>27500</v>
+      </c>
+      <c r="H55" s="13">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G64" s="4"/>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F17" s="9">
         <f>F15-F18-F19-F20-F21-F22-F23-F24-F25-F26-F27-F28-F29-F30-F31-F32-F33-F34</f>
-        <v>121700</v>
+        <v>40500</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>42</v>
@@ -1098,7 +1098,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="3">
-        <v>200000</v>
+        <v>281200</v>
       </c>
       <c r="I21" s="4"/>
     </row>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>샤워기, 호스, 필터(6개)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>55만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤워기, 호스, 필터(3개)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +759,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -823,10 +823,10 @@
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>1000000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" s="11">
         <v>44568</v>
@@ -892,7 +892,7 @@
         <v>44568</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
         <v>44567</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>44568</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -965,7 +965,7 @@
         <v>44568</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
         <v>44568</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1009,7 +1009,7 @@
         <v>44568</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1041,16 +1041,16 @@
       </c>
       <c r="F17" s="9">
         <f>F15-F18-F19-F20-F21-F22-F23-F24-F25-F26-F27-F28-F29-F30-F31-F32-F33-F34</f>
-        <v>40500</v>
+        <v>54500</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1064,10 +1064,10 @@
         <v>44921</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="3:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1081,10 +1081,10 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1150,16 +1150,16 @@
         <v>28</v>
       </c>
       <c r="F26" s="3">
-        <v>84000</v>
+        <v>70000</v>
       </c>
       <c r="G26" s="7">
         <v>44925</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1180,46 +1180,46 @@
     </row>
     <row r="29" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34" s="3">
         <v>41900</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
@@ -1306,53 +1306,53 @@
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="13">
         <f>(22000*10%)+22000</f>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="13">
         <f>(22000*10%)+22000</f>
@@ -1377,14 +1377,14 @@
     </row>
     <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13">
         <v>19550</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13">
@@ -1394,7 +1394,7 @@
     </row>
     <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="13">
         <v>93500</v>
@@ -1403,7 +1403,7 @@
         <v>93500</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" s="13">
         <f>24000+35500+1320</f>
@@ -1424,14 +1424,14 @@
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="13">
         <v>1100</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="13">
         <v>1100</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="13">
         <v>27500</v>
@@ -1505,7 +1505,7 @@
         <v>27500</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" s="13">
         <v>27500</v>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1035,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" s="8" t="s">
         <v>20</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1069,8 +1069,11 @@
       <c r="I18" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="11">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4" t="s">
@@ -1087,13 +1090,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1102,13 +1105,13 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="4" t="s">
@@ -1117,7 +1120,7 @@
       <c r="G23" s="7"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="4" t="s">
@@ -1130,7 +1133,7 @@
       <c r="G24" s="7"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="4" t="s">
@@ -1143,7 +1146,7 @@
       <c r="G25" s="7"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="4" t="s">
@@ -1162,7 +1165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1172,31 +1175,31 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
         <v>47</v>
       </c>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAFAAC9-5D5B-F049-9CE9-6B4D8F4CD6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>포장이사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>복비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,14 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>침구류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트롤리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이케아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,14 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>협탁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문앞커튼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,10 +187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>짐싸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>신성월드 임대인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -222,10 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>곽티슈 커버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>탁상거울</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,10 +247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>kt 인터넷 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>손님용 토퍼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,10 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수령지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -298,10 +263,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>러그</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -319,18 +280,298 @@
   </si>
   <si>
     <t>샤워기, 호스, 필터(3개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6 오후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데홈쇼핑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 오트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7 오후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3~1/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 브라운, 적당탄탄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4단 / 브라운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤리1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤리2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 차콜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5단 / 오렌지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단 / 옐로우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사가요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티슈 커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위닉스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랙선반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800mm / 아카시아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수납벤치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커텐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 쉬폰 / 화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매트리스 커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이불커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1105x2037x306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x2000x260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 베이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스트 그린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지 핑크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼드 스트라이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60x40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70x50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이지플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키티버니포니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반 사이즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포장이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구 판매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드 세입자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29cm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실 발매트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/31 계약금 60,000원 입금, 1/7 잔금 80,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방수커버 배송일 문의하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피머신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에센자 미니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 피치화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29xm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600x2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x2000x250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 스트라이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접이식 투명, 라탄 블랙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,11 +663,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,44 +677,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,65 +1026,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="3"/>
-    <col min="11" max="11" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="3"/>
+    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="11"/>
+    <col min="12" max="12" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>87000000</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="3">
         <f>B11+F7</f>
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -821,15 +1095,15 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -840,15 +1114,18 @@
       <c r="C7" s="7">
         <v>44592</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
+      <c r="D7" s="16"/>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="10">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -858,21 +1135,19 @@
       <c r="C8" s="7">
         <v>44567</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="3">
         <v>1000000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="G8" s="10">
         <v>44568</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -881,21 +1156,26 @@
         <v>38849.999999999993</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
+      <c r="D9" s="16"/>
+      <c r="E9" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F9" s="3">
-        <v>240000</v>
-      </c>
-      <c r="G9" s="11">
+        <v>140000</v>
+      </c>
+      <c r="G9" s="10">
         <v>44568</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -906,21 +1186,21 @@
       <c r="C10" s="7">
         <v>44898</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3">
         <v>180000</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>44567</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -931,21 +1211,21 @@
       <c r="C11" s="7">
         <v>44567</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
+      <c r="D11" s="16"/>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="3">
         <v>80000</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>44568</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -954,21 +1234,21 @@
         <v>58500</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
+      <c r="D12" s="16"/>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="3">
         <v>50000</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>44568</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -976,21 +1256,21 @@
         <v>80000</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
+      <c r="D13" s="16"/>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="3">
         <v>268400</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>44568</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -998,21 +1278,21 @@
         <v>80000</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4" t="s">
-        <v>38</v>
+      <c r="D14" s="16"/>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F14" s="3">
         <v>50000</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>44568</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1021,536 +1301,963 @@
         <v>497350</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="3">
         <f>(F7+F8)-F9-F10-F11-F12-F13-F14</f>
-        <v>1631600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="8" t="s">
+        <v>1731600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1">
+      <c r="C16" s="7"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G16" s="10">
+        <v>44568</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C17" s="2"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" customHeight="1">
+      <c r="E18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8">
+        <f>(F15+F16)-SUM(F19:F57)+2775</f>
+        <v>529400</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1">
+      <c r="D19" s="4">
+        <f>F19</f>
+        <v>434700</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="9">
-        <f>F15-F18-F19-F20-F21-F22-F23-F24-F25-F26-F27-F28-F29-F30-F31-F32-F33-F34</f>
-        <v>54500</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="F19" s="19">
+        <v>434700</v>
+      </c>
+      <c r="G19" s="20">
+        <v>44921</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="4" t="s">
+      <c r="J19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1">
+      <c r="D20" s="4">
+        <f>F20</f>
+        <v>212900</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="3">
-        <v>434700</v>
-      </c>
-      <c r="G18" s="11">
-        <v>44921</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="F20" s="19">
+        <v>212900</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+      <c r="D21" s="4">
+        <v>110000</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="15">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="D23" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C24" s="2"/>
+      <c r="D24" s="4">
+        <f>F24</f>
+        <v>358900</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="21">
+        <v>358900</v>
+      </c>
+      <c r="G24" s="20">
+        <v>44925</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="11">
+      <c r="I24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="22">
         <v>44568</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="4">
-        <v>359100</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3">
-        <v>281200</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="3">
-        <f>44900+16000</f>
-        <v>60900</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3">
-        <f>117500+11000+25800+6000</f>
-        <v>160300</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="3">
-        <v>70000</v>
-      </c>
-      <c r="G26" s="7">
-        <v>44925</v>
+      <c r="L24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1">
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4">
+        <v>87900</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1">
+      <c r="D26" s="4">
+        <v>41900</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="4" t="s">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1">
+      <c r="C27" s="9"/>
+      <c r="D27" s="16">
+        <f>117500+11000+36500+6000</f>
+        <v>171000</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1">
+      <c r="E28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1">
+      <c r="D29" s="4">
+        <f>58225+3000</f>
+        <v>61225</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="19">
+        <f>D29</f>
+        <v>61225</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" customHeight="1">
+      <c r="D30" s="4">
+        <v>97750</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" ref="F30:F35" si="0">D30</f>
+        <v>97750</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
+      <c r="D31" s="4">
+        <v>18700</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="0"/>
+        <v>18700</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" ht="18.75" customHeight="1">
+      <c r="D32" s="4">
+        <v>18700</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="0"/>
+        <v>18700</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D33" s="4">
+        <v>17850</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="0"/>
+        <v>17850</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D34" s="4">
+        <v>22000</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D35" s="4">
+        <f>38250+4000</f>
+        <v>42250</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="0"/>
+        <v>42250</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D36" s="4">
+        <v>39900</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="18.75" customHeight="1">
+      <c r="C37" s="9"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="I37" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D38" s="4">
+        <v>7900</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D39" s="4">
+        <v>99900</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D40" s="4">
+        <v>17900</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D41" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="I41" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="18.75" customHeight="1">
+      <c r="C42" s="9"/>
+      <c r="D42" s="16">
+        <f>F42</f>
+        <v>70000</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="19">
+        <v>70000</v>
+      </c>
+      <c r="G42" s="24">
+        <v>44925</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="18.75" customHeight="1">
+      <c r="C43" s="9"/>
+      <c r="D43" s="16">
+        <f>48900+14000</f>
+        <v>62900</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="3:13" ht="18.75" customHeight="1">
+      <c r="E44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D45" s="3">
+        <v>146020</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="3:13" ht="18.75" customHeight="1">
+      <c r="D46" s="4">
+        <f>15000+3000</f>
+        <v>18000</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="L46" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="18.75" customHeight="1">
+      <c r="E47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="3:13" ht="18.75" customHeight="1">
+      <c r="E48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D49" s="3"/>
+      <c r="E49" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" customHeight="1">
+      <c r="E50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" customHeight="1">
+      <c r="E51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D52" s="3"/>
+      <c r="E52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D53" s="3"/>
+      <c r="E53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D54" s="3"/>
+      <c r="E54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" customHeight="1">
+      <c r="E55" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D56" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="3">
-        <f>149000+20000</f>
-        <v>169000</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="3">
-        <v>41900</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="E36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="3">
-        <v>299000</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="3">
-        <v>146020</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13">
+      <c r="G56" s="4"/>
+      <c r="I56" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D57" s="4">
+        <v>110000</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" customHeight="1">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" customHeight="1">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12">
         <f>170000-90000</f>
         <v>80000</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="12">
+      <c r="C61" s="13"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
         <f>170000-70000</f>
         <v>100000</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="12" t="s">
+      <c r="F61" s="12"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="13">
+      <c r="G62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="11"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="12">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="13">
+      <c r="C64" s="13"/>
+      <c r="D64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="12">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="4">
+      <c r="F64" s="12"/>
+      <c r="G64" s="4">
         <v>44000</v>
       </c>
-      <c r="H48" s="3">
-        <f>G48-17000</f>
+      <c r="H64" s="3">
+        <f>G64-17000</f>
         <v>27000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A65" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12">
         <v>19550</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13">
+      <c r="D65" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12">
         <v>16250</v>
       </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="13">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A66" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="12">
         <v>93500</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C66" s="12">
         <v>93500</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="13">
+      <c r="D66" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="12">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F66" s="12">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G66" s="12">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H66" s="12">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="13">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A67" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="12">
         <v>1100</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="13">
+      <c r="C67" s="12"/>
+      <c r="D67" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="12">
         <v>1100</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15">
-        <f>SUM(B48:B51)</f>
+      <c r="F67" s="13"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A68" s="11"/>
+      <c r="B68" s="14">
+        <f>SUM(B64:B67)</f>
         <v>118800</v>
       </c>
-      <c r="C52" s="15">
-        <f>SUM(C48:C51)</f>
+      <c r="C68" s="14">
+        <f>SUM(C64:C67)</f>
         <v>113050</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15">
-        <f>SUM(E48:E51)</f>
+      <c r="D68" s="11"/>
+      <c r="E68" s="14">
+        <f>SUM(E64:E67)</f>
         <v>86120</v>
       </c>
-      <c r="F52" s="15">
-        <f>SUM(F48:F51)</f>
+      <c r="F68" s="14">
+        <f>SUM(F64:F67)</f>
         <v>77070</v>
       </c>
-      <c r="G52" s="15">
-        <f>SUM(G48:G51)</f>
+      <c r="G68" s="14">
+        <f>SUM(G64:G67)</f>
         <v>104820</v>
       </c>
-      <c r="H52" s="15">
-        <f>SUM(H48:H51)</f>
+      <c r="H68" s="14">
+        <f>SUM(H64:H67)</f>
         <v>87820</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="12">
-        <f>B52-E52</f>
+    <row r="69" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11">
+        <f>B68-E68</f>
         <v>32680</v>
       </c>
-      <c r="F53" s="13">
-        <f>C52-F52</f>
+      <c r="F69" s="12">
+        <f>C68-F68</f>
         <v>35980</v>
       </c>
-      <c r="G53" s="4">
-        <f>G52-F52</f>
+      <c r="G69" s="4">
+        <f>G68-F68</f>
         <v>27750</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="13">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="12">
         <v>27500</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C71" s="12">
         <v>27500</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="13">
+      <c r="D71" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="12">
         <v>27500</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F71" s="12">
         <v>27500</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G71" s="12">
         <v>27500</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H71" s="12">
         <v>27500</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G64" s="4"/>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G77" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I9:K9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAFAAC9-5D5B-F049-9CE9-6B4D8F4CD6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A2663-0638-A147-8CFE-5E08AA0FF38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>볼드 스트라이프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>블랙 플라워</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -535,10 +531,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SS / 피치화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>29xm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -559,7 +551,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>접이식 투명, 라탄 블랙</t>
+    <t>볼트 체어 / 민트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베개솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼드 스트라이프 / 베개솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 스노우화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일에 하은이한테 물어보기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +637,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +647,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +773,18 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1042,7 +1082,7 @@
     <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="11"/>
@@ -1051,15 +1091,15 @@
     <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
       <c r="F1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="2"/>
       <c r="K1" s="13"/>
@@ -1067,12 +1107,12 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1127,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +1135,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1103,7 +1143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1165,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1187,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1198,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="3">
         <v>140000</v>
@@ -1166,16 +1206,16 @@
       <c r="G9" s="10">
         <v>44568</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>113</v>
+      <c r="H9" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1196,11 +1236,11 @@
       <c r="G10" s="10">
         <v>44567</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1221,11 +1261,11 @@
       <c r="G11" s="10">
         <v>44568</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1244,11 +1284,11 @@
       <c r="G12" s="10">
         <v>44568</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1266,11 +1306,11 @@
       <c r="G13" s="10">
         <v>44568</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1288,11 +1328,11 @@
       <c r="G14" s="10">
         <v>44568</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1309,12 +1349,20 @@
         <f>(F7+F8)-F9-F10-F11-F12-F13-F14</f>
         <v>1731600</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1">
+      <c r="K15" s="11">
+        <v>132800</v>
+      </c>
+      <c r="L15" s="3">
+        <f>K15-6436</f>
+        <v>126364</v>
+      </c>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" customHeight="1">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="3">
         <v>150000</v>
@@ -1322,14 +1370,15 @@
       <c r="G16" s="10">
         <v>44568</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>115</v>
+      <c r="H16" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C17" s="2"/>
       <c r="E17" s="11"/>
       <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="K17" s="11"/>
     </row>
@@ -1338,17 +1387,17 @@
         <v>19</v>
       </c>
       <c r="F18" s="8">
-        <f>(F15+F16)-SUM(F19:F57)+2775</f>
-        <v>529400</v>
+        <f>(F15+F16)-SUM(F19:F58)+25</f>
+        <v>360650</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="11" t="s">
         <v>87</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>55</v>
@@ -1360,7 +1409,7 @@
         <v>34</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
@@ -1377,7 +1426,7 @@
       <c r="G19" s="20">
         <v>44921</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="27" t="s">
         <v>71</v>
       </c>
       <c r="I19" s="18" t="s">
@@ -1394,7 +1443,7 @@
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1">
@@ -1408,8 +1457,10 @@
       <c r="F20" s="19">
         <v>212900</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="20">
+        <v>44925</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="18" t="s">
@@ -1423,15 +1474,18 @@
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
+      <c r="N20" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
       <c r="D21" s="4">
         <v>110000</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I21" s="11" t="s">
@@ -1446,7 +1500,7 @@
       <c r="A22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>42</v>
@@ -1463,10 +1517,10 @@
       <c r="D23" s="3">
         <v>309000</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="12" t="s">
         <v>85</v>
       </c>
       <c r="I23" s="11" t="s">
@@ -1489,7 +1543,7 @@
       <c r="G24" s="20">
         <v>44925</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="I24" s="18" t="s">
@@ -1508,7 +1562,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4">
         <v>87900</v>
@@ -1516,50 +1570,71 @@
       <c r="E25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1">
       <c r="D26" s="4">
         <v>41900</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="N26" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="C27" s="9"/>
-      <c r="D27" s="16">
-        <f>117500+11000+36500+6000</f>
-        <v>171000</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1">
-      <c r="E28" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="D28" s="4">
+        <v>17300</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="19">
+        <f>D28</f>
+        <v>17300</v>
+      </c>
+      <c r="G28" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>66</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
@@ -1574,21 +1649,26 @@
         <f>D29</f>
         <v>61225</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="19" t="s">
-        <v>125</v>
+      <c r="G29" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M29" s="19"/>
+      <c r="N29" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1">
       <c r="D30" s="4">
@@ -1601,21 +1681,26 @@
         <f t="shared" ref="F30:F35" si="0">D30</f>
         <v>97750</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="19" t="s">
+      <c r="G30" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H30" s="27" t="s">
         <v>96</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M30" s="19"/>
+      <c r="N30" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
       <c r="D31" s="4">
@@ -1628,21 +1713,26 @@
         <f t="shared" si="0"/>
         <v>18700</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="19" t="s">
+      <c r="G31" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H31" s="27" t="s">
         <v>101</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M31" s="19"/>
+      <c r="N31" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1">
       <c r="D32" s="4">
@@ -1652,26 +1742,30 @@
         <v>98</v>
       </c>
       <c r="F32" s="19">
-        <f t="shared" si="0"/>
         <v>18700</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="19" t="s">
+      <c r="G32" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H32" s="27" t="s">
         <v>102</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M32" s="19"/>
-    </row>
-    <row r="33" spans="3:13" ht="18.75" customHeight="1">
+      <c r="N32" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="18.75" customHeight="1">
       <c r="D33" s="4">
         <v>17850</v>
       </c>
@@ -1679,26 +1773,30 @@
         <v>99</v>
       </c>
       <c r="F33" s="19">
-        <f t="shared" si="0"/>
-        <v>17850</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="19" t="s">
-        <v>103</v>
+        <v>36550</v>
+      </c>
+      <c r="G33" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="3:13" ht="18.75" customHeight="1">
+      <c r="N33" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="18.75" customHeight="1">
       <c r="D34" s="4">
         <v>22000</v>
       </c>
@@ -1709,63 +1807,73 @@
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="19" t="s">
-        <v>104</v>
+      <c r="G34" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M34" s="19"/>
-    </row>
-    <row r="35" spans="3:13" ht="18.75" customHeight="1">
+      <c r="N34" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="18.75" customHeight="1">
       <c r="D35" s="4">
         <f>38250+4000</f>
         <v>42250</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="0"/>
         <v>42250</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="19" t="s">
-        <v>129</v>
+      <c r="G35" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="3:13" ht="18.75" customHeight="1">
+      <c r="N35" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="18.75" customHeight="1">
       <c r="D36" s="4">
         <v>39900</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="12" t="s">
         <v>80</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:13" ht="18.75" customHeight="1">
+    <row r="37" spans="3:14" ht="18.75" customHeight="1">
       <c r="C37" s="9"/>
       <c r="D37" s="16"/>
       <c r="E37" s="11" t="s">
@@ -1776,44 +1884,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:13" ht="18.75" customHeight="1">
+    <row r="38" spans="3:14" ht="18.75" customHeight="1">
       <c r="D38" s="4">
         <v>7900</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:13" ht="18.75" customHeight="1">
+    <row r="39" spans="3:14" ht="18.75" customHeight="1">
       <c r="D39" s="4">
         <v>99900</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="28" t="s">
         <v>73</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:13" ht="18.75" customHeight="1">
+    <row r="40" spans="3:14" ht="18.75" customHeight="1">
       <c r="D40" s="4">
         <v>17900</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="28" t="s">
         <v>74</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:13" ht="18.75" customHeight="1">
+    <row r="41" spans="3:14" ht="18.75" customHeight="1">
       <c r="D41" s="4">
         <v>2500</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="4"/>
@@ -1821,135 +1929,160 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:13" ht="18.75" customHeight="1">
+    <row r="42" spans="3:14" ht="18.75" customHeight="1">
       <c r="C42" s="9"/>
       <c r="D42" s="16">
-        <f>F42</f>
-        <v>70000</v>
+        <f>117500+11000+36500+6000</f>
+        <v>171000</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" s="19">
-        <v>70000</v>
-      </c>
-      <c r="G42" s="24">
-        <v>44925</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" s="18" t="s">
+        <v>130000</v>
+      </c>
+      <c r="G42" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="21" t="s">
         <v>70</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" ht="18.75" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" ht="18.75" customHeight="1">
       <c r="C43" s="9"/>
       <c r="D43" s="16">
+        <f>F43</f>
+        <v>70000</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="19">
+        <v>70000</v>
+      </c>
+      <c r="G43" s="24">
+        <v>44925</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+    </row>
+    <row r="44" spans="3:14" ht="18.75" customHeight="1">
+      <c r="C44" s="9"/>
+      <c r="D44" s="16">
         <f>48900+14000</f>
         <v>62900</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E44" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="3" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="3:13" ht="18.75" customHeight="1">
-      <c r="E44" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>70</v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="3:13" ht="18.75" customHeight="1">
-      <c r="D45" s="3">
+    <row r="45" spans="3:14" ht="18.75" customHeight="1">
+      <c r="E45" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="3:14" ht="18.75" customHeight="1">
+      <c r="D46" s="3">
         <v>146020</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="3:13" ht="18.75" customHeight="1">
-      <c r="D46" s="4">
+      <c r="G46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="3:14" ht="18.75" customHeight="1">
+      <c r="D47" s="4">
         <f>15000+3000</f>
         <v>18000</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E47" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H47" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="L46" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" ht="18.75" customHeight="1">
-      <c r="E47" s="11" t="s">
+      <c r="J47" s="4"/>
+      <c r="L47" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" ht="18.75" customHeight="1">
+      <c r="E48" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="3:13" ht="18.75" customHeight="1">
-      <c r="E48" s="11" t="s">
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" customHeight="1">
+      <c r="E49" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1">
-      <c r="D49" s="3"/>
-      <c r="E49" s="11" t="s">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D50" s="3"/>
+      <c r="E50" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1">
-      <c r="E50" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="G50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:11" ht="18.75" customHeight="1">
       <c r="E51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" customHeight="1">
+      <c r="E52" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1">
-      <c r="D52" s="3"/>
-      <c r="E52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:11" ht="18.75" customHeight="1">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
@@ -1957,44 +2090,49 @@
     <row r="54" spans="1:11" ht="18.75" customHeight="1">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D55" s="3"/>
       <c r="E55" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" customHeight="1">
+      <c r="E56" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1">
-      <c r="D56" s="3">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D57" s="3">
         <v>200000</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E57" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="I56" s="11" t="s">
+      <c r="G57" s="4"/>
+      <c r="I57" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1">
-      <c r="D57" s="4">
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
+      <c r="D58" s="4">
         <v>110000</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E58" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1">
-      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:11" ht="18.75" customHeight="1">
       <c r="G59" s="4"/>
@@ -2003,203 +2141,188 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12">
         <f>170000-90000</f>
         <v>80000</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11">
+      <c r="C62" s="13"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
         <f>170000-70000</f>
         <v>100000</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A62" s="11" t="s">
+      <c r="F62" s="12"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A63" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A65" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B65" s="12">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="11" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="4">
+      <c r="F65" s="12"/>
+      <c r="G65" s="4">
         <v>44000</v>
       </c>
-      <c r="H64" s="3">
-        <f>G64-17000</f>
+      <c r="H65" s="12">
+        <f>G65-17000</f>
         <v>27000</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12">
-        <v>19550</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
-        <v>16250</v>
-      </c>
-      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:8" ht="18.75" customHeight="1">
       <c r="A66" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12">
+        <v>19550</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12">
+        <v>16250</v>
+      </c>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A67" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B67" s="12">
         <v>93500</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C67" s="12">
         <v>93500</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F67" s="12">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="12">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H67" s="12">
         <f>24000+35500+1320</f>
         <v>60820</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A67" s="11" t="s">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A68" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B68" s="12">
         <v>1100</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="11" t="s">
+      <c r="C68" s="12"/>
+      <c r="D68" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>1100</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="14">
-        <f>SUM(B64:B67)</f>
+      <c r="F68" s="13"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A69" s="11"/>
+      <c r="B69" s="14">
+        <f>SUM(B65:B68)</f>
         <v>118800</v>
       </c>
-      <c r="C68" s="14">
-        <f>SUM(C64:C67)</f>
+      <c r="C69" s="14">
+        <f>SUM(C65:C68)</f>
         <v>113050</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="14">
-        <f>SUM(E64:E67)</f>
+      <c r="D69" s="11"/>
+      <c r="E69" s="14">
+        <f>SUM(E65:E68)</f>
         <v>86120</v>
       </c>
-      <c r="F68" s="14">
-        <f>SUM(F64:F67)</f>
+      <c r="F69" s="14">
+        <f>SUM(F65:F68)</f>
         <v>77070</v>
       </c>
-      <c r="G68" s="14">
-        <f>SUM(G64:G67)</f>
+      <c r="G69" s="14">
+        <f>SUM(G65:G68)</f>
         <v>104820</v>
       </c>
-      <c r="H68" s="14">
-        <f>SUM(H64:H67)</f>
+      <c r="H69" s="14">
+        <f>SUM(H65:H68)</f>
         <v>87820</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <f>B68-E68</f>
-        <v>32680</v>
-      </c>
-      <c r="F69" s="12">
-        <f>C68-F68</f>
-        <v>35980</v>
-      </c>
-      <c r="G69" s="4">
-        <f>G68-F68</f>
-        <v>27750</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" customHeight="1">
@@ -2207,37 +2330,52 @@
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
       <c r="D70" s="11"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="4"/>
+      <c r="E70" s="11">
+        <f>B69-E69</f>
+        <v>32680</v>
+      </c>
+      <c r="F70" s="12">
+        <f>C69-F69</f>
+        <v>35980</v>
+      </c>
+      <c r="G70" s="4">
+        <f>G69-F69</f>
+        <v>27750</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A72" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B72" s="12">
         <v>27500</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C72" s="12">
         <v>27500</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D72" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>27500</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>27500</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <v>27500</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H72" s="12">
         <v>27500</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
-      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1">
       <c r="G73" s="4"/>
@@ -2253,6 +2391,9 @@
     </row>
     <row r="77" spans="1:8" ht="18.75" customHeight="1">
       <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G78" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A2663-0638-A147-8CFE-5E08AA0FF38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDBBF9-E844-7346-ADB4-302F1CC7CE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -576,6 +576,26 @@
   </si>
   <si>
     <t>월요일에 하은이한테 물어보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형? 사각?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥그린? 미드나잇블루?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7 요청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800mmx높이 75mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,9 +792,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -785,6 +802,12 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1086,7 +1109,7 @@
     <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="11"/>
-    <col min="12" max="12" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
@@ -1094,7 +1117,7 @@
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1103,7 +1126,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="2"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
@@ -1209,11 +1232,11 @@
       <c r="H9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -1352,11 +1375,11 @@
       <c r="K15" s="11">
         <v>132800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="12">
         <f>K15-6436</f>
         <v>126364</v>
       </c>
-      <c r="P15" s="26"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1">
       <c r="C16" s="7"/>
@@ -1365,7 +1388,8 @@
         <v>113</v>
       </c>
       <c r="F16" s="3">
-        <v>150000</v>
+        <f>150000-10000</f>
+        <v>140000</v>
       </c>
       <c r="G16" s="10">
         <v>44568</v>
@@ -1381,6 +1405,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1">
       <c r="E18" s="17" t="s">
@@ -1388,7 +1413,7 @@
       </c>
       <c r="F18" s="8">
         <f>(F15+F16)-SUM(F19:F58)+25</f>
-        <v>360650</v>
+        <v>239650</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>36</v>
@@ -1405,7 +1430,7 @@
       <c r="K18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1426,7 +1451,7 @@
       <c r="G19" s="20">
         <v>44921</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>71</v>
       </c>
       <c r="I19" s="18" t="s">
@@ -1438,7 +1463,7 @@
       <c r="K19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="26" t="s">
         <v>95</v>
       </c>
       <c r="M19" s="19"/>
@@ -1460,7 +1485,7 @@
       <c r="G20" s="20">
         <v>44925</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="18" t="s">
@@ -1472,7 +1497,7 @@
       <c r="K20" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="19"/>
       <c r="N20" s="3" t="s">
         <v>134</v>
@@ -1482,7 +1507,7 @@
       <c r="D21" s="4">
         <v>110000</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>90</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -1517,7 +1542,7 @@
       <c r="D23" s="3">
         <v>309000</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -1543,7 +1568,7 @@
       <c r="G24" s="20">
         <v>44925</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>65</v>
       </c>
       <c r="I24" s="18" t="s">
@@ -1555,7 +1580,7 @@
       <c r="K24" s="22">
         <v>44568</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="30" t="s">
         <v>94</v>
       </c>
       <c r="M24" s="23"/>
@@ -1584,7 +1609,7 @@
       <c r="D26" s="4">
         <v>41900</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -1619,7 +1644,7 @@
       <c r="G28" s="20">
         <v>44926</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>131</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -1629,7 +1654,7 @@
         <v>116</v>
       </c>
       <c r="K28" s="18"/>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="26" t="s">
         <v>104</v>
       </c>
       <c r="M28" s="19"/>
@@ -1652,7 +1677,7 @@
       <c r="G29" s="20">
         <v>44926</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="26" t="s">
         <v>133</v>
       </c>
       <c r="I29" s="18" t="s">
@@ -1662,7 +1687,7 @@
         <v>116</v>
       </c>
       <c r="K29" s="18"/>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="26" t="s">
         <v>126</v>
       </c>
       <c r="M29" s="19"/>
@@ -1684,7 +1709,7 @@
       <c r="G30" s="20">
         <v>44926</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="26" t="s">
         <v>96</v>
       </c>
       <c r="I30" s="18" t="s">
@@ -1694,7 +1719,7 @@
         <v>116</v>
       </c>
       <c r="K30" s="18"/>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="26" t="s">
         <v>125</v>
       </c>
       <c r="M30" s="19"/>
@@ -1716,7 +1741,7 @@
       <c r="G31" s="20">
         <v>44926</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="26" t="s">
         <v>101</v>
       </c>
       <c r="I31" s="18" t="s">
@@ -1726,7 +1751,7 @@
         <v>116</v>
       </c>
       <c r="K31" s="18"/>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="26" t="s">
         <v>105</v>
       </c>
       <c r="M31" s="19"/>
@@ -1747,7 +1772,7 @@
       <c r="G32" s="20">
         <v>44926</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="26" t="s">
         <v>102</v>
       </c>
       <c r="I32" s="18" t="s">
@@ -1757,7 +1782,7 @@
         <v>116</v>
       </c>
       <c r="K32" s="18"/>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="26" t="s">
         <v>104</v>
       </c>
       <c r="M32" s="19"/>
@@ -1778,7 +1803,7 @@
       <c r="G33" s="20">
         <v>44926</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="26" t="s">
         <v>132</v>
       </c>
       <c r="I33" s="18" t="s">
@@ -1788,7 +1813,7 @@
         <v>116</v>
       </c>
       <c r="K33" s="18"/>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="26" t="s">
         <v>105</v>
       </c>
       <c r="M33" s="19"/>
@@ -1810,7 +1835,7 @@
       <c r="G34" s="20">
         <v>44926</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="26" t="s">
         <v>103</v>
       </c>
       <c r="I34" s="18" t="s">
@@ -1820,7 +1845,7 @@
         <v>116</v>
       </c>
       <c r="K34" s="18"/>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="26" t="s">
         <v>104</v>
       </c>
       <c r="M34" s="19"/>
@@ -1843,7 +1868,7 @@
       <c r="G35" s="20">
         <v>44926</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="26" t="s">
         <v>127</v>
       </c>
       <c r="I35" s="18" t="s">
@@ -1853,7 +1878,7 @@
         <v>116</v>
       </c>
       <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="19"/>
       <c r="N35" s="3" t="s">
         <v>134</v>
@@ -1863,7 +1888,7 @@
       <c r="D36" s="4">
         <v>39900</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="27" t="s">
         <v>77</v>
       </c>
       <c r="H36" s="12" t="s">
@@ -1888,7 +1913,7 @@
       <c r="D38" s="4">
         <v>7900</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -1899,7 +1924,7 @@
       <c r="D39" s="4">
         <v>99900</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="27" t="s">
         <v>73</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -1910,7 +1935,7 @@
       <c r="D40" s="4">
         <v>17900</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="27" t="s">
         <v>74</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -1921,7 +1946,7 @@
       <c r="D41" s="4">
         <v>2500</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="27" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="4"/>
@@ -1944,7 +1969,7 @@
       <c r="G42" s="20">
         <v>44926</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="26" t="s">
         <v>129</v>
       </c>
       <c r="I42" s="21" t="s">
@@ -1954,7 +1979,7 @@
         <v>56</v>
       </c>
       <c r="K42" s="18"/>
-      <c r="L42" s="19"/>
+      <c r="L42" s="26"/>
       <c r="M42" s="19"/>
       <c r="N42" s="3" t="s">
         <v>134</v>
@@ -1975,7 +2000,7 @@
       <c r="G43" s="24">
         <v>44925</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="26" t="s">
         <v>61</v>
       </c>
       <c r="I43" s="18" t="s">
@@ -1987,7 +2012,7 @@
       <c r="K43" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L43" s="19"/>
+      <c r="L43" s="26"/>
       <c r="M43" s="19"/>
     </row>
     <row r="44" spans="3:14" ht="18.75" customHeight="1">
@@ -1996,7 +2021,7 @@
         <f>48900+14000</f>
         <v>62900</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="27" t="s">
         <v>89</v>
       </c>
       <c r="G44" s="7"/>
@@ -2006,22 +2031,47 @@
       <c r="I44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="3:14" ht="18.75" customHeight="1">
-      <c r="E45" s="28" t="s">
+      <c r="D45" s="4">
+        <f>99000+12000</f>
+        <v>111000</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="4"/>
+      <c r="F45" s="19">
+        <f>D45</f>
+        <v>111000</v>
+      </c>
+      <c r="G45" s="20">
+        <v>44928</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M45" s="19"/>
+      <c r="N45" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="46" spans="3:14" ht="18.75" customHeight="1">
       <c r="D46" s="3">
         <v>146020</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G46" s="4"/>
@@ -2032,7 +2082,7 @@
         <f>15000+3000</f>
         <v>18000</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="28" t="s">
         <v>84</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -2042,23 +2092,35 @@
         <v>108</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="18.75" customHeight="1">
-      <c r="E48" s="29" t="s">
+      <c r="D48" s="4">
+        <v>50000</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>57</v>
       </c>
+      <c r="H48" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1">
-      <c r="E49" s="29" t="s">
+      <c r="L48" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18.75" customHeight="1">
+      <c r="E49" s="28" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1">
+    <row r="50" spans="1:12" ht="18.75" customHeight="1">
       <c r="D50" s="3"/>
       <c r="E50" s="28" t="s">
         <v>86</v>
@@ -2066,20 +2128,20 @@
       <c r="G50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1">
       <c r="E51" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1">
       <c r="E52" s="11" t="s">
         <v>40</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>28</v>
@@ -2087,7 +2149,7 @@
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>29</v>
@@ -2095,21 +2157,21 @@
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1">
       <c r="D55" s="3"/>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="28" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1">
-      <c r="E56" s="29" t="s">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1">
+      <c r="E56" s="28" t="s">
         <v>75</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2122,11 +2184,11 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="28" t="s">
         <v>122</v>
       </c>
       <c r="G58" s="4"/>
@@ -2134,16 +2196,16 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1">
+    <row r="59" spans="1:12" ht="18.75" customHeight="1">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <f>170000-90000</f>
@@ -2158,7 +2220,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>51</v>
       </c>
@@ -2183,8 +2245,9 @@
       </c>
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
         <v>43</v>
@@ -2207,6 +2270,7 @@
       </c>
       <c r="I64" s="11"/>
       <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
     </row>
     <row r="65" spans="1:8" ht="18.75" customHeight="1">
       <c r="A65" s="11" t="s">
@@ -2264,20 +2328,20 @@
         <v>45</v>
       </c>
       <c r="E67" s="12">
-        <f>24000+35500+1320</f>
-        <v>60820</v>
+        <f>19900+35500+1320</f>
+        <v>56720</v>
       </c>
       <c r="F67" s="12">
-        <f>24000+35500+1320</f>
-        <v>60820</v>
+        <f t="shared" ref="F67:H67" si="1">19900+35500+1320</f>
+        <v>56720</v>
       </c>
       <c r="G67" s="12">
-        <f>24000+35500+1320</f>
-        <v>60820</v>
+        <f t="shared" si="1"/>
+        <v>56720</v>
       </c>
       <c r="H67" s="12">
-        <f>24000+35500+1320</f>
-        <v>60820</v>
+        <f t="shared" si="1"/>
+        <v>56720</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
@@ -2310,19 +2374,19 @@
       <c r="D69" s="11"/>
       <c r="E69" s="14">
         <f>SUM(E65:E68)</f>
-        <v>86120</v>
+        <v>82020</v>
       </c>
       <c r="F69" s="14">
         <f>SUM(F65:F68)</f>
-        <v>77070</v>
+        <v>72970</v>
       </c>
       <c r="G69" s="14">
         <f>SUM(G65:G68)</f>
-        <v>104820</v>
+        <v>100720</v>
       </c>
       <c r="H69" s="14">
         <f>SUM(H65:H68)</f>
-        <v>87820</v>
+        <v>83720</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" customHeight="1">
@@ -2332,11 +2396,11 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11">
         <f>B69-E69</f>
-        <v>32680</v>
+        <v>36780</v>
       </c>
       <c r="F70" s="12">
         <f>C69-F69</f>
-        <v>35980</v>
+        <v>40080</v>
       </c>
       <c r="G70" s="4">
         <f>G69-F69</f>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDBBF9-E844-7346-ADB4-302F1CC7CE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -591,23 +590,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1/7 요청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>800mmx높이 75mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7 이후 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m\/d"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,88 +728,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1089,32 +1092,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="11"/>
-    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="11"/>
+    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="3"/>
+    <col min="14" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44928</v>
@@ -1130,12 +1133,12 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1213,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1232,13 +1235,13 @@
       <c r="H9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1384,7 @@
       </c>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1398,7 +1401,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="E17" s="11"/>
       <c r="G17" s="10"/>
@@ -1407,7 +1410,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="18.75" customHeight="1">
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="17" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="4">
         <f>F19</f>
         <v>434700</v>
@@ -1471,7 +1474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1">
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>212900</v>
@@ -1503,7 +1506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <v>110000</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1">
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="11" t="s">
@@ -1537,7 +1540,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3">
         <v>309000</v>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="4">
         <f>F24</f>
@@ -1580,12 +1583,12 @@
       <c r="K24" s="22">
         <v>44568</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="29" t="s">
         <v>94</v>
       </c>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>106</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1">
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="4">
         <v>41900</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="11" t="s">
         <v>117</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1">
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="4">
         <v>17300</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1">
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -1695,7 +1698,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18.75" customHeight="1">
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <v>97750</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>18700</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1">
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="18.75" customHeight="1">
+    <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>17850</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="18.75" customHeight="1">
+    <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>22000</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="18.75" customHeight="1">
+    <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -1884,7 +1887,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="18.75" customHeight="1">
+    <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>39900</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="18.75" customHeight="1">
+    <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="16"/>
       <c r="E37" s="11" t="s">
@@ -1909,7 +1912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="18.75" customHeight="1">
+    <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="4">
         <v>7900</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" customHeight="1">
+    <row r="39" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>99900</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="18.75" customHeight="1">
+    <row r="40" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>17900</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="18.75" customHeight="1">
+    <row r="41" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>2500</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="18.75" customHeight="1">
+    <row r="42" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="16">
         <f>117500+11000+36500+6000</f>
@@ -1985,7 +1988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="18.75" customHeight="1">
+    <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16">
         <f>F43</f>
@@ -2015,7 +2018,7 @@
       <c r="L43" s="26"/>
       <c r="M43" s="19"/>
     </row>
-    <row r="44" spans="3:14" ht="18.75" customHeight="1">
+    <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>48900+14000</f>
@@ -2032,7 +2035,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="3:14" ht="18.75" customHeight="1">
+    <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2057,17 +2060,17 @@
         <v>56</v>
       </c>
       <c r="K45" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="L45" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" ht="18.75" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="3">
         <v>146020</v>
       </c>
@@ -2077,7 +2080,7 @@
       <c r="G46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="3:14" ht="18.75" customHeight="1">
+    <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2096,7 +2099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="3:14" ht="18.75" customHeight="1">
+    <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <v>50000</v>
       </c>
@@ -2114,13 +2117,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1">
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="28" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1">
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="3"/>
       <c r="E50" s="28" t="s">
         <v>86</v>
@@ -2128,20 +2131,20 @@
       <c r="G50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>40</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>28</v>
@@ -2149,7 +2152,7 @@
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>29</v>
@@ -2157,7 +2160,7 @@
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="28" t="s">
         <v>32</v>
@@ -2165,13 +2168,13 @@
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="28" t="s">
         <v>75</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2196,16 +2199,16 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1">
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <f>170000-90000</f>
@@ -2220,7 +2223,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>51</v>
       </c>
@@ -2247,7 +2250,7 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
         <v>43</v>
@@ -2272,7 +2275,7 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>52</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>46</v>
       </c>
@@ -2314,7 +2317,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>44</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>50</v>
       </c>
@@ -2361,7 +2364,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="14">
         <f>SUM(B65:B68)</f>
@@ -2389,7 +2392,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2407,7 +2410,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
@@ -2415,7 +2418,7 @@
       <c r="F71" s="12"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>49</v>
       </c>
@@ -2441,22 +2444,22 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="4"/>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미니빔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>물티슈통</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -282,10 +278,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1/6 오후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>롯데홈쇼핑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -574,10 +566,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>월요일에 하은이한테 물어보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>원형? 사각?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -599,6 +587,38 @@
   </si>
   <si>
     <t>배송일 문의 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰소닉 m1+g2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔프로젝터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 배송일 지정 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 발송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 전일 연락올 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6 발송 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6 발송 예정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1116,7 @@
   <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1244,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3">
         <v>140000</v>
@@ -1233,10 +1253,10 @@
         <v>44568</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
@@ -1388,7 +1408,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F16" s="3">
         <f>150000-10000</f>
@@ -1398,7 +1418,7 @@
         <v>44568</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1422,22 +1442,22 @@
         <v>36</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1455,23 +1475,23 @@
         <v>44921</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>56</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,21 +1509,21 @@
         <v>44925</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="22" t="s">
-        <v>62</v>
+      <c r="K20" s="22">
+        <v>44932</v>
       </c>
       <c r="L20" s="26"/>
       <c r="M20" s="19"/>
       <c r="N20" s="3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1511,13 +1531,13 @@
         <v>110000</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="15">
@@ -1528,7 +1548,7 @@
       <c r="A22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>42</v>
@@ -1537,7 +1557,7 @@
         <v>56</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1549,10 +1569,10 @@
         <v>26</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1572,10 +1592,10 @@
         <v>44925</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>56</v>
@@ -1584,28 +1604,25 @@
         <v>44568</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4">
         <v>87900</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1616,21 +1633,21 @@
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1638,7 +1655,7 @@
         <v>17300</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" s="19">
         <f>D28</f>
@@ -1648,21 +1665,21 @@
         <v>44926</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1671,7 +1688,7 @@
         <v>61225</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F29" s="19">
         <f>D29</f>
@@ -1681,21 +1698,21 @@
         <v>44926</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1720,7 @@
         <v>97750</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" ref="F30:F35" si="0">D30</f>
@@ -1713,21 +1730,23 @@
         <v>44926</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="18"/>
+        <v>114</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="L30" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1735,7 +1754,7 @@
         <v>18700</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" si="0"/>
@@ -1745,21 +1764,23 @@
         <v>44926</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K31" s="18"/>
+        <v>114</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="L31" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,7 +1788,7 @@
         <v>18700</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F32" s="19">
         <v>18700</v>
@@ -1776,21 +1797,23 @@
         <v>44926</v>
       </c>
       <c r="H32" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="26" t="s">
-        <v>104</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1798,7 +1821,7 @@
         <v>17850</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F33" s="19">
         <v>36550</v>
@@ -1807,21 +1830,23 @@
         <v>44926</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="18"/>
+        <v>114</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="L33" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1829,7 +1854,7 @@
         <v>22000</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="19">
         <f t="shared" si="0"/>
@@ -1839,21 +1864,23 @@
         <v>44926</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" s="18"/>
+        <v>114</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="L34" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1862,7 +1889,7 @@
         <v>42250</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="0"/>
@@ -1872,30 +1899,29 @@
         <v>44926</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="18"/>
+        <v>114</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="L35" s="26"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="3" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>39900</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>23</v>
@@ -1928,7 +1954,7 @@
         <v>99900</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>23</v>
@@ -1939,7 +1965,7 @@
         <v>17900</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>23</v>
@@ -1950,7 +1976,7 @@
         <v>2500</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G41" s="4"/>
       <c r="I41" s="11" t="s">
@@ -1973,19 +1999,21 @@
         <v>44926</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J42" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K42" s="18"/>
+      <c r="K42" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="L42" s="26"/>
       <c r="M42" s="19"/>
       <c r="N42" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2004,16 +2032,16 @@
         <v>44925</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L43" s="26"/>
       <c r="M43" s="19"/>
@@ -2025,14 +2053,14 @@
         <v>62900</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2051,23 +2079,23 @@
         <v>44928</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J45" s="21" t="s">
         <v>56</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L45" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2086,17 +2114,17 @@
         <v>18000</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J47" s="4"/>
       <c r="L47" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2107,33 +2135,39 @@
         <v>57</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J48" s="4"/>
       <c r="L48" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="28" t="s">
-        <v>58</v>
+        <v>141</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="3"/>
       <c r="E50" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
@@ -2170,7 +2204,7 @@
     </row>
     <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G56" s="4"/>
     </row>
@@ -2183,7 +2217,7 @@
       </c>
       <c r="G57" s="4"/>
       <c r="I57" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J57" s="4"/>
     </row>
@@ -2192,11 +2226,11 @@
         <v>110000</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2241,10 +2275,10 @@
         <v>54</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="148">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -619,6 +619,10 @@
   </si>
   <si>
     <t>1/6 발송 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +835,9 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1116,7 +1123,7 @@
   <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2087,15 +2094,15 @@
       <c r="J45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K45" s="18" t="s">
-        <v>137</v>
+      <c r="K45" s="31">
+        <v>0.1111111111111111</v>
       </c>
       <c r="L45" s="26" t="s">
         <v>136</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,11 +833,11 @@
     <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1262,11 +1262,11 @@
       <c r="H9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1418,8 +1418,8 @@
         <v>111</v>
       </c>
       <c r="F16" s="3">
-        <f>150000-10000</f>
-        <v>140000</v>
+        <f>120000</f>
+        <v>120000</v>
       </c>
       <c r="G16" s="10">
         <v>44568</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="F18" s="8">
         <f>(F15+F16)-SUM(F19:F58)+25</f>
-        <v>239650</v>
+        <v>219650</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>36</v>
@@ -2094,7 +2094,7 @@
       <c r="J45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="30">
         <v>0.1111111111111111</v>
       </c>
       <c r="L45" s="26" t="s">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="147">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -367,10 +367,6 @@
   </si>
   <si>
     <t>위닉스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>랙선반</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1120,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1247,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3">
         <v>140000</v>
@@ -1260,10 +1256,10 @@
         <v>44568</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -1415,7 +1411,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="3">
         <f>120000</f>
@@ -1425,7 +1421,7 @@
         <v>44568</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1442,17 +1438,17 @@
         <v>19</v>
       </c>
       <c r="F18" s="8">
-        <f>(F15+F16)-SUM(F19:F58)+25</f>
+        <f>(F15+F16)-SUM(F19:F57)+25</f>
         <v>219650</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>55</v>
@@ -1464,7 +1460,7 @@
         <v>34</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1494,11 +1490,11 @@
         <v>65</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1530,7 +1526,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="19"/>
       <c r="N20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1538,10 +1534,10 @@
         <v>110000</v>
       </c>
       <c r="E21" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>80</v>
@@ -1555,7 +1551,7 @@
       <c r="A22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>42</v>
@@ -1611,13 +1607,13 @@
         <v>44568</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="4">
         <v>87900</v>
@@ -1646,12 +1642,12 @@
         <v>64</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>64</v>
@@ -1662,7 +1658,7 @@
         <v>17300</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="19">
         <f>D28</f>
@@ -1672,21 +1668,21 @@
         <v>44926</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>64</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1695,7 +1691,7 @@
         <v>61225</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="19">
         <f>D29</f>
@@ -1705,21 +1701,21 @@
         <v>44926</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1727,7 +1723,7 @@
         <v>97750</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" ref="F30:F35" si="0">D30</f>
@@ -1737,23 +1733,23 @@
         <v>44926</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="26" t="s">
         <v>122</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L30" s="26" t="s">
-        <v>123</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1761,7 +1757,7 @@
         <v>18700</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" si="0"/>
@@ -1771,23 +1767,23 @@
         <v>44926</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,7 +1791,7 @@
         <v>18700</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="19">
         <v>18700</v>
@@ -1804,23 +1800,23 @@
         <v>44926</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1828,7 +1824,7 @@
         <v>17850</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="19">
         <v>36550</v>
@@ -1837,23 +1833,23 @@
         <v>44926</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1861,7 +1857,7 @@
         <v>22000</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="19">
         <f t="shared" si="0"/>
@@ -1871,23 +1867,23 @@
         <v>44926</v>
       </c>
       <c r="H34" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" s="26" t="s">
         <v>101</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>102</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,7 +1892,7 @@
         <v>42250</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="0"/>
@@ -1906,16 +1902,16 @@
         <v>44926</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L35" s="26"/>
       <c r="M35" s="19"/>
@@ -2006,7 +2002,7 @@
         <v>44926</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="21" t="s">
         <v>68</v>
@@ -2015,12 +2011,12 @@
         <v>56</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L42" s="26"/>
       <c r="M42" s="19"/>
       <c r="N42" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2045,7 +2041,7 @@
         <v>68</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K43" s="18" t="s">
         <v>66</v>
@@ -2060,11 +2056,11 @@
         <v>62900</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>68</v>
@@ -2086,7 +2082,7 @@
         <v>44928</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>64</v>
@@ -2098,11 +2094,11 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="L45" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2124,14 +2120,14 @@
         <v>82</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="J47" s="4"/>
       <c r="L47" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2142,103 +2138,98 @@
         <v>57</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J48" s="4"/>
       <c r="L48" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I49" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="3"/>
-      <c r="E50" s="28" t="s">
-        <v>84</v>
+      <c r="E50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="G50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="4"/>
+        <v>40</v>
+      </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="3"/>
       <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
-      <c r="E54" s="11" t="s">
-        <v>29</v>
+      <c r="E54" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="3"/>
       <c r="E55" s="28" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="28" t="s">
-        <v>73</v>
+      <c r="D56" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G56" s="4"/>
+      <c r="I56" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="3">
-        <v>200000</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>30</v>
+      <c r="D57" s="4">
+        <v>110000</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="I57" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J57" s="4"/>
+      <c r="H57" s="12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="4">
-        <v>110000</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>120</v>
-      </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="12" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
@@ -2247,190 +2238,205 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12">
         <f>170000-90000</f>
         <v>80000</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11">
+      <c r="C61" s="13"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
         <f>170000-70000</f>
         <v>100000</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="4"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
     </row>
     <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
+    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="12">
+        <f>(22000*10%)+22000</f>
+        <v>24200</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="12">
+        <f>(22000*10%)+22000</f>
+        <v>24200</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="4">
+        <v>44000</v>
+      </c>
+      <c r="H64" s="12">
+        <f>G64-17000</f>
+        <v>27000</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="12">
-        <f>(22000*10%)+22000</f>
-        <v>24200</v>
-      </c>
-      <c r="C65" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12">
+        <v>19550</v>
+      </c>
       <c r="D65" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E65" s="12">
-        <f>(22000*10%)+22000</f>
-        <v>24200</v>
-      </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="4">
-        <v>44000</v>
-      </c>
-      <c r="H65" s="12">
-        <f>G65-17000</f>
-        <v>27000</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12">
+        <v>16250</v>
+      </c>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="B66" s="12">
+        <v>93500</v>
+      </c>
       <c r="C66" s="12">
-        <v>19550</v>
+        <v>93500</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12">
-        <v>16250</v>
-      </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="12">
-        <v>93500</v>
-      </c>
-      <c r="C67" s="12">
-        <v>93500</v>
-      </c>
-      <c r="D67" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E66" s="12">
         <f>19900+35500+1320</f>
         <v>56720</v>
       </c>
-      <c r="F67" s="12">
-        <f t="shared" ref="F67:H67" si="1">19900+35500+1320</f>
+      <c r="F66" s="12">
+        <f t="shared" ref="F66:H66" si="1">19900+35500+1320</f>
         <v>56720</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G66" s="12">
         <f t="shared" si="1"/>
         <v>56720</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H66" s="12">
         <f t="shared" si="1"/>
         <v>56720</v>
       </c>
     </row>
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="12">
+        <v>1100</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="12">
+        <v>1100</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="4"/>
+    </row>
     <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="12">
-        <v>1100</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="12">
-        <v>1100</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11"/>
+      <c r="B68" s="14">
+        <f>SUM(B64:B67)</f>
+        <v>118800</v>
+      </c>
+      <c r="C68" s="14">
+        <f>SUM(C64:C67)</f>
+        <v>113050</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="14">
+        <f>SUM(E64:E67)</f>
+        <v>82020</v>
+      </c>
+      <c r="F68" s="14">
+        <f>SUM(F64:F67)</f>
+        <v>72970</v>
+      </c>
+      <c r="G68" s="14">
+        <f>SUM(G64:G67)</f>
+        <v>100720</v>
+      </c>
+      <c r="H68" s="14">
+        <f>SUM(H64:H67)</f>
+        <v>83720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="14">
-        <f>SUM(B65:B68)</f>
-        <v>118800</v>
-      </c>
-      <c r="C69" s="14">
-        <f>SUM(C65:C68)</f>
-        <v>113050</v>
-      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="14">
-        <f>SUM(E65:E68)</f>
-        <v>82020</v>
-      </c>
-      <c r="F69" s="14">
-        <f>SUM(F65:F68)</f>
-        <v>72970</v>
-      </c>
-      <c r="G69" s="14">
-        <f>SUM(G65:G68)</f>
-        <v>100720</v>
-      </c>
-      <c r="H69" s="14">
-        <f>SUM(H65:H68)</f>
-        <v>83720</v>
+      <c r="E69" s="11">
+        <f>B68-E68</f>
+        <v>36780</v>
+      </c>
+      <c r="F69" s="12">
+        <f>C68-F68</f>
+        <v>40080</v>
+      </c>
+      <c r="G69" s="4">
+        <f>G68-F68</f>
+        <v>27750</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2438,52 +2444,37 @@
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="11">
-        <f>B69-E69</f>
-        <v>36780</v>
-      </c>
-      <c r="F70" s="12">
-        <f>C69-F69</f>
-        <v>40080</v>
-      </c>
-      <c r="G70" s="4">
-        <f>G69-F69</f>
-        <v>27750</v>
-      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="11"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="4"/>
+      <c r="A71" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="12">
+        <v>27500</v>
+      </c>
+      <c r="C71" s="12">
+        <v>27500</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="12">
+        <v>27500</v>
+      </c>
+      <c r="F71" s="12">
+        <v>27500</v>
+      </c>
+      <c r="G71" s="12">
+        <v>27500</v>
+      </c>
+      <c r="H71" s="12">
+        <v>27500</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="12">
-        <v>27500</v>
-      </c>
-      <c r="C72" s="12">
-        <v>27500</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72" s="12">
-        <v>27500</v>
-      </c>
-      <c r="F72" s="12">
-        <v>27500</v>
-      </c>
-      <c r="G72" s="12">
-        <v>27500</v>
-      </c>
-      <c r="H72" s="12">
-        <v>27500</v>
-      </c>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
@@ -2499,9 +2490,6 @@
     </row>
     <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G78" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86C2932-231F-F745-BF99-A8EBCBD487E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="148">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -619,18 +620,22 @@
   </si>
   <si>
     <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3 발송 예정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,91 +753,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1115,32 +1120,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="11"/>
-    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="11"/>
+    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.625" style="3"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44928</v>
@@ -1156,12 +1161,12 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1241,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1269,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +1342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1412,7 @@
       </c>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1424,7 +1429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C17" s="2"/>
       <c r="E17" s="11"/>
       <c r="G17" s="10"/>
@@ -1433,7 +1438,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="18.75" customHeight="1">
       <c r="E18" s="17" t="s">
         <v>19</v>
       </c>
@@ -1463,7 +1468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1">
       <c r="D19" s="4">
         <f>F19</f>
         <v>434700</v>
@@ -1497,7 +1502,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="18.75" customHeight="1">
       <c r="D20" s="4">
         <f>F20</f>
         <v>212900</v>
@@ -1521,7 +1526,7 @@
         <v>56</v>
       </c>
       <c r="K20" s="22">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="L20" s="26"/>
       <c r="M20" s="19"/>
@@ -1529,7 +1534,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
       <c r="D21" s="4">
         <v>110000</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="18.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="11" t="s">
@@ -1563,7 +1568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="D23" s="3">
         <v>309000</v>
@@ -1579,7 +1584,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C24" s="2"/>
       <c r="D24" s="4">
         <f>F24</f>
@@ -1611,7 +1616,7 @@
       </c>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1">
       <c r="C25" s="2" t="s">
         <v>103</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="18.75" customHeight="1">
       <c r="D26" s="4">
         <v>41900</v>
       </c>
@@ -1645,7 +1650,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1">
       <c r="E27" s="11" t="s">
         <v>114</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="18.75" customHeight="1">
       <c r="D28" s="4">
         <v>17300</v>
       </c>
@@ -1676,7 +1681,9 @@
       <c r="J28" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="L28" s="26" t="s">
         <v>101</v>
       </c>
@@ -1685,7 +1692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="18.75" customHeight="1">
       <c r="D29" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -1709,7 +1716,9 @@
       <c r="J29" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="L29" s="26" t="s">
         <v>123</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="18.75" customHeight="1">
       <c r="D30" s="4">
         <v>97750</v>
       </c>
@@ -1752,7 +1761,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
       <c r="D31" s="4">
         <v>18700</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="18.75" customHeight="1">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:14" ht="18.75" customHeight="1">
       <c r="D33" s="4">
         <v>17850</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" ht="18.75" customHeight="1">
       <c r="D34" s="4">
         <v>22000</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" ht="18.75" customHeight="1">
       <c r="D35" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -1916,7 +1925,7 @@
       <c r="L35" s="26"/>
       <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14" ht="18.75" customHeight="1">
       <c r="D36" s="4">
         <v>39900</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14" ht="18.75" customHeight="1">
       <c r="C37" s="9"/>
       <c r="D37" s="16"/>
       <c r="E37" s="11" t="s">
@@ -1941,7 +1950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:14" ht="18.75" customHeight="1">
       <c r="D38" s="4">
         <v>7900</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:14" ht="18.75" customHeight="1">
       <c r="D39" s="4">
         <v>99900</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:14" ht="18.75" customHeight="1">
       <c r="D40" s="4">
         <v>17900</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:14" ht="18.75" customHeight="1">
       <c r="D41" s="4">
         <v>2500</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:14" ht="18.75" customHeight="1">
       <c r="C42" s="9"/>
       <c r="D42" s="16">
         <f>117500+11000+36500+6000</f>
@@ -2019,7 +2028,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:14" ht="18.75" customHeight="1">
       <c r="C43" s="9"/>
       <c r="D43" s="16">
         <f>F43</f>
@@ -2049,7 +2058,7 @@
       <c r="L43" s="26"/>
       <c r="M43" s="19"/>
     </row>
-    <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:14" ht="18.75" customHeight="1">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>48900+14000</f>
@@ -2066,7 +2075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:14" ht="18.75" customHeight="1">
       <c r="D45" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2101,7 +2110,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:14" ht="18.75" customHeight="1">
       <c r="D46" s="3">
         <v>146020</v>
       </c>
@@ -2111,7 +2120,7 @@
       <c r="G46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:14" ht="18.75" customHeight="1">
       <c r="D47" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2130,7 +2139,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:14" ht="18.75" customHeight="1">
       <c r="D48" s="4">
         <v>50000</v>
       </c>
@@ -2148,7 +2157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="18.75" customHeight="1">
       <c r="E49" s="28" t="s">
         <v>140</v>
       </c>
@@ -2160,20 +2169,20 @@
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="18.75" customHeight="1">
       <c r="E50" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1">
       <c r="E51" s="11" t="s">
         <v>40</v>
       </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1">
       <c r="D52" s="3"/>
       <c r="E52" s="11" t="s">
         <v>28</v>
@@ -2181,7 +2190,7 @@
       <c r="G52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>29</v>
@@ -2189,7 +2198,7 @@
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1">
       <c r="D54" s="3"/>
       <c r="E54" s="28" t="s">
         <v>32</v>
@@ -2197,13 +2206,13 @@
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1">
       <c r="E55" s="28" t="s">
         <v>73</v>
       </c>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1">
       <c r="D56" s="3">
         <v>200000</v>
       </c>
@@ -2216,7 +2225,7 @@
       </c>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1">
       <c r="D57" s="4">
         <v>110000</v>
       </c>
@@ -2228,16 +2237,16 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1">
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="18.75" customHeight="1">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12">
         <f>170000-90000</f>
@@ -2252,7 +2261,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>51</v>
       </c>
@@ -2279,7 +2288,7 @@
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
         <v>43</v>
@@ -2304,7 +2313,7 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="18.75" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>52</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>46</v>
       </c>
@@ -2346,7 +2355,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>44</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A67" s="11" t="s">
         <v>50</v>
       </c>
@@ -2393,7 +2402,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A68" s="11"/>
       <c r="B68" s="14">
         <f>SUM(B64:B67)</f>
@@ -2421,7 +2430,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -2439,7 +2448,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2447,7 +2456,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>49</v>
       </c>
@@ -2473,22 +2482,22 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1">
       <c r="G77" s="4"/>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86C2932-231F-F745-BF99-A8EBCBD487E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="146">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -295,14 +294,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1/7 오후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/3~1/4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수령일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -603,10 +594,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1/2 발송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>배송일 문의 완료 / 전일 연락올 예정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -624,18 +611,22 @@
   </si>
   <si>
     <t>1/3 발송 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m\/d"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -753,91 +744,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1120,35 +1111,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="11"/>
-    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="11"/>
+    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="3"/>
+    <col min="14" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1161,12 +1152,12 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1172,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1189,15 +1180,15 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1210,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1232,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1243,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3">
         <v>140000</v>
@@ -1261,15 +1252,15 @@
         <v>44568</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1294,7 +1285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1342,7 +1333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1412,11 +1403,11 @@
       </c>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" s="3">
         <f>120000</f>
@@ -1426,101 +1417,71 @@
         <v>44568</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C17" s="2"/>
-      <c r="E17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="18.75" customHeight="1">
-      <c r="E18" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="8">
-        <f>(F15+F16)-SUM(F19:F57)+25</f>
+      <c r="F19" s="8">
+        <f>(F15+F16)-SUM(F20:F58)+25</f>
         <v>219650</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="H19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="11" t="s">
+      <c r="K19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1">
-      <c r="D19" s="4">
-        <f>F19</f>
-        <v>434700</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="19">
-        <v>434700</v>
-      </c>
-      <c r="G19" s="20">
-        <v>44921</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1">
+      <c r="M19" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
-        <v>212900</v>
+        <v>434700</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="19">
-        <v>212900</v>
+        <v>434700</v>
       </c>
       <c r="G20" s="20">
-        <v>44925</v>
+        <v>44921</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>56</v>
@@ -1528,977 +1489,1011 @@
       <c r="K20" s="22">
         <v>44933</v>
       </c>
-      <c r="L20" s="26"/>
+      <c r="L20" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="M20" s="19"/>
       <c r="N20" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
+        <f>F21</f>
+        <v>212900</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="19">
+        <v>212900</v>
+      </c>
+      <c r="G21" s="20">
+        <v>44925</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="22">
+        <v>44933</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
         <v>110000</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="15">
+      <c r="E22" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="15">
         <v>44568</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="11" t="s">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="D23" s="3">
+      <c r="K23" s="15">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="D24" s="3">
         <v>309000</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E24" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="H24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C24" s="2"/>
-      <c r="D24" s="4">
-        <f>F24</f>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="4">
+        <f>F25</f>
         <v>358900</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F25" s="21">
         <v>358900</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G25" s="20">
         <v>44925</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K25" s="22">
         <v>44568</v>
       </c>
-      <c r="L24" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="C25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="L25" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="4">
         <v>87900</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1">
-      <c r="D26" s="4">
-        <v>41900</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>53</v>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="E27" s="11" t="s">
-        <v>114</v>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="4">
+        <v>41900</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1">
-      <c r="D28" s="4">
+      <c r="N27" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="4">
         <v>17300</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="19">
-        <f>D28</f>
+      <c r="E29" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="19">
+        <f>D29</f>
         <v>17300</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G29" s="20">
         <v>44926</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="21" t="s">
+      <c r="H29" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="D29" s="4">
+      <c r="J29" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="19">
-        <f>D29</f>
+      <c r="E30" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="19">
+        <f>D30</f>
         <v>61225</v>
-      </c>
-      <c r="G29" s="20">
-        <v>44926</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="L29" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="18.75" customHeight="1">
-      <c r="D30" s="4">
-        <v>97750</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="19">
-        <f t="shared" ref="F30:F35" si="0">D30</f>
-        <v>97750</v>
       </c>
       <c r="G30" s="20">
         <v>44926</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>144</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
+        <v>97750</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" ref="F31:F36" si="0">D31</f>
+        <v>97750</v>
+      </c>
+      <c r="G31" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
         <v>18700</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="19">
+      <c r="E32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="19">
         <f t="shared" si="0"/>
         <v>18700</v>
       </c>
-      <c r="G31" s="20">
-        <v>44926</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1">
-      <c r="D32" s="4">
-        <v>18700</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="19">
-        <v>18700</v>
-      </c>
       <c r="G32" s="20">
         <v>44926</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" ht="18.75" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
-        <v>17850</v>
+        <v>18700</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F33" s="19">
-        <v>36550</v>
+        <v>18700</v>
       </c>
       <c r="G33" s="20">
         <v>44926</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="18.75" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
+        <v>17850</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="19">
+        <v>36550</v>
+      </c>
+      <c r="G34" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="4">
         <v>22000</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="19">
+      <c r="E35" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="19">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G35" s="20">
         <v>44926</v>
       </c>
-      <c r="H34" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" ht="18.75" customHeight="1">
-      <c r="D35" s="4">
+      <c r="H35" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="19">
+      <c r="E36" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="19">
         <f t="shared" si="0"/>
         <v>42250</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G36" s="20">
         <v>44926</v>
       </c>
-      <c r="H35" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="21" t="s">
+      <c r="H36" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="3:14" ht="18.75" customHeight="1">
-      <c r="D36" s="4">
+      <c r="J36" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L36" s="26"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="4">
         <v>39900</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" ht="18.75" customHeight="1">
-      <c r="C37" s="9"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="7"/>
+      <c r="E37" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="18.75" customHeight="1">
-      <c r="D38" s="4">
-        <v>7900</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>41</v>
-      </c>
+    <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="9"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="7"/>
       <c r="I38" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" customHeight="1">
+    <row r="39" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
-        <v>99900</v>
+        <v>7900</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="18.75" customHeight="1">
+    <row r="40" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
-        <v>17900</v>
+        <v>99900</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="18.75" customHeight="1">
+    <row r="41" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
+        <v>17900</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="4">
         <v>2500</v>
       </c>
-      <c r="E41" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="I41" s="11" t="s">
+      <c r="E42" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="I42" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="18.75" customHeight="1">
-      <c r="C42" s="9"/>
-      <c r="D42" s="16">
+    <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="9"/>
+      <c r="D43" s="16">
         <f>117500+11000+36500+6000</f>
         <v>171000</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F43" s="19">
         <v>130000</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G43" s="20">
         <v>44926</v>
       </c>
-      <c r="H42" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J42" s="21" t="s">
+      <c r="H43" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K42" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" ht="18.75" customHeight="1">
-      <c r="C43" s="9"/>
-      <c r="D43" s="16">
-        <f>F43</f>
-        <v>70000</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="19">
-        <v>70000</v>
-      </c>
-      <c r="G43" s="24">
-        <v>44925</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="K43" s="18" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="L43" s="26"/>
       <c r="M43" s="19"/>
-    </row>
-    <row r="44" spans="3:14" ht="18.75" customHeight="1">
+      <c r="N43" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
+        <f>F44</f>
+        <v>70000</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="19">
+        <v>70000</v>
+      </c>
+      <c r="G44" s="24">
+        <v>44925</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L44" s="26"/>
+      <c r="M44" s="19"/>
+    </row>
+    <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="9"/>
+      <c r="D45" s="16">
         <f>48900+14000</f>
         <v>62900</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" ht="18.75" customHeight="1">
-      <c r="D45" s="4">
+      <c r="E45" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="19">
-        <f>D45</f>
+      <c r="F46" s="19">
+        <f>D46</f>
         <v>111000</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G46" s="20">
         <v>44928</v>
       </c>
-      <c r="H45" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I45" s="18" t="s">
+      <c r="H46" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K46" s="30">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L45" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" ht="18.75" customHeight="1">
-      <c r="D46" s="3">
+      <c r="L46" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="3">
         <v>146020</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E47" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="3:14" ht="18.75" customHeight="1">
-      <c r="D47" s="4">
+      <c r="G47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
       </c>
-      <c r="E47" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="L47" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" ht="18.75" customHeight="1">
-      <c r="D48" s="4">
-        <v>50000</v>
-      </c>
       <c r="E48" s="28" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J48" s="4"/>
       <c r="L48" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="4">
+        <v>50000</v>
+      </c>
       <c r="E49" s="28" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="L49" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1">
-      <c r="E50" s="11" t="s">
+      <c r="H50" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1">
-      <c r="E51" s="11" t="s">
+      <c r="G51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D52" s="3"/>
-      <c r="E52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
-      <c r="E54" s="28" t="s">
-        <v>32</v>
+      <c r="E54" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="3"/>
       <c r="E55" s="28" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D56" s="3">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="3">
         <v>200000</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E57" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="I56" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D57" s="4">
+      <c r="G57" s="4"/>
+      <c r="I57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="4">
         <v>110000</v>
       </c>
-      <c r="E57" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1">
+      <c r="E58" s="28" t="s">
+        <v>117</v>
+      </c>
       <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1">
+      <c r="H58" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12">
         <f>170000-90000</f>
         <v>80000</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11">
+      <c r="C62" s="13"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
         <f>170000-70000</f>
         <v>100000</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A62" s="11" t="s">
+      <c r="F62" s="12"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B65" s="12">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="11" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="4">
+      <c r="F65" s="12"/>
+      <c r="G65" s="4">
         <v>44000</v>
       </c>
-      <c r="H64" s="12">
-        <f>G64-17000</f>
+      <c r="H65" s="12">
+        <f>G65-17000</f>
         <v>27000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A65" s="11" t="s">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12">
         <v>19550</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D66" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
+      <c r="E66" s="12"/>
+      <c r="F66" s="12">
         <v>16250</v>
       </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A66" s="11" t="s">
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B67" s="12">
         <v>93500</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C67" s="12">
         <v>93500</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <f>19900+35500+1320</f>
         <v>56720</v>
       </c>
-      <c r="F66" s="12">
-        <f t="shared" ref="F66:H66" si="1">19900+35500+1320</f>
+      <c r="F67" s="12">
+        <f t="shared" ref="F67:H67" si="1">19900+35500+1320</f>
         <v>56720</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="12">
         <f t="shared" si="1"/>
         <v>56720</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H67" s="12">
         <f t="shared" si="1"/>
         <v>56720</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A67" s="11" t="s">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B68" s="12">
         <v>1100</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="11" t="s">
+      <c r="C68" s="12"/>
+      <c r="D68" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>1100</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="14">
-        <f>SUM(B64:B67)</f>
+      <c r="F68" s="13"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11"/>
+      <c r="B69" s="14">
+        <f>SUM(B65:B68)</f>
         <v>118800</v>
       </c>
-      <c r="C68" s="14">
-        <f>SUM(C64:C67)</f>
+      <c r="C69" s="14">
+        <f>SUM(C65:C68)</f>
         <v>113050</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="14">
-        <f>SUM(E64:E67)</f>
+      <c r="D69" s="11"/>
+      <c r="E69" s="14">
+        <f>SUM(E65:E68)</f>
         <v>82020</v>
       </c>
-      <c r="F68" s="14">
-        <f>SUM(F64:F67)</f>
+      <c r="F69" s="14">
+        <f>SUM(F65:F68)</f>
         <v>72970</v>
       </c>
-      <c r="G68" s="14">
-        <f>SUM(G64:G67)</f>
+      <c r="G69" s="14">
+        <f>SUM(G65:G68)</f>
         <v>100720</v>
       </c>
-      <c r="H68" s="14">
-        <f>SUM(H64:H67)</f>
+      <c r="H69" s="14">
+        <f>SUM(H65:H68)</f>
         <v>83720</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <f>B68-E68</f>
-        <v>36780</v>
-      </c>
-      <c r="F69" s="12">
-        <f>C68-F68</f>
-        <v>40080</v>
-      </c>
-      <c r="G69" s="4">
-        <f>G68-F68</f>
-        <v>27750</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
       <c r="D70" s="11"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A71" s="11" t="s">
+      <c r="E70" s="11">
+        <f>B69-E69</f>
+        <v>36780</v>
+      </c>
+      <c r="F70" s="12">
+        <f>C69-F69</f>
+        <v>40080</v>
+      </c>
+      <c r="G70" s="4">
+        <f>G69-F69</f>
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B72" s="12">
         <v>27500</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C72" s="12">
         <v>27500</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D72" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>27500</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>27500</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <v>27500</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H72" s="12">
         <v>27500</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -607,10 +607,6 @@
   </si>
   <si>
     <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/3 발송 예정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1114,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1182,7 +1178,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>35</v>
@@ -1711,8 +1707,8 @@
       <c r="J30" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>144</v>
+      <c r="K30" s="30">
+        <v>0.25</v>
       </c>
       <c r="L30" s="26" t="s">
         <v>121</v>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -322,295 +322,303 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>트롤리2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 차콜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사가요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티슈 커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위닉스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800mm / 아카시아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수납벤치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커텐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 쉬폰 / 화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매트리스 커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이불커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1105x2037x306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x2000x260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 베이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스트 그린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지 핑크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60x40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70x50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이지플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키티버니포니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반 사이즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포장이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구 판매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드 세입자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29cm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실 발매트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/31 계약금 60,000원 입금, 1/7 잔금 80,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방수커버 배송일 문의하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피머신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에센자 미니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29xm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600x2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x2000x250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 스트라이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼트 체어 / 민트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베개솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼드 스트라이프 / 베개솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 스노우화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형? 사각?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥그린? 미드나잇블루?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800mmx높이 75mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7 이후 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰소닉 m1+g2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔프로젝터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 배송일 지정 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 전일 연락올 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6 발송 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6 발송 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 듀얼큐브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>420 x 470 x 610</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>410 x 410 x 810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동식 서랍 / 골드브라운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>트롤리1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트롤리2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 차콜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5단 / 오렌지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3단 / 옐로우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화병</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사가요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티슈 커버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>위닉스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800mm / 아카시아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수납벤치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커텐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤비 쉬폰 / 화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매트리스 커버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이불커버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1105x2037x306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100x2000x260</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 베이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베게커버1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베게커버2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베게커버3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베게커버4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포레스트 그린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로지 핑크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블랙 플라워</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60x40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70x50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이지플라워</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키티버니포니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반 사이즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반포장이사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>착한이사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가구 판매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드 세입자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29cm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화장실 발매트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/31 계약금 60,000원 입금, 1/7 잔금 80,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방수커버 배송일 문의하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피머신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에센자 미니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29xm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600x2100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100x2000x250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루 스트라이프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼트 체어 / 민트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베개솜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼드 스트라이프 / 베개솜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 스노우화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형? 사각?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>딥그린? 미드나잇블루?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800mmx높이 75mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/7 이후 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뷰소닉 m1+g2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빔프로젝터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료 / 배송일 지정 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료 / 전일 연락올 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/6 발송 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/6 발송 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>납부일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +834,9 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1189,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>35</v>
@@ -1239,7 +1250,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3">
         <v>140000</v>
@@ -1248,10 +1259,10 @@
         <v>44568</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -1403,7 +1414,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="3">
         <f>120000</f>
@@ -1413,7 +1424,7 @@
         <v>44568</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1441,10 +1452,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>55</v>
@@ -1456,7 +1467,7 @@
         <v>34</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1486,11 +1497,11 @@
         <v>44933</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1522,7 +1533,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="19"/>
       <c r="N21" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1530,13 +1541,13 @@
         <v>110000</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="15">
@@ -1547,7 +1558,7 @@
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>42</v>
@@ -1568,7 +1579,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>64</v>
@@ -1603,25 +1614,29 @@
         <v>44568</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="4">
-        <v>87900</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>72</v>
+        <f>118000+20000</f>
+        <v>138000</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1632,18 +1647,18 @@
         <v>53</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>64</v>
@@ -1654,7 +1669,7 @@
         <v>17300</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F29" s="19">
         <f>D29</f>
@@ -1664,23 +1679,23 @@
         <v>44926</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>64</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K29" s="30">
         <v>0.33333333333333331</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1689,7 +1704,7 @@
         <v>61225</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F30" s="19">
         <f>D30</f>
@@ -1699,23 +1714,23 @@
         <v>44926</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K30" s="30">
         <v>0.25</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1723,7 +1738,7 @@
         <v>97750</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" ref="F31:F36" si="0">D31</f>
@@ -1733,23 +1748,23 @@
         <v>44926</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1757,7 +1772,7 @@
         <v>18700</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" s="19">
         <f t="shared" si="0"/>
@@ -1767,23 +1782,23 @@
         <v>44926</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,7 +1806,7 @@
         <v>18700</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F33" s="19">
         <v>18700</v>
@@ -1800,23 +1815,23 @@
         <v>44926</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1824,7 +1839,7 @@
         <v>17850</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F34" s="19">
         <v>36550</v>
@@ -1833,23 +1848,23 @@
         <v>44926</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L34" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1857,7 +1872,7 @@
         <v>22000</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="0"/>
@@ -1867,23 +1882,23 @@
         <v>44926</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1892,7 +1907,7 @@
         <v>42250</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F36" s="19">
         <f t="shared" si="0"/>
@@ -1902,13 +1917,13 @@
         <v>44926</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K36" s="30">
         <v>0.33333333333333331</v>
@@ -1918,16 +1933,19 @@
     </row>
     <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
-        <v>39900</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>73</v>
+        <v>169000</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1979,7 +1997,7 @@
         <v>2500</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="11" t="s">
@@ -2002,7 +2020,7 @@
         <v>44926</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I43" s="21" t="s">
         <v>66</v>
@@ -2011,12 +2029,12 @@
         <v>56</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L43" s="26"/>
       <c r="M43" s="19"/>
       <c r="N43" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2059,7 @@
         <v>66</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K44" s="30">
         <v>0.33333333333333331</v>
@@ -2056,11 +2074,11 @@
         <v>62900</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>66</v>
@@ -2082,7 +2100,7 @@
         <v>44928</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>64</v>
@@ -2094,11 +2112,11 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="L46" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,17 +2135,17 @@
         <v>18000</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J48" s="4"/>
       <c r="L48" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2138,25 +2156,25 @@
         <v>57</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J49" s="4"/>
       <c r="L49" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -2212,7 +2230,7 @@
       </c>
       <c r="G57" s="4"/>
       <c r="I57" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J57" s="4"/>
     </row>
@@ -2221,11 +2239,11 @@
         <v>110000</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -832,11 +832,11 @@
     <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1121,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1146,7 @@
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1261,11 +1261,11 @@
       <c r="H9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1935,7 +1935,7 @@
       <c r="D37" s="4">
         <v>169000</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="31" t="s">
         <v>72</v>
       </c>
       <c r="H37" s="12" t="s">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -586,14 +586,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1/6 발송 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/6 발송 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -619,6 +611,10 @@
   </si>
   <si>
     <t>트롤리1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4 발송</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1121,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1185,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>35</v>
@@ -1627,16 +1623,16 @@
         <v>138000</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1757,7 +1753,7 @@
         <v>108</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L31" s="26" t="s">
         <v>117</v>
@@ -1791,7 +1787,7 @@
         <v>108</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L32" s="26" t="s">
         <v>97</v>
@@ -1824,7 +1820,7 @@
         <v>108</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L33" s="26" t="s">
         <v>96</v>
@@ -1857,7 +1853,7 @@
         <v>108</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L34" s="26" t="s">
         <v>97</v>
@@ -1891,7 +1887,7 @@
         <v>108</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>96</v>
@@ -1939,13 +1935,13 @@
         <v>72</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2116,7 +2112,7 @@
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:K35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED57A7-D69C-0442-8FA9-F124BEF42C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -615,18 +616,22 @@
   </si>
   <si>
     <t>1/4 발송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,11 +735,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,94 +749,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1114,35 +1116,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="11"/>
-    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.625" style="3"/>
+    <col min="11" max="11" width="8.6640625" style="11"/>
+    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1155,12 +1157,12 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
         <v>139</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1215,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1235,7 +1237,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1257,13 +1259,13 @@
       <c r="H9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1404,9 +1406,9 @@
         <f>K15-6436</f>
         <v>126364</v>
       </c>
-      <c r="P15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" customHeight="1">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1423,11 +1425,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="18.75" customHeight="1">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1436,7 +1438,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1466,7 +1468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="18.75" customHeight="1">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1480,7 +1482,7 @@
       <c r="G20" s="20">
         <v>44921</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>67</v>
       </c>
       <c r="I20" s="18" t="s">
@@ -1492,15 +1494,15 @@
       <c r="K20" s="22">
         <v>44933</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1514,7 +1516,7 @@
       <c r="G21" s="20">
         <v>44925</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>68</v>
       </c>
       <c r="I21" s="18" t="s">
@@ -1526,17 +1528,17 @@
       <c r="K21" s="22">
         <v>44933</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="19"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="18.75" customHeight="1">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>82</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -1550,7 +1552,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1566,12 +1568,12 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="18.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -1582,7 +1584,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1597,7 +1599,7 @@
       <c r="G25" s="20">
         <v>44925</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="25" t="s">
         <v>63</v>
       </c>
       <c r="I25" s="18" t="s">
@@ -1609,12 +1611,12 @@
       <c r="K25" s="22">
         <v>44568</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
@@ -1622,7 +1624,7 @@
         <f>118000+20000</f>
         <v>138000</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -1635,11 +1637,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -1652,7 +1654,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="18.75" customHeight="1">
       <c r="E28" s="11" t="s">
         <v>109</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="18.75" customHeight="1">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -1674,7 +1676,7 @@
       <c r="G29" s="20">
         <v>44926</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>123</v>
       </c>
       <c r="I29" s="21" t="s">
@@ -1683,18 +1685,20 @@
       <c r="J29" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="L29" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M29" s="19"/>
+      <c r="M29" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="N29" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="18.75" customHeight="1">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -1709,7 +1713,7 @@
       <c r="G30" s="20">
         <v>44926</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="25" t="s">
         <v>125</v>
       </c>
       <c r="I30" s="18" t="s">
@@ -1718,18 +1722,20 @@
       <c r="J30" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <v>0.25</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="L30" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="M30" s="19"/>
+      <c r="M30" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="N30" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -1743,7 +1749,7 @@
       <c r="G31" s="20">
         <v>44926</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I31" s="18" t="s">
@@ -1755,15 +1761,15 @@
       <c r="K31" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="M31" s="19"/>
+      <c r="M31" s="21"/>
       <c r="N31" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="18.75" customHeight="1">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -1777,7 +1783,7 @@
       <c r="G32" s="20">
         <v>44926</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>93</v>
       </c>
       <c r="I32" s="18" t="s">
@@ -1789,15 +1795,15 @@
       <c r="K32" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="M32" s="19"/>
+      <c r="M32" s="21"/>
       <c r="N32" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:14" ht="18.75" customHeight="1">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -1810,7 +1816,7 @@
       <c r="G33" s="20">
         <v>44926</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>94</v>
       </c>
       <c r="I33" s="18" t="s">
@@ -1822,15 +1828,15 @@
       <c r="K33" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M33" s="19"/>
+      <c r="M33" s="21"/>
       <c r="N33" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" ht="18.75" customHeight="1">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -1843,7 +1849,7 @@
       <c r="G34" s="20">
         <v>44926</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="25" t="s">
         <v>124</v>
       </c>
       <c r="I34" s="18" t="s">
@@ -1855,15 +1861,15 @@
       <c r="K34" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="M34" s="19"/>
+      <c r="M34" s="21"/>
       <c r="N34" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" ht="18.75" customHeight="1">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -1877,7 +1883,7 @@
       <c r="G35" s="20">
         <v>44926</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="25" t="s">
         <v>95</v>
       </c>
       <c r="I35" s="18" t="s">
@@ -1889,15 +1895,15 @@
       <c r="K35" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M35" s="19"/>
+      <c r="M35" s="21"/>
       <c r="N35" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14" ht="18.75" customHeight="1">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -1912,7 +1918,7 @@
       <c r="G36" s="20">
         <v>44926</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="25" t="s">
         <v>119</v>
       </c>
       <c r="I36" s="18" t="s">
@@ -1921,17 +1927,19 @@
       <c r="J36" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="19"/>
-    </row>
-    <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="25"/>
+      <c r="M36" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="18.75" customHeight="1">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H37" s="12" t="s">
@@ -1944,7 +1952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:14" ht="18.75" customHeight="1">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -1955,44 +1963,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:14" ht="18.75" customHeight="1">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>41</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:14" ht="18.75" customHeight="1">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>69</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:14" ht="18.75" customHeight="1">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="26" t="s">
         <v>70</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:14" ht="18.75" customHeight="1">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>74</v>
       </c>
       <c r="G42" s="4"/>
@@ -2000,7 +2008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:14" ht="18.75" customHeight="1">
       <c r="C43" s="9"/>
       <c r="D43" s="16">
         <f>117500+11000+36500+6000</f>
@@ -2015,7 +2023,7 @@
       <c r="G43" s="20">
         <v>44926</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="25" t="s">
         <v>121</v>
       </c>
       <c r="I43" s="21" t="s">
@@ -2027,13 +2035,13 @@
       <c r="K43" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="19"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="21"/>
       <c r="N43" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:14" ht="18.75" customHeight="1">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2045,10 +2053,10 @@
       <c r="F44" s="19">
         <v>70000</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="23">
         <v>44925</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I44" s="18" t="s">
@@ -2057,19 +2065,21 @@
       <c r="J44" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K44" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="19"/>
-    </row>
-    <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="25"/>
+      <c r="M44" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" ht="18.75" customHeight="1">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
         <v>62900</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="26" t="s">
         <v>81</v>
       </c>
       <c r="G45" s="7"/>
@@ -2080,7 +2090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:14" ht="18.75" customHeight="1">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2095,7 +2105,7 @@
       <c r="G46" s="20">
         <v>44928</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="25" t="s">
         <v>129</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -2104,33 +2114,33 @@
       <c r="J46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K46" s="29">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L46" s="26" t="s">
+      <c r="L46" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M46" s="19"/>
+      <c r="M46" s="21"/>
       <c r="N46" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:14" ht="18.75" customHeight="1">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="27" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:14" ht="18.75" customHeight="1">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="27" t="s">
         <v>77</v>
       </c>
       <c r="H48" s="12" t="s">
@@ -2144,11 +2154,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="18.75" customHeight="1">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="27" t="s">
         <v>57</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -2162,8 +2172,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="28" t="s">
+    <row r="50" spans="1:12" ht="18.75" customHeight="1">
+      <c r="E50" s="27" t="s">
         <v>135</v>
       </c>
       <c r="H50" s="12" t="s">
@@ -2174,20 +2184,20 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1">
       <c r="E51" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1">
       <c r="E52" s="11" t="s">
         <v>40</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>28</v>
@@ -2195,7 +2205,7 @@
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>29</v>
@@ -2203,21 +2213,21 @@
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1">
       <c r="D55" s="3"/>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="27" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="28" t="s">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1">
+      <c r="E56" s="27" t="s">
         <v>71</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2230,11 +2240,11 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="27" t="s">
         <v>114</v>
       </c>
       <c r="G58" s="4"/>
@@ -2242,16 +2252,16 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="18.75" customHeight="1">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <f>170000-90000</f>
@@ -2266,7 +2276,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>51</v>
       </c>
@@ -2293,7 +2303,7 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
         <v>43</v>
@@ -2318,7 +2328,7 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>52</v>
       </c>
@@ -2343,7 +2353,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>46</v>
       </c>
@@ -2360,7 +2370,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>44</v>
       </c>
@@ -2390,7 +2400,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A68" s="11" t="s">
         <v>50</v>
       </c>
@@ -2407,7 +2417,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A69" s="11"/>
       <c r="B69" s="14">
         <f>SUM(B65:B68)</f>
@@ -2435,7 +2445,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2453,7 +2463,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
@@ -2461,7 +2471,7 @@
       <c r="F71" s="12"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>49</v>
       </c>
@@ -2487,22 +2497,22 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1">
       <c r="G78" s="4"/>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -518,10 +518,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>볼트 체어 / 민트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>베개솜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -555,14 +551,6 @@
   </si>
   <si>
     <t>800mmx높이 75mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/7 이후 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1118,7 +1106,7 @@
   <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1130,7 @@
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1185,7 +1173,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>35</v>
@@ -1442,7 +1430,7 @@
       </c>
       <c r="F19" s="8">
         <f>(F15+F16)-SUM(F20:F58)+25</f>
-        <v>219650</v>
+        <v>349650</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>36</v>
@@ -1529,7 +1517,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="19"/>
       <c r="N21" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1623,16 +1611,16 @@
         <v>138000</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1637,7 @@
         <v>64</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1665,7 +1653,7 @@
         <v>17300</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="19">
         <f>D29</f>
@@ -1675,7 +1663,7 @@
         <v>44926</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>64</v>
@@ -1691,7 +1679,7 @@
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,7 +1698,7 @@
         <v>44926</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>116</v>
@@ -1726,7 +1714,7 @@
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,14 +1741,14 @@
         <v>108</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L31" s="26" t="s">
         <v>117</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1787,14 +1775,14 @@
         <v>108</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L32" s="26" t="s">
         <v>97</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1820,14 +1808,14 @@
         <v>108</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L33" s="26" t="s">
         <v>96</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1844,7 +1832,7 @@
         <v>44926</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>116</v>
@@ -1853,14 +1841,14 @@
         <v>108</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L34" s="26" t="s">
         <v>97</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1887,14 +1875,14 @@
         <v>108</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>96</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1935,13 +1923,13 @@
         <v>72</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2002,36 +1990,11 @@
     </row>
     <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
-      <c r="D43" s="16">
-        <f>117500+11000+36500+6000</f>
-        <v>171000</v>
-      </c>
-      <c r="E43" s="18" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="19">
-        <v>130000</v>
-      </c>
-      <c r="G43" s="20">
-        <v>44926</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
@@ -2096,7 +2059,7 @@
         <v>44928</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>64</v>
@@ -2108,11 +2071,11 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="L46" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2152,25 +2115,25 @@
         <v>57</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>110</v>
       </c>
       <c r="J49" s="4"/>
       <c r="L49" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J50" s="4"/>
     </row>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED57A7-D69C-0442-8FA9-F124BEF42C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,507 +130,495 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>샤워기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문앞커튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실외기실커튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도예 클래스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공과금 정산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈앤홈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드 임대인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기, 가스, 수도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분리수거함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁상거울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 KT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알뜰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1기가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사은품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500메가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님용 토퍼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>러그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물티슈통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤워기, 호스, 필터(3개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데홈쇼핑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 오트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 브라운, 적당탄탄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4단 / 브라운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤리2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 차콜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사가요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티슈 커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위닉스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800mm / 아카시아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수납벤치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커텐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 쉬폰 / 화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매트리스 커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이불커버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1105x2037x306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x2000x260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 베이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스트 그린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지 핑크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60x40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70x50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이지플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키티버니포니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반 사이즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포장이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구 판매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드 세입자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29cm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실 발매트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/31 계약금 60,000원 입금, 1/7 잔금 80,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방수커버 배송일 문의하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피머신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에센자 미니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29xm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600x2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x2000x250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 스트라이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베개솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼드 스트라이프 / 베개솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 스노우화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형? 사각?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥그린? 미드나잇블루?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800mmx높이 75mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰소닉 m1+g2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔프로젝터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 배송일 지정 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 전일 연락올 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 듀얼큐브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>420 x 470 x 610</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>410 x 410 x 810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동식 서랍 / 골드브라운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤리1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4 발송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>의자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤워기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>건조기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문앞커튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실외기실커튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도예 클래스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키보드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공과금 정산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>납부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈앤홈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드 임대인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기, 가스, 수도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분리수거함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탁상거울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰 KT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알뜰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1기가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사은품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500메가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님용 토퍼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포레나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>러그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물티슈통</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>55만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤워기, 호스, 필터(3개)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데홈쇼핑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 오트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘의집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 브라운, 적당탄탄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4단 / 브라운</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트롤리2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 차콜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화병</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사가요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티슈 커버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>위닉스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800mm / 아카시아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수납벤치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커텐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤비 쉬폰 / 화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매트리스 커버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이불커버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1105x2037x306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100x2000x260</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 베이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베게커버1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베게커버2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베게커버3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베게커버4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포레스트 그린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로지 핑크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블랙 플라워</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60x40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70x50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이지플라워</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키티버니포니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반 사이즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반포장이사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>착한이사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가구 판매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드 세입자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29cm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화장실 발매트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/31 계약금 60,000원 입금, 1/7 잔금 80,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방수커버 배송일 문의하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피머신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에센자 미니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29xm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600x2100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100x2000x250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루 스트라이프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼트 체어 / 민트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베개솜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼드 스트라이프 / 베개솜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 스노우화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형? 사각?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>딥그린? 미드나잇블루?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800mmx높이 75mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/7 이후 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뷰소닉 m1+g2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빔프로젝터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료 / 배송일 지정 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료 / 전일 연락올 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>납부일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈 듀얼큐브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>420 x 470 x 610</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>410 x 410 x 810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동식 서랍 / 골드브라운</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트롤리1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4 발송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m\/d"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -749,91 +736,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1116,32 +1103,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="11"/>
-    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="11"/>
+    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="3"/>
+    <col min="14" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44931</v>
@@ -1157,12 +1144,12 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1164,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1185,15 +1172,15 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1202,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1224,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1235,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3">
         <v>140000</v>
@@ -1257,15 +1244,15 @@
         <v>44568</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1287,10 +1274,10 @@
         <v>44567</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1312,10 +1299,10 @@
         <v>44568</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1335,10 +1322,10 @@
         <v>44568</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1357,10 +1344,10 @@
         <v>44568</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1357,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="16"/>
       <c r="E14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3">
         <v>50000</v>
@@ -1379,10 +1366,10 @@
         <v>44568</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1408,11 +1395,11 @@
       </c>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="3">
         <f>120000</f>
@@ -1422,14 +1409,14 @@
         <v>44568</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1438,37 +1425,37 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="8">
         <f>(F15+F16)-SUM(F20:F58)+25</f>
-        <v>219650</v>
+        <v>349650</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1483,26 +1470,26 @@
         <v>44921</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="22">
         <v>44933</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1517,13 +1504,13 @@
         <v>44925</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="22">
         <v>44933</v>
@@ -1531,60 +1518,60 @@
       <c r="L21" s="25"/>
       <c r="M21" s="21"/>
       <c r="N21" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
       <c r="E22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="I22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="15">
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="15">
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18.75" customHeight="1">
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1600,74 +1587,74 @@
         <v>44925</v>
       </c>
       <c r="H25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="J25" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="22">
         <v>44568</v>
       </c>
       <c r="L25" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1">
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4">
         <f>118000+20000</f>
         <v>138000</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F29" s="19">
         <f>D29</f>
@@ -1677,34 +1664,34 @@
         <v>44926</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K29" s="29">
         <v>0.33333333333333331</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="18.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="19">
         <f>D30</f>
@@ -1714,33 +1701,33 @@
         <v>44926</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K30" s="29">
         <v>0.25</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" ref="F31:F36" si="0">D31</f>
@@ -1750,31 +1737,31 @@
         <v>44926</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L31" s="25" t="s">
-        <v>117</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="19">
         <f t="shared" si="0"/>
@@ -1784,31 +1771,31 @@
         <v>44926</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" ht="18.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="19">
         <v>18700</v>
@@ -1817,31 +1804,31 @@
         <v>44926</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M33" s="21"/>
       <c r="N33" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="18.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="19">
         <v>36550</v>
@@ -1850,31 +1837,31 @@
         <v>44926</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" ht="18.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="0"/>
@@ -1884,32 +1871,32 @@
         <v>44926</v>
       </c>
       <c r="H35" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>96</v>
       </c>
       <c r="M35" s="21"/>
       <c r="N35" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" ht="18.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="19">
         <f t="shared" si="0"/>
@@ -1919,40 +1906,40 @@
         <v>44926</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K36" s="29">
         <v>0.33333333333333331</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" ht="18.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" ht="18.75" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -1963,92 +1950,67 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" customHeight="1">
+    <row r="39" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="18.75" customHeight="1">
+    <row r="40" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="18.75" customHeight="1">
+    <row r="41" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="18.75" customHeight="1">
+    <row r="42" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="18.75" customHeight="1">
+    <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
-      <c r="D43" s="16">
-        <f>117500+11000+36500+6000</f>
-        <v>171000</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="19">
-        <v>130000</v>
-      </c>
-      <c r="G43" s="20">
-        <v>44926</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="L43" s="25"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" ht="18.75" customHeight="1">
+      <c r="D43" s="16"/>
+      <c r="E43" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
         <v>70000</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" s="19">
         <v>70000</v>
@@ -2057,46 +2019,46 @@
         <v>44925</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K44" s="29">
         <v>0.33333333333333331</v>
       </c>
       <c r="L44" s="25"/>
       <c r="M44" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" ht="18.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
         <v>62900</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" ht="18.75" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="19">
         <f>D46</f>
@@ -2106,162 +2068,162 @@
         <v>44928</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46" s="29">
         <v>0.1111111111111111</v>
       </c>
       <c r="L46" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" ht="18.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="3:14" ht="18.75" customHeight="1">
+    <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="J48" s="4"/>
       <c r="L48" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J49" s="4"/>
       <c r="L49" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" s="4"/>
       <c r="I57" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <f>170000-90000</f>
@@ -2276,61 +2238,61 @@
       <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="12">
         <f>(22000*10%)+22000</f>
@@ -2338,7 +2300,7 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E65" s="12">
         <f>(22000*10%)+22000</f>
@@ -2353,16 +2315,16 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12">
         <v>19550</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12">
@@ -2370,9 +2332,9 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="12">
         <v>93500</v>
@@ -2381,7 +2343,7 @@
         <v>93500</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="12">
         <f>19900+35500+1320</f>
@@ -2400,16 +2362,16 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" s="12">
         <v>1100</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E68" s="12">
         <v>1100</v>
@@ -2417,7 +2379,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="14">
         <f>SUM(B65:B68)</f>
@@ -2445,7 +2407,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2463,7 +2425,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
@@ -2471,9 +2433,9 @@
       <c r="F71" s="12"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" s="12">
         <v>27500</v>
@@ -2482,7 +2444,7 @@
         <v>27500</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E72" s="12">
         <v>27500</v>
@@ -2497,22 +2459,22 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="4"/>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="148">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>홈앤홈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>신성월드 임대인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -446,10 +442,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>착한이사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가구 판매</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -478,10 +470,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12/31 계약금 60,000원 입금, 1/7 잔금 80,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>방수커버 배송일 문의하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -530,10 +518,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>배송일 문의함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>원형? 사각?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -607,6 +591,38 @@
   </si>
   <si>
     <t>의자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7 13~14시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7585-2343</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈앤홈 / 9:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한이사 / 9:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9991-5798</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9823-8224</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,6 +706,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,9 +818,6 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -820,8 +839,29 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1214,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>34</v>
@@ -1235,7 +1275,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3">
         <v>140000</v>
@@ -1244,13 +1284,16 @@
         <v>44568</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+        <v>145</v>
+      </c>
+      <c r="I9" s="11">
+        <f>F9-60000</f>
+        <v>80000</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1274,7 +1317,10 @@
         <v>44567</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>36</v>
+        <v>144</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1299,7 +1345,7 @@
         <v>44568</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1322,7 +1368,7 @@
         <v>44568</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1344,7 +1390,7 @@
         <v>44568</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1366,7 +1412,7 @@
         <v>44568</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1393,13 +1439,13 @@
         <f>K15-6436</f>
         <v>126364</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="3">
         <f>120000</f>
@@ -1409,14 +1455,14 @@
         <v>44568</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1425,7 +1471,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1437,25 +1483,25 @@
         <v>35</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1469,27 +1515,30 @@
       <c r="G20" s="20">
         <v>44921</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>66</v>
+      <c r="H20" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="22">
-        <v>44933</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1503,75 +1552,75 @@
       <c r="G21" s="20">
         <v>44925</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>67</v>
+      <c r="H21" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="22">
         <v>44933</v>
       </c>
-      <c r="L21" s="25"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="21"/>
       <c r="N21" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="I22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="15">
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23" s="15">
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1586,148 +1635,142 @@
       <c r="G25" s="20">
         <v>44925</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="J25" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25" s="22">
         <v>44568</v>
       </c>
-      <c r="L25" s="28" t="s">
-        <v>85</v>
+      <c r="L25" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4">
         <f>118000+20000</f>
         <v>138000</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>140</v>
+      <c r="E26" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>52</v>
+      <c r="E27" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="E29" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="31">
         <f>D29</f>
         <v>17300</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="32">
         <v>44926</v>
       </c>
-      <c r="H29" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="K29" s="29">
+      <c r="H29" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L29" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="19">
+      <c r="E30" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="31">
         <f>D30</f>
         <v>61225</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="32">
         <v>44926</v>
       </c>
-      <c r="H30" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="29">
+      <c r="H30" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="35">
         <v>0.25</v>
       </c>
-      <c r="L30" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" ref="F31:F36" si="0">D31</f>
@@ -1736,32 +1779,29 @@
       <c r="G31" s="20">
         <v>44926</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>87</v>
+      <c r="H31" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" s="25" t="s">
-        <v>116</v>
+        <v>137</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="M31" s="21"/>
-      <c r="N31" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="19">
         <f t="shared" si="0"/>
@@ -1770,32 +1810,29 @@
       <c r="G32" s="20">
         <v>44926</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>92</v>
+      <c r="H32" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>96</v>
+        <v>137</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="M32" s="21"/>
-      <c r="N32" s="3" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" s="19">
         <v>18700</v>
@@ -1803,32 +1840,29 @@
       <c r="G33" s="20">
         <v>44926</v>
       </c>
-      <c r="H33" s="25" t="s">
-        <v>93</v>
+      <c r="H33" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>95</v>
+        <v>137</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="M33" s="21"/>
-      <c r="N33" s="3" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="19">
         <v>36550</v>
@@ -1836,32 +1870,29 @@
       <c r="G34" s="20">
         <v>44926</v>
       </c>
-      <c r="H34" s="25" t="s">
-        <v>122</v>
+      <c r="H34" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>96</v>
+        <v>137</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="M34" s="21"/>
-      <c r="N34" s="3" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="0"/>
@@ -1870,73 +1901,70 @@
       <c r="G35" s="20">
         <v>44926</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>95</v>
-      </c>
       <c r="M35" s="21"/>
-      <c r="N35" s="3" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="19">
+      <c r="E36" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="31">
         <f t="shared" si="0"/>
         <v>42250</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="32">
         <v>44926</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="21" t="s">
+      <c r="H36" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K36" s="29">
+      <c r="J36" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="21" t="s">
-        <v>142</v>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>71</v>
+      <c r="E37" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,8 +1982,8 @@
       <c r="D39" s="4">
         <v>7900</v>
       </c>
-      <c r="E39" s="26" t="s">
-        <v>40</v>
+      <c r="E39" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>23</v>
@@ -1965,8 +1993,8 @@
       <c r="D40" s="4">
         <v>99900</v>
       </c>
-      <c r="E40" s="26" t="s">
-        <v>68</v>
+      <c r="E40" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>23</v>
@@ -1976,8 +2004,8 @@
       <c r="D41" s="4">
         <v>17900</v>
       </c>
-      <c r="E41" s="26" t="s">
-        <v>69</v>
+      <c r="E41" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>23</v>
@@ -1987,8 +2015,8 @@
       <c r="D42" s="4">
         <v>2500</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>73</v>
+      <c r="E42" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="11" t="s">
@@ -1998,8 +2026,8 @@
     <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="26" t="s">
-        <v>143</v>
+      <c r="E43" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="G43" s="4"/>
     </row>
@@ -2009,30 +2037,30 @@
         <f>F44</f>
         <v>70000</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="31">
         <v>70000</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="36">
         <v>44925</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="K44" s="29">
+      <c r="H44" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K44" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="21" t="s">
-        <v>142</v>
+      <c r="L44" s="33"/>
+      <c r="M44" s="34" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,15 +2069,15 @@
         <f>48900+14000</f>
         <v>62900</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>80</v>
+      <c r="E45" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2067,31 +2095,31 @@
       <c r="G46" s="20">
         <v>44928</v>
       </c>
-      <c r="H46" s="25" t="s">
-        <v>127</v>
+      <c r="H46" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K46" s="29">
+        <v>54</v>
+      </c>
+      <c r="K46" s="28">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L46" s="25" t="s">
-        <v>128</v>
+      <c r="L46" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G47" s="4"/>
@@ -2102,60 +2130,60 @@
         <f>15000+3000</f>
         <v>18000</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>76</v>
+      <c r="E48" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="J48" s="4"/>
       <c r="L48" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>56</v>
+      <c r="E49" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J49" s="4"/>
       <c r="L49" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="I50" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -2177,15 +2205,15 @@
     </row>
     <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="27" t="s">
-        <v>70</v>
+      <c r="E56" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="G56" s="4"/>
     </row>
@@ -2198,7 +2226,7 @@
       </c>
       <c r="G57" s="4"/>
       <c r="I57" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J57" s="4"/>
     </row>
@@ -2206,12 +2234,12 @@
       <c r="D58" s="4">
         <v>110000</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>113</v>
+      <c r="E58" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2240,26 +2268,26 @@
     </row>
     <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
@@ -2268,23 +2296,23 @@
     <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I64" s="11"/>
       <c r="K64" s="11"/>
@@ -2292,7 +2320,7 @@
     </row>
     <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="12">
         <f>(22000*10%)+22000</f>
@@ -2300,7 +2328,7 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E65" s="12">
         <f>(22000*10%)+22000</f>
@@ -2317,14 +2345,14 @@
     </row>
     <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12">
         <v>19550</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12">
@@ -2334,7 +2362,7 @@
     </row>
     <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" s="12">
         <v>93500</v>
@@ -2343,7 +2371,7 @@
         <v>93500</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E67" s="12">
         <f>19900+35500+1320</f>
@@ -2364,14 +2392,14 @@
     </row>
     <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="12">
         <v>1100</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E68" s="12">
         <v>1100</v>
@@ -2435,7 +2463,7 @@
     </row>
     <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72" s="12">
         <v>27500</v>
@@ -2444,7 +2472,7 @@
         <v>27500</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E72" s="12">
         <v>27500</v>
@@ -2478,9 +2506,6 @@
       <c r="G78" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I9:K9"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5269B2-1A1E-ED4C-B23A-C8B3EC548D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -629,12 +630,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -758,109 +759,109 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1143,32 +1144,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="11"/>
-    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="11"/>
+    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.625" style="3"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44931</v>
@@ -1184,12 +1185,12 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
         <v>131</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1265,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1296,7 @@
       </c>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="3">
-        <v>268400</v>
+        <v>244000</v>
       </c>
       <c r="G13" s="10">
         <v>44568</v>
@@ -1393,7 +1394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +1431,7 @@
       </c>
       <c r="F15" s="3">
         <f>(F7+F8)-F9-F10-F11-F12-F13-F14</f>
-        <v>1731600</v>
+        <v>1756000</v>
       </c>
       <c r="K15" s="11">
         <v>132800</v>
@@ -1441,7 +1442,7 @@
       </c>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1458,11 +1459,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1471,13 +1472,13 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="18.75" customHeight="1">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="8">
         <f>(F15+F16)-SUM(F20:F58)+25</f>
-        <v>349650</v>
+        <v>374050</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>35</v>
@@ -1501,7 +1502,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="18.75" customHeight="1">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1538,7 +1539,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="18.75" customHeight="1">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1570,7 +1571,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="18.75" customHeight="1">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1604,7 +1605,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="18.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1620,7 +1621,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1652,7 +1653,7 @@
       </c>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="18.75" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>96</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1">
       <c r="E28" s="11" t="s">
         <v>106</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="18.75" customHeight="1">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -1765,7 +1766,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="18.75" customHeight="1">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -1796,7 +1797,7 @@
       </c>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="18.75" customHeight="1">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -1827,7 +1828,7 @@
       </c>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:14" ht="18.75" customHeight="1">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -1857,7 +1858,7 @@
       </c>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" ht="18.75" customHeight="1">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -1887,7 +1888,7 @@
       </c>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" ht="18.75" customHeight="1">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -1918,7 +1919,7 @@
       </c>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14" ht="18.75" customHeight="1">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -1950,7 +1951,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14" ht="18.75" customHeight="1">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:14" ht="18.75" customHeight="1">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -1978,7 +1979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:14" ht="18.75" customHeight="1">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:14" ht="18.75" customHeight="1">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:14" ht="18.75" customHeight="1">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:14" ht="18.75" customHeight="1">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:14" ht="18.75" customHeight="1">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
@@ -2031,7 +2032,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:14" ht="18.75" customHeight="1">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2063,7 +2064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:14" ht="18.75" customHeight="1">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2080,7 +2081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:14" ht="18.75" customHeight="1">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2115,7 +2116,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:14" ht="18.75" customHeight="1">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2125,7 +2126,7 @@
       <c r="G47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:14" ht="18.75" customHeight="1">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2144,7 +2145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="18.75" customHeight="1">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="18.75" customHeight="1">
       <c r="E50" s="26" t="s">
         <v>127</v>
       </c>
@@ -2174,20 +2175,20 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2195,7 +2196,7 @@
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2203,7 +2204,7 @@
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2211,13 +2212,13 @@
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2230,7 +2231,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2242,16 +2243,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="18.75" customHeight="1">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <f>170000-90000</f>
@@ -2266,7 +2267,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>49</v>
       </c>
@@ -2293,7 +2294,7 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
         <v>41</v>
@@ -2318,7 +2319,7 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>50</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>44</v>
       </c>
@@ -2360,7 +2361,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>42</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A68" s="11" t="s">
         <v>48</v>
       </c>
@@ -2407,7 +2408,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A69" s="11"/>
       <c r="B69" s="14">
         <f>SUM(B65:B68)</f>
@@ -2435,7 +2436,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2453,7 +2454,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
@@ -2461,7 +2462,7 @@
       <c r="F71" s="12"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>47</v>
       </c>
@@ -2487,22 +2488,22 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1">
       <c r="G78" s="4"/>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5269B2-1A1E-ED4C-B23A-C8B3EC548D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="151">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,17 +624,28 @@
   <si>
     <t>010-9823-8224</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나우부동산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7317-8020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01120204243528 국민 오라겸</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m\/d"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -759,109 +769,109 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1144,35 +1154,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="11"/>
-    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="11"/>
+    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="3"/>
+    <col min="14" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1185,12 +1195,12 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>131</v>
       </c>
@@ -1221,7 +1231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1253,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1275,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1306,7 @@
       </c>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1391,10 +1401,16 @@
         <v>44568</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1">
+        <v>148</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1442,7 +1458,7 @@
       </c>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1459,11 +1475,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1472,7 +1488,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1">
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1502,7 +1518,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1">
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1539,7 +1555,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1">
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1571,7 +1587,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1">
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1589,7 +1605,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1">
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1605,7 +1621,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1">
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1621,7 +1637,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="25" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1653,7 +1669,7 @@
       </c>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1">
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>96</v>
       </c>
@@ -1674,7 +1690,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -1691,7 +1707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
         <v>106</v>
       </c>
@@ -1699,7 +1715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -1732,7 +1748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1">
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -1766,7 +1782,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1">
+    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -1797,7 +1813,7 @@
       </c>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1">
+    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -1828,7 +1844,7 @@
       </c>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="3:14" ht="18.75" customHeight="1">
+    <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -1858,7 +1874,7 @@
       </c>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="3:14" ht="18.75" customHeight="1">
+    <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -1888,7 +1904,7 @@
       </c>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="3:14" ht="18.75" customHeight="1">
+    <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -1919,7 +1935,7 @@
       </c>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="3:14" ht="18.75" customHeight="1">
+    <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -1951,7 +1967,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="18.75" customHeight="1">
+    <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -1968,7 +1984,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="18.75" customHeight="1">
+    <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -1979,7 +1995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" customHeight="1">
+    <row r="39" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -1990,7 +2006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="18.75" customHeight="1">
+    <row r="40" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2001,7 +2017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="18.75" customHeight="1">
+    <row r="41" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2012,7 +2028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="18.75" customHeight="1">
+    <row r="42" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2024,7 +2040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="18.75" customHeight="1">
+    <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
@@ -2032,7 +2048,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="3:14" ht="18.75" customHeight="1">
+    <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2064,7 +2080,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="3:14" ht="18.75" customHeight="1">
+    <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2081,7 +2097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="18.75" customHeight="1">
+    <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2116,7 +2132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="3:14" ht="18.75" customHeight="1">
+    <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2126,7 +2142,7 @@
       <c r="G47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="3:14" ht="18.75" customHeight="1">
+    <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2145,7 +2161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1">
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2163,7 +2179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1">
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="26" t="s">
         <v>127</v>
       </c>
@@ -2175,20 +2191,20 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2196,7 +2212,7 @@
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2204,7 +2220,7 @@
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2212,13 +2228,13 @@
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2231,7 +2247,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2243,16 +2259,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1">
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <f>170000-90000</f>
@@ -2267,7 +2283,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>49</v>
       </c>
@@ -2294,7 +2310,7 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
         <v>41</v>
@@ -2319,7 +2335,7 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>50</v>
       </c>
@@ -2344,7 +2360,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>44</v>
       </c>
@@ -2361,7 +2377,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>42</v>
       </c>
@@ -2391,7 +2407,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>48</v>
       </c>
@@ -2408,7 +2424,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="14">
         <f>SUM(B65:B68)</f>
@@ -2436,7 +2452,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2454,7 +2470,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
@@ -2462,7 +2478,7 @@
       <c r="F71" s="12"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>47</v>
       </c>
@@ -2488,22 +2504,22 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="4"/>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="152">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -554,10 +554,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>배송일 문의 완료 / 해피콜 오면 시간 조정해야 됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>납부일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,6 +631,14 @@
   </si>
   <si>
     <t>01120204243528 국민 오라겸</t>
+  </si>
+  <si>
+    <t>오전에 조립해서 문 앞에 두고 가신다고 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5828-3515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1157,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1180,8 @@
     <col min="11" max="11" width="8.625" style="11"/>
     <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.625" style="3"/>
+    <col min="14" max="14" width="8.625" style="11"/>
+    <col min="15" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1198,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
@@ -1225,7 +1230,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>34</v>
@@ -1295,14 +1300,14 @@
         <v>44568</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" s="11">
         <f>F9-60000</f>
         <v>80000</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K9" s="37"/>
     </row>
@@ -1328,10 +1333,10 @@
         <v>44567</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,13 +1406,13 @@
         <v>44568</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1487,6 +1492,7 @@
       <c r="I18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
@@ -1542,17 +1548,17 @@
         <v>54</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L20" s="24" t="s">
         <v>85</v>
       </c>
       <c r="M20" s="21"/>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="11" t="s">
         <v>109</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1583,7 +1589,7 @@
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1668,6 +1674,7 @@
         <v>84</v>
       </c>
       <c r="M25" s="21"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
@@ -1678,16 +1685,16 @@
         <v>138000</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1710,7 @@
       <c r="I27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1745,7 +1752,7 @@
         <v>94</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1779,7 +1786,7 @@
         <v>114</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1803,10 +1810,10 @@
         <v>112</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L31" s="24" t="s">
         <v>113</v>
@@ -1837,14 +1844,14 @@
         <v>54</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L32" s="24" t="s">
         <v>95</v>
       </c>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -1867,14 +1874,14 @@
         <v>54</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L33" s="24" t="s">
         <v>94</v>
       </c>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -1894,17 +1901,17 @@
         <v>112</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L34" s="24" t="s">
         <v>95</v>
       </c>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -1925,17 +1932,17 @@
         <v>112</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L35" s="24" t="s">
         <v>94</v>
       </c>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -1964,10 +1971,10 @@
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -1975,16 +1982,16 @@
         <v>70</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -1995,7 +2002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2006,7 +2013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2017,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2028,7 +2035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2040,15 +2047,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2077,10 +2084,10 @@
       </c>
       <c r="L44" s="33"/>
       <c r="M44" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2097,7 +2104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2128,11 +2135,14 @@
         <v>124</v>
       </c>
       <c r="M46" s="21"/>
-      <c r="N46" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2142,7 +2152,7 @@
       <c r="G47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2161,7 +2171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2179,7 +2189,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="26" t="s">
         <v>127</v>
       </c>
@@ -2191,20 +2201,20 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2212,7 +2222,7 @@
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2220,7 +2230,7 @@
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2228,13 +2238,13 @@
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2247,7 +2257,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2259,16 +2269,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <f>170000-90000</f>
@@ -2283,7 +2293,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>49</v>
       </c>
@@ -2309,8 +2319,9 @@
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
         <v>41</v>
@@ -2334,6 +2345,7 @@
       <c r="I64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
+      <c r="N64" s="11"/>
     </row>
     <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -382,11 +382,254 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>베게커버2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베게커버4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스트 그린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60x40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이지플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키티버니포니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반 사이즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포장이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구 판매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드 세입자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29cm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실 발매트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방수커버 배송일 문의하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피머신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에센자 미니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29xm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x2000x250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 스트라이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베개솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS / 스노우화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형? 사각?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥그린? 미드나잇블루?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800mmx높이 75mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰소닉 m1+g2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔프로젝터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 배송일 지정 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일 문의 완료 / 전일 연락올 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 듀얼큐브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>420 x 470 x 610</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>410 x 410 x 810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동식 서랍 / 골드브라운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤리1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7 13~14시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7585-2343</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈앤홈 / 9:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한이사 / 9:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9991-5798</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나우부동산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7317-8020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01120204243528 국민 오라겸</t>
+  </si>
+  <si>
+    <t>오전에 조립해서 문 앞에 두고 가신다고 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5828-3515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7116-2891</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5828-3515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3272-8224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29xm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600x2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>베게커버1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>베게커버2</t>
+    <t>70x50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지 핑크</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -394,250 +637,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>베게커버4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포레스트 그린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로지 핑크</t>
+    <t>볼드 스트라이프 / 베개솜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29xm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70x50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>블랙 플라워</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60x40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70x50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이지플라워</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키티버니포니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반 사이즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반포장이사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가구 판매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드 세입자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성월드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29cm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화장실 발매트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방수커버 배송일 문의하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피머신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에센자 미니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29xm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600x2100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100x2000x250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루 스트라이프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베개솜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼드 스트라이프 / 베개솜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS / 스노우화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형? 사각?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>딥그린? 미드나잇블루?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800mmx높이 75mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뷰소닉 m1+g2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빔프로젝터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료 / 배송일 지정 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일 문의 완료 / 전일 연락올 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>납부일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈 듀얼큐브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>420 x 470 x 610</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>410 x 410 x 810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동식 서랍 / 골드브라운</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트롤리1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4 발송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/7 13~14시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7585-2343</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포레나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포레나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈앤홈 / 9:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>착한이사 / 9:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9991-5798</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9823-8224</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나우부동산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7317-8020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01120204243528 국민 오라겸</t>
-  </si>
-  <si>
-    <t>오전에 조립해서 문 앞에 두고 가신다고 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5828-3515</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1159,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1242,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>34</v>
@@ -1291,7 +1303,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F9" s="3">
         <v>140000</v>
@@ -1300,14 +1312,14 @@
         <v>44568</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I9" s="11">
         <f>F9-60000</f>
         <v>80000</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K9" s="37"/>
     </row>
@@ -1333,10 +1345,10 @@
         <v>44567</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1406,13 +1418,13 @@
         <v>44568</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1454,20 +1466,13 @@
         <f>(F7+F8)-F9-F10-F11-F12-F13-F14</f>
         <v>1756000</v>
       </c>
-      <c r="K15" s="11">
-        <v>132800</v>
-      </c>
-      <c r="L15" s="12">
-        <f>K15-6436</f>
-        <v>126364</v>
-      </c>
       <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F16" s="3">
         <f>120000</f>
@@ -1477,14 +1482,14 @@
         <v>44568</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1494,7 +1499,7 @@
       <c r="L18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>77</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>53</v>
@@ -1521,10 +1526,10 @@
         <v>33</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1548,20 +1553,20 @@
         <v>54</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L20" s="24" t="s">
         <v>85</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1584,16 +1589,19 @@
       <c r="J21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="22">
-        <v>44933</v>
+      <c r="K21" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="21"/>
       <c r="N21" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1611,11 +1619,11 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>40</v>
@@ -1627,7 +1635,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1643,7 +1651,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1676,28 +1684,28 @@
       <c r="M25" s="21"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4">
         <f>118000+20000</f>
         <v>138000</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -1711,23 +1719,23 @@
         <v>62</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F29" s="31">
         <f>D29</f>
@@ -1737,25 +1745,25 @@
         <v>44926</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>62</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K29" s="35">
         <v>0.33333333333333331</v>
       </c>
       <c r="L29" s="33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -1771,184 +1779,194 @@
         <v>44926</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K30" s="35">
         <v>0.25</v>
       </c>
       <c r="L30" s="33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="31">
         <f t="shared" ref="F31:F36" si="0">D31</f>
         <v>97750</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="32">
         <v>44926</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="19">
+      <c r="E32" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="31">
         <f t="shared" si="0"/>
         <v>18700</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="32">
         <v>44926</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="19">
+      <c r="E33" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="31">
         <v>18700</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="32">
         <v>44926</v>
       </c>
-      <c r="H33" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" s="21" t="s">
+      <c r="H33" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="19">
+      <c r="E34" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="31">
         <v>36550</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="32">
         <v>44926</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="19">
+      <c r="E35" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="31">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="32">
         <v>44926</v>
       </c>
-      <c r="H35" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="M35" s="21"/>
-    </row>
-    <row r="36" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F36" s="31">
         <f t="shared" si="0"/>
@@ -1958,23 +1976,23 @@
         <v>44926</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K36" s="35">
         <v>0.33333333333333331</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -1982,16 +2000,16 @@
         <v>70</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -2002,7 +2020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2013,7 +2031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2024,7 +2042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2047,15 +2065,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2077,17 +2095,17 @@
         <v>64</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K44" s="35">
         <v>0.33333333333333331</v>
       </c>
       <c r="L44" s="33"/>
       <c r="M44" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2104,7 +2122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2120,7 +2138,7 @@
         <v>44928</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>62</v>
@@ -2132,17 +2150,20 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2152,7 +2173,7 @@
       <c r="G47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2161,14 +2182,14 @@
         <v>75</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J48" s="4"/>
       <c r="L48" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2179,25 +2200,25 @@
         <v>55</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J49" s="4"/>
       <c r="L49" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -2262,11 +2283,11 @@
         <v>110000</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -650,6 +650,10 @@
   </si>
   <si>
     <t>블랙 플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7 13시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1173,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:K35"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1631,8 +1635,8 @@
       <c r="J23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="15">
-        <v>44568</v>
+      <c r="K23" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2197,6 +2197,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3">
+        <f>D47*95%</f>
+        <v>138719</v>
+      </c>
       <c r="D49" s="4">
         <v>50000</v>
       </c>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -605,10 +605,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>010-3272-8224</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>29xm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -654,6 +650,14 @@
   </si>
   <si>
     <t>1/7 13시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4244-2233(기사님) / 010-3272-8224(담당자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드대금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1175,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1196,11 +1200,12 @@
     <col min="11" max="11" width="8.625" style="11"/>
     <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="11"/>
-    <col min="15" max="16384" width="8.625" style="3"/>
+    <col min="14" max="14" width="10" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="11"/>
+    <col min="16" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44932</v>
@@ -1214,14 +1219,15 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="2"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>123</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1296,7 +1302,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1323,11 +1329,11 @@
         <v>80000</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1470,9 +1476,9 @@
         <f>(F7+F8)-F9-F10-F11-F12-F13-F14</f>
         <v>1756000</v>
       </c>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1489,11 +1495,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1501,9 +1507,9 @@
       <c r="I18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1532,8 +1538,11 @@
       <c r="M19" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1563,14 +1572,15 @@
         <v>85</v>
       </c>
       <c r="M20" s="21"/>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="21"/>
+      <c r="O20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1598,14 +1608,15 @@
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="21"/>
+      <c r="O21" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1623,7 +1634,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1636,10 +1647,10 @@
         <v>54</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1655,7 +1666,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1686,9 +1697,10 @@
         <v>84</v>
       </c>
       <c r="M25" s="21"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="21"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
@@ -1709,7 +1721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -1722,11 +1734,11 @@
       <c r="I27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="O27" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
         <v>101</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -1766,8 +1778,9 @@
       <c r="M29" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="34"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -1800,8 +1813,9 @@
       <c r="M30" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -1819,27 +1833,28 @@
         <v>86</v>
       </c>
       <c r="I31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="K31" s="35">
         <v>0.16666666666666666</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M31" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="34"/>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="31">
         <f t="shared" si="0"/>
@@ -1852,22 +1867,23 @@
         <v>89</v>
       </c>
       <c r="I32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="K32" s="35">
         <v>0.16666666666666666</v>
       </c>
       <c r="L32" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M32" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -1881,10 +1897,10 @@
         <v>44926</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J33" s="34" t="s">
         <v>54</v>
@@ -1898,13 +1914,14 @@
       <c r="M33" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" s="31">
         <v>36550</v>
@@ -1913,10 +1930,10 @@
         <v>44926</v>
       </c>
       <c r="H34" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>152</v>
       </c>
       <c r="J34" s="34" t="s">
         <v>54</v>
@@ -1925,13 +1942,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M34" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="34"/>
+    </row>
+    <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -1946,10 +1964,10 @@
         <v>44926</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J35" s="34" t="s">
         <v>54</v>
@@ -1963,8 +1981,9 @@
       <c r="M35" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="34"/>
+    </row>
+    <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -1995,8 +2014,9 @@
       <c r="M36" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="34"/>
+    </row>
+    <row r="37" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -2013,7 +2033,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -2024,7 +2044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2035,7 +2055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2046,7 +2066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2057,7 +2077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2069,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
@@ -2077,7 +2097,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2108,8 +2128,9 @@
       <c r="M44" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="45" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="34"/>
+    </row>
+    <row r="45" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2126,7 +2147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2157,17 +2178,18 @@
         <v>117</v>
       </c>
       <c r="M46" s="21"/>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="21"/>
+      <c r="O46" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R46" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2177,7 +2199,7 @@
       <c r="G47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2196,7 +2218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <f>D47*95%</f>
         <v>138719</v>
@@ -2218,7 +2240,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="26" t="s">
         <v>120</v>
       </c>
@@ -2230,20 +2252,20 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2251,7 +2273,7 @@
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2259,7 +2281,7 @@
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2267,13 +2289,13 @@
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2286,7 +2308,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2298,16 +2320,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
         <f>170000-90000</f>
@@ -2322,7 +2344,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>49</v>
       </c>
@@ -2348,9 +2370,9 @@
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
-      <c r="N63" s="11"/>
-    </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O63" s="11"/>
+    </row>
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
         <v>41</v>
@@ -2374,7 +2396,7 @@
       <c r="I64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
-      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
     </row>
     <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427041C7-2F9C-E848-BE15-D0646B6F2EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -458,10 +460,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>에센자 미니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>29xm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -510,10 +508,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>네이버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빔프로젝터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -558,10 +552,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1/7 13~14시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>010-7585-2343</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -578,17 +568,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나우부동산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7317-8020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01120204243528 국민 오라겸</t>
-  </si>
-  <si>
     <t>오전에 조립해서 문 앞에 두고 가신다고 함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -605,14 +584,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>29xm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포레나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1600x2100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -637,39 +608,211 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>29xm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70x50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>블랙 플라워</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1/7 13시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-4244-2233(기사님) / 010-3272-8224(담당자)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카드대금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매월 6일 납입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9823-8224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에센자 미니 C30 / 화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근마켓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직거래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네스프레소 오리지널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다미 보유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 보증금 상환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상환 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 보유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세 반환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 보유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금+잔금 대출 이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 송금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI 케이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성월드 분실물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴실 청소비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리베이터 사용료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 대출 총액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도, 전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입주 청소비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포장 이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피캡슐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 트레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매트리스</t>
+  </si>
+  <si>
+    <t>수납장</t>
+  </si>
+  <si>
+    <t>수납침대</t>
+  </si>
+  <si>
+    <t>베개솜</t>
+  </si>
+  <si>
+    <t>매트리스 커버</t>
+  </si>
+  <si>
+    <t>이불커버</t>
+  </si>
+  <si>
+    <t>베게커버1</t>
+  </si>
+  <si>
+    <t>베게커버2</t>
+  </si>
+  <si>
+    <t>베게커버3</t>
+  </si>
+  <si>
+    <t>베게커버4</t>
+  </si>
+  <si>
+    <t>화장실 발매트</t>
+  </si>
+  <si>
+    <t>샤워기</t>
+  </si>
+  <si>
+    <t>코인세탁소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>택시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성-포레나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레나-신성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레나-홈플러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국집</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +858,23 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -779,11 +939,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,110 +953,140 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1178,37 +1368,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="11"/>
-    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="11"/>
+    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="11"/>
-    <col min="16" max="16384" width="8.625" style="3"/>
+    <col min="15" max="15" width="8.6640625" style="11"/>
+    <col min="16" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44932</v>
+        <v>44934</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1222,12 +1412,12 @@
       <c r="N1" s="2"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1432,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1250,15 +1440,15 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1270,17 +1460,20 @@
         <v>44592</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="29">
         <v>1500000</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="30">
         <v>44568</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="31"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1291,49 +1484,50 @@
         <v>44567</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="29">
         <v>1000000</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="30">
         <v>44568</v>
       </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <f>(B8*1.4%)/12</f>
-        <v>38849.999999999993</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>39590</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>145</v>
+      </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="3">
-        <v>140000</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="29">
+        <v>170000</v>
+      </c>
+      <c r="G9" s="30">
         <v>44568</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="11">
-        <f>F9-60000</f>
-        <v>80000</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1345,23 +1539,24 @@
         <v>44898</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="29">
         <v>180000</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="30">
         <v>44567</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1373,43 +1568,48 @@
         <v>44567</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="29">
         <v>80000</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="30">
         <v>44568</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f>(B10+B11+F7)*6%/12</f>
-        <v>58500</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>50000</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="29">
         <v>50000</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="30">
         <v>44568</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1418,26 +1618,22 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="29">
         <v>244000</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="30">
         <v>44568</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1446,26 +1642,28 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="29">
         <v>50000</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="30">
         <v>44568</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
         <f>B4+B9+B13+B14+B12</f>
-        <v>497350</v>
+        <v>489590</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="16"/>
@@ -1474,11 +1672,11 @@
       </c>
       <c r="F15" s="3">
         <f>(F7+F8)-F9-F10-F11-F12-F13-F14</f>
-        <v>1756000</v>
+        <v>1726000</v>
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1495,11 +1693,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1509,13 +1707,13 @@
       <c r="L18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="8">
         <f>(F15+F16)-SUM(F20:F58)+25</f>
-        <v>374050</v>
+        <v>274050</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>35</v>
@@ -1536,87 +1734,91 @@
         <v>33</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" customHeight="1">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="29">
         <v>434700</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="30">
         <v>44921</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" s="24" t="s">
+      <c r="K20" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="M20" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="32"/>
       <c r="O20" s="11" t="s">
         <v>104</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" customHeight="1">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="29">
         <v>212900</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="30">
         <v>44925</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="K21" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="32"/>
       <c r="O21" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.75" customHeight="1">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1634,7 +1836,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1646,11 +1848,11 @@
       <c r="J23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="15">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1665,42 +1867,45 @@
         <v>62</v>
       </c>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
         <v>358900</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="29">
         <v>358900</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="30">
         <v>44925</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="36">
         <v>44568</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="M25" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="32"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
@@ -1709,19 +1914,20 @@
         <v>138000</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="K26" s="15"/>
       <c r="L26" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" customHeight="1">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -1734,306 +1940,309 @@
       <c r="I27" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="K27" s="15"/>
       <c r="O27" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18.75" customHeight="1">
       <c r="E28" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:16" ht="18.75" customHeight="1">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="31">
+      <c r="E29" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="29">
         <f>D29</f>
         <v>17300</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="30">
         <v>44926</v>
       </c>
-      <c r="H29" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="34" t="s">
+      <c r="H29" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="35">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L29" s="33" t="s">
+      <c r="K29" s="36">
+        <v>44929</v>
+      </c>
+      <c r="L29" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="M29" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N29" s="34"/>
-    </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" customHeight="1">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="29">
         <f>D30</f>
         <v>61225</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="30">
         <v>44926</v>
       </c>
-      <c r="H30" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="30" t="s">
+      <c r="H30" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="36">
+        <v>44929</v>
+      </c>
+      <c r="L30" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N30" s="34"/>
-    </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" customHeight="1">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="29">
         <f t="shared" ref="F31:F36" si="0">D31</f>
         <v>97750</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="30">
         <v>44926</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="K31" s="35">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N31" s="34"/>
-    </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="36">
+        <v>44932</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" customHeight="1">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="31">
+      <c r="E32" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="29">
         <f t="shared" si="0"/>
         <v>18700</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="30">
         <v>44926</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="K32" s="35">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="36">
+        <v>44932</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="32"/>
+    </row>
+    <row r="33" spans="3:18" ht="18.75" customHeight="1">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="29">
         <v>18700</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="30">
         <v>44926</v>
       </c>
-      <c r="H33" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="34" t="s">
+      <c r="H33" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="35">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L33" s="33" t="s">
+      <c r="K33" s="36">
+        <v>44932</v>
+      </c>
+      <c r="L33" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N33" s="34"/>
-    </row>
-    <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N33" s="32"/>
+    </row>
+    <row r="34" spans="3:18" ht="18.75" customHeight="1">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="31">
+      <c r="E34" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="29">
         <v>36550</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="30">
         <v>44926</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="J34" s="34" t="s">
+      <c r="H34" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="35">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L34" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="M34" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N34" s="34"/>
-    </row>
-    <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="36">
+        <v>44932</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="32"/>
+    </row>
+    <row r="35" spans="3:18" ht="18.75" customHeight="1">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="29">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="30">
         <v>44926</v>
       </c>
-      <c r="H35" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="I35" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="35">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L35" s="33" t="s">
+      <c r="K35" s="36">
+        <v>44932</v>
+      </c>
+      <c r="L35" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="M35" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N35" s="34"/>
-    </row>
-    <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M35" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" s="32"/>
+    </row>
+    <row r="36" spans="3:18" ht="18.75" customHeight="1">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="29">
         <f t="shared" si="0"/>
         <v>42250</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="30">
         <v>44926</v>
       </c>
-      <c r="H36" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I36" s="30" t="s">
+      <c r="H36" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K36" s="35">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N36" s="34"/>
-    </row>
-    <row r="37" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="36">
+        <v>44929</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="32"/>
+    </row>
+    <row r="37" spans="3:18" ht="18.75" customHeight="1">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K37" s="15"/>
       <c r="L37" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" ht="18.75" customHeight="1">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -2043,8 +2252,9 @@
       <c r="I38" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="3:18" ht="18.75" customHeight="1">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2054,8 +2264,9 @@
       <c r="I39" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="3:18" ht="18.75" customHeight="1">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2065,8 +2276,9 @@
       <c r="I40" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="3:18" ht="18.75" customHeight="1">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2076,8 +2288,9 @@
       <c r="I41" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="3:18" ht="18.75" customHeight="1">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2088,49 +2301,51 @@
       <c r="I42" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" spans="3:18" ht="18.75" customHeight="1">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="3:18" ht="18.75" customHeight="1">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
         <v>70000</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="29">
         <v>70000</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="33">
         <v>44925</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K44" s="35">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L44" s="33"/>
-      <c r="M44" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N44" s="34"/>
-    </row>
-    <row r="45" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K44" s="36">
+        <v>44929</v>
+      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N44" s="32"/>
+    </row>
+    <row r="45" spans="3:18" ht="18.75" customHeight="1">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2146,8 +2361,9 @@
       <c r="I45" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="3:18" ht="18.75" customHeight="1">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2163,7 +2379,7 @@
         <v>44928</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>62</v>
@@ -2171,25 +2387,25 @@
       <c r="J46" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="22">
         <v>0.1111111111111111</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
       <c r="O46" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" ht="18.75" customHeight="1">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2198,8 +2414,9 @@
       </c>
       <c r="G47" s="4"/>
       <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="3:18" ht="18.75" customHeight="1">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2214,15 +2431,12 @@
         <v>93</v>
       </c>
       <c r="J48" s="4"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="3">
-        <f>D47*95%</f>
-        <v>138719</v>
-      </c>
+    <row r="49" spans="1:15" ht="18.75" customHeight="1">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2230,72 +2444,80 @@
         <v>55</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>102</v>
       </c>
       <c r="J49" s="4"/>
+      <c r="K49" s="15"/>
       <c r="L49" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="18.75" customHeight="1">
       <c r="E50" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:15" ht="18.75" customHeight="1">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G51" s="4"/>
       <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:15" ht="18.75" customHeight="1">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:15" ht="18.75" customHeight="1">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G53" s="4"/>
       <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:15" ht="18.75" customHeight="1">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G54" s="4"/>
       <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:15" ht="18.75" customHeight="1">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="4"/>
       <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K55" s="15"/>
+    </row>
+    <row r="56" spans="1:15" ht="18.75" customHeight="1">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" spans="1:15" ht="18.75" customHeight="1">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2307,282 +2529,307 @@
         <v>74</v>
       </c>
       <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K57" s="15"/>
+    </row>
+    <row r="58" spans="1:15" ht="18.75" customHeight="1">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="29">
+        <v>70000</v>
+      </c>
+      <c r="G58" s="33">
+        <v>44934</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J58" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="K58" s="36">
+        <v>44934</v>
+      </c>
+      <c r="L58" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M58" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N58" s="32"/>
+    </row>
+    <row r="59" spans="1:15" ht="18.75" customHeight="1">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12">
         <f>170000-90000</f>
         <v>80000</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11">
+      <c r="C61" s="13"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
         <f>170000-70000</f>
         <v>100000</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+      <c r="F61" s="12"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A62" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="B62" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="I63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="O64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A64" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B64" s="12">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="11" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E64" s="12">
         <f>(22000*10%)+22000</f>
         <v>24200</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="4">
+      <c r="F64" s="12"/>
+      <c r="G64" s="4">
         <v>44000</v>
       </c>
-      <c r="H65" s="12">
-        <f>G65-17000</f>
+      <c r="H64" s="12">
+        <f>G64-17000</f>
         <v>27000</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="11"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="12"/>
+      <c r="O64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A65" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="11">
+        <v>19550</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12">
+        <v>16250</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12">
-        <v>19550</v>
+        <v>42</v>
+      </c>
+      <c r="B66" s="12">
+        <v>93500</v>
+      </c>
+      <c r="C66" s="11">
+        <v>93500</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12">
-        <v>16250</v>
-      </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="12">
-        <v>93500</v>
-      </c>
-      <c r="C67" s="12">
-        <v>93500</v>
-      </c>
-      <c r="D67" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E66" s="12">
         <f>19900+35500+1320</f>
         <v>56720</v>
       </c>
-      <c r="F67" s="12">
-        <f t="shared" ref="F67:H67" si="1">19900+35500+1320</f>
+      <c r="F66" s="12">
+        <f t="shared" ref="F66:H66" si="1">19900+35500+1320</f>
         <v>56720</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G66" s="12">
         <f t="shared" si="1"/>
         <v>56720</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H66" s="12">
         <f t="shared" si="1"/>
         <v>56720</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A67" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B67" s="12">
         <v>1100</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="11" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E67" s="12">
         <v>1100</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F67" s="13"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A68" s="11"/>
+      <c r="B68" s="14">
+        <f>SUM(B64:B67)</f>
+        <v>118800</v>
+      </c>
+      <c r="C68" s="37">
+        <f>SUM(C64:C67)</f>
+        <v>113050</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="14">
+        <f>SUM(E64:E67)</f>
+        <v>82020</v>
+      </c>
+      <c r="F68" s="14">
+        <f>SUM(F64:F67)</f>
+        <v>72970</v>
+      </c>
+      <c r="G68" s="14">
+        <f>SUM(G64:G67)</f>
+        <v>100720</v>
+      </c>
+      <c r="H68" s="14">
+        <f>SUM(H64:H67)</f>
+        <v>83720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" customHeight="1">
       <c r="A69" s="11"/>
-      <c r="B69" s="14">
-        <f>SUM(B65:B68)</f>
-        <v>118800</v>
-      </c>
-      <c r="C69" s="14">
-        <f>SUM(C65:C68)</f>
-        <v>113050</v>
-      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="14">
-        <f>SUM(E65:E68)</f>
-        <v>82020</v>
-      </c>
-      <c r="F69" s="14">
-        <f>SUM(F65:F68)</f>
-        <v>72970</v>
-      </c>
-      <c r="G69" s="14">
-        <f>SUM(G65:G68)</f>
-        <v>100720</v>
-      </c>
-      <c r="H69" s="14">
-        <f>SUM(H65:H68)</f>
-        <v>83720</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="11">
+        <f>B68-E68</f>
+        <v>36780</v>
+      </c>
+      <c r="F69" s="12">
+        <f>C68-F68</f>
+        <v>40080</v>
+      </c>
+      <c r="G69" s="4">
+        <f>G68-F68</f>
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="11">
-        <f>B69-E69</f>
-        <v>36780</v>
-      </c>
-      <c r="F70" s="12">
-        <f>C69-F69</f>
-        <v>40080</v>
-      </c>
-      <c r="G70" s="4">
-        <f>G69-F69</f>
-        <v>27750</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="11"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A71" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B71" s="12">
         <v>27500</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C71" s="11">
         <v>27500</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D71" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E71" s="12">
         <v>27500</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F71" s="12">
         <v>27500</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G71" s="12">
         <v>27500</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H71" s="12">
         <v>27500</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1">
       <c r="G78" s="4"/>
     </row>
   </sheetData>
@@ -2590,4 +2837,490 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C542AC-21D2-1242-B111-C4DCD4A80183}">
+  <dimension ref="A2:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="38"/>
+    <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="38"/>
+    <col min="5" max="5" width="10.83203125" style="35"/>
+    <col min="6" max="6" width="10.83203125" style="12"/>
+    <col min="7" max="8" width="10.83203125" style="38"/>
+    <col min="9" max="9" width="10.83203125" style="35"/>
+    <col min="10" max="10" width="10.83203125" style="12"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="20" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>87000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="E4" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="A5" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="42">
+        <v>9000000</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1500000</v>
+      </c>
+      <c r="J5" s="12">
+        <f>H4-I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <f>B2*50%</f>
+        <v>43500000</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="12">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24">
+        <v>33300000</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="12">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12">
+        <v>40870</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24">
+        <f>B2*10%</f>
+        <v>8700000</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="I9" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <f>B2-B6-B7-B9</f>
+        <v>1500000</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="46">
+        <f>(F4+F5+F6+F7)-SUM(F11:F155)</f>
+        <v>320545</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="47">
+        <f>SUM(J11:J48)</f>
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>50000</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="12">
+        <f>B5</f>
+        <v>9000000</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="4">
+        <f>99000+12000</f>
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12">
+        <v>80000</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12">
+        <v>80000</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="12">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12">
+        <f>B3+B8+B12+B13+B11</f>
+        <v>490870</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="12">
+        <f>(B5+B9+B10+F5)</f>
+        <v>20700000</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="12">
+        <v>39730</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="E16" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="12">
+        <f>20940+43680</f>
+        <v>64620</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="20" customHeight="1">
+      <c r="E17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12">
+        <v>244000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="20" customHeight="1">
+      <c r="E18" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="12">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="20" customHeight="1">
+      <c r="E19" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="12">
+        <f>60000+110000</f>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="20" customHeight="1">
+      <c r="E20" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="12">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="20" customHeight="1">
+      <c r="E21" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="12">
+        <f>8560+6280</f>
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="20" customHeight="1">
+      <c r="E22" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="12">
+        <v>9510</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="20" customHeight="1">
+      <c r="E23" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="12">
+        <v>434700</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="20" customHeight="1">
+      <c r="E24" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="12">
+        <v>212900</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" ht="20" customHeight="1">
+      <c r="E25" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="12">
+        <v>358900</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" ht="20" customHeight="1">
+      <c r="E26" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="12">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" ht="20" customHeight="1">
+      <c r="E27" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="12">
+        <v>61225</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" ht="20" customHeight="1">
+      <c r="E28" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="12">
+        <v>97750</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" ht="20" customHeight="1">
+      <c r="E29" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="12">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" ht="20" customHeight="1">
+      <c r="E30" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="12">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="20" customHeight="1">
+      <c r="E31" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="12">
+        <v>36550</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="20" customHeight="1">
+      <c r="E32" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="12">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="20" customHeight="1">
+      <c r="E33" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="12">
+        <v>42250</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="20" customHeight="1">
+      <c r="E34" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="12">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="20" customHeight="1">
+      <c r="E35" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="12">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" ht="20" customHeight="1">
+      <c r="E36" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="12">
+        <f>4400-880</f>
+        <v>3520</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="20" customHeight="1">
+      <c r="E37" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="12">
+        <f>4700-940</f>
+        <v>3760</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" ht="20" customHeight="1">
+      <c r="E38" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="12">
+        <f>3800-760</f>
+        <v>3040</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="20" customHeight="1">
+      <c r="E39" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="12">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="20" customHeight="1">
+      <c r="E40" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="12">
+        <f>18000-540</f>
+        <v>17460</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427041C7-2F9C-E848-BE15-D0646B6F2EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41217C51-71D2-2549-B9C9-FA703AC9A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1076,17 +1076,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,7 +1398,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -2844,7 +2844,7 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -2960,14 +2960,14 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="I9" s="44" t="s">
+      <c r="F9" s="47"/>
+      <c r="I9" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="44"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -2980,17 +2980,17 @@
       <c r="C10" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <f>(F4+F5+F6+F7)-SUM(F11:F155)</f>
         <v>320545</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="46">
         <f>SUM(J11:J48)</f>
         <v>111000</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="20" customHeight="1">
+    <row r="17" spans="5:8" ht="20" customHeight="1">
       <c r="E17" s="35" t="s">
         <v>12</v>
       </c>
@@ -3113,15 +3113,16 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="20" customHeight="1">
+    <row r="18" spans="5:8" ht="20" customHeight="1">
       <c r="E18" s="35" t="s">
         <v>171</v>
       </c>
       <c r="F18" s="12">
         <v>180000</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" ht="20" customHeight="1">
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="5:8" ht="20" customHeight="1">
       <c r="E19" s="35" t="s">
         <v>172</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="20" spans="5:6" ht="20" customHeight="1">
+    <row r="20" spans="5:8" ht="20" customHeight="1">
       <c r="E20" s="35" t="s">
         <v>105</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="21" spans="5:6" ht="20" customHeight="1">
+    <row r="21" spans="5:8" ht="20" customHeight="1">
       <c r="E21" s="35" t="s">
         <v>173</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="22" spans="5:6" ht="20" customHeight="1">
+    <row r="22" spans="5:8" ht="20" customHeight="1">
       <c r="E22" s="35" t="s">
         <v>174</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="23" spans="5:6" ht="20" customHeight="1">
+    <row r="23" spans="5:8" ht="20" customHeight="1">
       <c r="E23" s="35" t="s">
         <v>175</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>434700</v>
       </c>
     </row>
-    <row r="24" spans="5:6" ht="20" customHeight="1">
+    <row r="24" spans="5:8" ht="20" customHeight="1">
       <c r="E24" s="35" t="s">
         <v>176</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>212900</v>
       </c>
     </row>
-    <row r="25" spans="5:6" ht="20" customHeight="1">
+    <row r="25" spans="5:8" ht="20" customHeight="1">
       <c r="E25" s="35" t="s">
         <v>177</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>358900</v>
       </c>
     </row>
-    <row r="26" spans="5:6" ht="20" customHeight="1">
+    <row r="26" spans="5:8" ht="20" customHeight="1">
       <c r="E26" s="35" t="s">
         <v>178</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="5:6" ht="20" customHeight="1">
+    <row r="27" spans="5:8" ht="20" customHeight="1">
       <c r="E27" s="35" t="s">
         <v>179</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>61225</v>
       </c>
     </row>
-    <row r="28" spans="5:6" ht="20" customHeight="1">
+    <row r="28" spans="5:8" ht="20" customHeight="1">
       <c r="E28" s="35" t="s">
         <v>180</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>97750</v>
       </c>
     </row>
-    <row r="29" spans="5:6" ht="20" customHeight="1">
+    <row r="29" spans="5:8" ht="20" customHeight="1">
       <c r="E29" s="35" t="s">
         <v>181</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="30" spans="5:6" ht="20" customHeight="1">
+    <row r="30" spans="5:8" ht="20" customHeight="1">
       <c r="E30" s="35" t="s">
         <v>182</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="31" spans="5:6" ht="20" customHeight="1">
+    <row r="31" spans="5:8" ht="20" customHeight="1">
       <c r="E31" s="35" t="s">
         <v>183</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>36550</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="20" customHeight="1">
+    <row r="32" spans="5:8" ht="20" customHeight="1">
       <c r="E32" s="35" t="s">
         <v>184</v>
       </c>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41217C51-71D2-2549-B9C9-FA703AC9A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="196">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -788,10 +787,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>포레나-홈플러스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>다이소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -801,18 +796,26 @@
   </si>
   <si>
     <t>중국집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베개솜 포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨래방-홈플러스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m\/d"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,11 +942,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,124 +956,124 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1079,11 +1082,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1368,34 +1374,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N20" sqref="N20:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="11"/>
-    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="11"/>
+    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="11"/>
-    <col min="16" max="16384" width="8.6640625" style="3"/>
+    <col min="15" max="15" width="8.625" style="11"/>
+    <col min="16" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44935</v>
@@ -1412,12 +1418,12 @@
       <c r="N1" s="2"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>121</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1473,7 +1479,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1504,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1527,7 +1533,7 @@
       </c>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1583,7 +1589,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1615,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1639,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1663,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1676,7 +1682,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1693,11 +1699,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1707,7 +1713,7 @@
       <c r="L18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1780,7 +1786,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1818,7 +1824,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1852,7 +1858,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1869,7 +1875,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1905,7 +1911,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
         <v>101</v>
       </c>
@@ -1954,7 +1960,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -1988,7 +1994,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -2023,7 +2029,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -2057,7 +2063,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -2091,7 +2097,7 @@
       </c>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="3:18" ht="18.75" customHeight="1">
+    <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -2124,7 +2130,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="3:18" ht="18.75" customHeight="1">
+    <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -2157,7 +2163,7 @@
       </c>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="3:18" ht="18.75" customHeight="1">
+    <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -2191,7 +2197,7 @@
       </c>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="3:18" ht="18.75" customHeight="1">
+    <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -2224,7 +2230,7 @@
       </c>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="3:18" ht="18.75" customHeight="1">
+    <row r="37" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="3:18" ht="18.75" customHeight="1">
+    <row r="38" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -2254,7 +2260,7 @@
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="3:18" ht="18.75" customHeight="1">
+    <row r="39" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2266,7 +2272,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="3:18" ht="18.75" customHeight="1">
+    <row r="40" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2278,7 +2284,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="3:18" ht="18.75" customHeight="1">
+    <row r="41" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2290,7 +2296,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="3:18" ht="18.75" customHeight="1">
+    <row r="42" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2303,7 +2309,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="3:18" ht="18.75" customHeight="1">
+    <row r="43" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
@@ -2312,7 +2318,7 @@
       <c r="G43" s="4"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="3:18" ht="18.75" customHeight="1">
+    <row r="44" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2345,7 +2351,7 @@
       </c>
       <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="3:18" ht="18.75" customHeight="1">
+    <row r="45" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2363,7 +2369,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="3:18" ht="18.75" customHeight="1">
+    <row r="46" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2405,7 +2411,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="3:18" ht="18.75" customHeight="1">
+    <row r="47" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2416,7 +2422,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="3:18" ht="18.75" customHeight="1">
+    <row r="48" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2436,7 +2442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1">
+    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1">
+    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="26" t="s">
         <v>118</v>
       </c>
@@ -2468,7 +2474,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1">
+    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
@@ -2476,14 +2482,14 @@
       <c r="J51" s="4"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1">
+    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2492,7 +2498,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1">
+    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2501,7 +2507,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1">
+    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2510,14 +2516,14 @@
       <c r="J55" s="4"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2531,7 +2537,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1">
+    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2564,13 +2570,13 @@
       </c>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1">
+    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="12">
         <f>170000-90000</f>
@@ -2585,7 +2591,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1">
+    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>49</v>
       </c>
@@ -2611,7 +2617,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -2637,7 +2643,7 @@
       <c r="L63" s="11"/>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2673,7 @@
       <c r="L64" s="12"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>44</v>
       </c>
@@ -2684,7 +2690,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>42</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>48</v>
       </c>
@@ -2731,7 +2737,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="14">
         <f>SUM(B64:B67)</f>
@@ -2759,7 +2765,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -2777,7 +2783,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2785,7 +2791,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>47</v>
       </c>
@@ -2811,25 +2817,25 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="4"/>
     </row>
   </sheetData>
@@ -2840,27 +2846,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C542AC-21D2-1242-B111-C4DCD4A80183}">
-  <dimension ref="A2:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="38"/>
+    <col min="1" max="1" width="10.875" style="38"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="38"/>
-    <col min="5" max="5" width="10.83203125" style="35"/>
-    <col min="6" max="6" width="10.83203125" style="12"/>
-    <col min="7" max="8" width="10.83203125" style="38"/>
-    <col min="9" max="9" width="10.83203125" style="35"/>
-    <col min="10" max="10" width="10.83203125" style="12"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="3" max="4" width="10.875" style="38"/>
+    <col min="5" max="5" width="10.875" style="47"/>
+    <col min="6" max="6" width="10.875" style="12"/>
+    <col min="7" max="8" width="10.875" style="38"/>
+    <col min="9" max="9" width="10.875" style="47"/>
+    <col min="10" max="10" width="10.875" style="12"/>
+    <col min="11" max="16384" width="10.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>87000000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2876,9 +2882,9 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="47" t="s">
         <v>151</v>
       </c>
       <c r="F4" s="12">
@@ -2886,8 +2892,9 @@
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="40"/>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>152</v>
       </c>
@@ -2897,18 +2904,14 @@
       <c r="C5" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="47" t="s">
         <v>154</v>
       </c>
       <c r="F5" s="12">
         <v>1500000</v>
       </c>
-      <c r="J5" s="12">
-        <f>H4-I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -2916,28 +2919,28 @@
         <f>B2*50%</f>
         <v>43500000</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="47" t="s">
         <v>155</v>
       </c>
       <c r="F6" s="12">
         <v>76000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="24">
         <v>33300000</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="47" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="12">
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -2949,7 +2952,7 @@
       </c>
       <c r="F8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -2960,16 +2963,16 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="I9" s="47" t="s">
+      <c r="F9" s="48"/>
+      <c r="I9" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -2984,18 +2987,18 @@
         <v>159</v>
       </c>
       <c r="F10" s="45">
-        <f>(F4+F5+F6+F7)-SUM(F11:F155)</f>
-        <v>320545</v>
+        <f>SUM(F4:F7)-SUM(F11:F155)</f>
+        <v>209545</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>160</v>
       </c>
       <c r="J10" s="46">
         <f>SUM(J11:J48)</f>
-        <v>111000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3005,7 +3008,7 @@
       <c r="C11" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="47" t="s">
         <v>162</v>
       </c>
       <c r="F11" s="12">
@@ -3015,15 +3018,9 @@
       <c r="G11" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="4">
-        <f>99000+12000</f>
-        <v>111000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3030,7 @@
       <c r="C12" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="47" t="s">
         <v>164</v>
       </c>
       <c r="F12" s="12">
@@ -3043,7 +3040,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -3053,14 +3050,14 @@
       <c r="C13" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="47" t="s">
         <v>166</v>
       </c>
       <c r="F13" s="12">
         <v>80000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
@@ -3068,22 +3065,16 @@
         <f>B3+B8+B12+B13+B11</f>
         <v>490870</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="47" t="s">
         <v>167</v>
       </c>
       <c r="F14" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="12">
-        <f>(B5+B9+B10+F5)</f>
-        <v>20700000</v>
-      </c>
-      <c r="E15" s="35" t="s">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="E15" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="12">
@@ -3093,8 +3084,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="E16" s="35" t="s">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="12">
+        <f>(B5+B9+B10+F5)-B5</f>
+        <v>11700000</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="12">
@@ -3105,16 +3103,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="5:8" ht="20" customHeight="1">
-      <c r="E17" s="35" t="s">
+    <row r="17" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="47" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="12">
         <v>244000</v>
       </c>
     </row>
-    <row r="18" spans="5:8" ht="20" customHeight="1">
-      <c r="E18" s="35" t="s">
+    <row r="18" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="47" t="s">
         <v>171</v>
       </c>
       <c r="F18" s="12">
@@ -3122,8 +3120,8 @@
       </c>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="5:8" ht="20" customHeight="1">
-      <c r="E19" s="35" t="s">
+    <row r="19" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="47" t="s">
         <v>172</v>
       </c>
       <c r="F19" s="12">
@@ -3131,16 +3129,16 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="20" spans="5:8" ht="20" customHeight="1">
-      <c r="E20" s="35" t="s">
+    <row r="20" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="47" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="12">
         <v>70000</v>
       </c>
     </row>
-    <row r="21" spans="5:8" ht="20" customHeight="1">
-      <c r="E21" s="35" t="s">
+    <row r="21" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="47" t="s">
         <v>173</v>
       </c>
       <c r="F21" s="12">
@@ -3148,120 +3146,123 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="22" spans="5:8" ht="20" customHeight="1">
-      <c r="E22" s="35" t="s">
+    <row r="22" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="47" t="s">
         <v>174</v>
       </c>
       <c r="F22" s="12">
         <v>9510</v>
       </c>
     </row>
-    <row r="23" spans="5:8" ht="20" customHeight="1">
-      <c r="E23" s="35" t="s">
+    <row r="23" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="47" t="s">
         <v>175</v>
       </c>
       <c r="F23" s="12">
         <v>434700</v>
       </c>
     </row>
-    <row r="24" spans="5:8" ht="20" customHeight="1">
-      <c r="E24" s="35" t="s">
+    <row r="24" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="47" t="s">
         <v>176</v>
       </c>
       <c r="F24" s="12">
         <v>212900</v>
       </c>
     </row>
-    <row r="25" spans="5:8" ht="20" customHeight="1">
-      <c r="E25" s="35" t="s">
+    <row r="25" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="47" t="s">
         <v>177</v>
       </c>
       <c r="F25" s="12">
         <v>358900</v>
       </c>
     </row>
-    <row r="26" spans="5:8" ht="20" customHeight="1">
-      <c r="E26" s="35" t="s">
+    <row r="26" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="47" t="s">
         <v>178</v>
       </c>
       <c r="F26" s="12">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="5:8" ht="20" customHeight="1">
-      <c r="E27" s="35" t="s">
+    <row r="27" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="47" t="s">
         <v>179</v>
       </c>
       <c r="F27" s="12">
         <v>61225</v>
       </c>
     </row>
-    <row r="28" spans="5:8" ht="20" customHeight="1">
-      <c r="E28" s="35" t="s">
+    <row r="28" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="47" t="s">
         <v>180</v>
       </c>
       <c r="F28" s="12">
         <v>97750</v>
       </c>
     </row>
-    <row r="29" spans="5:8" ht="20" customHeight="1">
-      <c r="E29" s="35" t="s">
+    <row r="29" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="47" t="s">
         <v>181</v>
       </c>
       <c r="F29" s="12">
         <v>18700</v>
       </c>
     </row>
-    <row r="30" spans="5:8" ht="20" customHeight="1">
-      <c r="E30" s="35" t="s">
+    <row r="30" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="47" t="s">
         <v>182</v>
       </c>
       <c r="F30" s="12">
         <v>18700</v>
       </c>
     </row>
-    <row r="31" spans="5:8" ht="20" customHeight="1">
-      <c r="E31" s="35" t="s">
+    <row r="31" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="47" t="s">
         <v>183</v>
       </c>
       <c r="F31" s="12">
         <v>36550</v>
       </c>
-    </row>
-    <row r="32" spans="5:8" ht="20" customHeight="1">
-      <c r="E32" s="35" t="s">
+      <c r="G31" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="47" t="s">
         <v>184</v>
       </c>
       <c r="F32" s="12">
         <v>22000</v>
       </c>
     </row>
-    <row r="33" spans="5:7" ht="20" customHeight="1">
-      <c r="E33" s="35" t="s">
+    <row r="33" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F33" s="12">
         <v>42250</v>
       </c>
     </row>
-    <row r="34" spans="5:7" ht="20" customHeight="1">
-      <c r="E34" s="35" t="s">
+    <row r="34" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="47" t="s">
         <v>186</v>
       </c>
       <c r="F34" s="12">
         <v>70000</v>
       </c>
     </row>
-    <row r="35" spans="5:7" ht="20" customHeight="1">
-      <c r="E35" s="35" t="s">
+    <row r="35" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="47" t="s">
         <v>187</v>
       </c>
       <c r="F35" s="12">
         <v>13000</v>
       </c>
     </row>
-    <row r="36" spans="5:7" ht="20" customHeight="1">
-      <c r="E36" s="35" t="s">
+    <row r="36" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="47" t="s">
         <v>188</v>
       </c>
       <c r="F36" s="12">
@@ -3272,8 +3273,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="5:7" ht="20" customHeight="1">
-      <c r="E37" s="35" t="s">
+    <row r="37" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="47" t="s">
         <v>188</v>
       </c>
       <c r="F37" s="12">
@@ -3284,8 +3285,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="5:7" ht="20" customHeight="1">
-      <c r="E38" s="35" t="s">
+    <row r="38" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="47" t="s">
         <v>188</v>
       </c>
       <c r="F38" s="12">
@@ -3293,27 +3294,36 @@
         <v>3040</v>
       </c>
       <c r="G38" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="47" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" ht="20" customHeight="1">
-      <c r="E39" s="35" t="s">
-        <v>192</v>
       </c>
       <c r="F39" s="12">
         <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="20" customHeight="1">
-      <c r="E40" s="35" t="s">
-        <v>193</v>
+    <row r="40" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="47" t="s">
+        <v>192</v>
       </c>
       <c r="F40" s="12">
         <f>18000-540</f>
         <v>17460</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="11">
+        <f>99000+12000</f>
+        <v>111000</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="198">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -804,6 +804,14 @@
   </si>
   <si>
     <t>빨래방-홈플러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2847,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2988,7 +2996,7 @@
       </c>
       <c r="F10" s="45">
         <f>SUM(F4:F7)-SUM(F11:F155)</f>
-        <v>209545</v>
+        <v>49545</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>160</v>
@@ -3319,11 +3327,19 @@
     </row>
     <row r="41" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="47" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="F41" s="11">
         <f>99000+12000</f>
         <v>111000</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="12">
+        <v>160000</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="207">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -812,6 +812,42 @@
   </si>
   <si>
     <t>테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토퍼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접이식 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>협탁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2857,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2958,7 +2994,14 @@
       <c r="C8" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="E8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="12">
+        <f>70000</f>
+        <v>70000</v>
+      </c>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -2995,15 +3038,15 @@
         <v>159</v>
       </c>
       <c r="F10" s="45">
-        <f>SUM(F4:F7)-SUM(F11:F155)</f>
-        <v>49545</v>
+        <f>SUM(F4:F7)+(F8*95%)-SUM(F11:F155)</f>
+        <v>116045</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>160</v>
       </c>
       <c r="J10" s="46">
         <f>SUM(J11:J48)</f>
-        <v>0</v>
+        <v>488600</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3026,7 +3069,12 @@
       <c r="G11" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="I11" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="J11" s="11">
+        <v>41900</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -3047,6 +3095,12 @@
       <c r="G12" s="38" t="s">
         <v>165</v>
       </c>
+      <c r="I12" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="12">
+        <v>99900</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -3064,6 +3118,12 @@
       <c r="F13" s="12">
         <v>80000</v>
       </c>
+      <c r="I13" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="12">
+        <v>17900</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -3078,6 +3138,9 @@
       </c>
       <c r="F14" s="12">
         <v>50000</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3091,6 +3154,12 @@
       <c r="G15" s="38" t="s">
         <v>169</v>
       </c>
+      <c r="I15" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="12">
+        <v>129000</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -3110,16 +3179,29 @@
       <c r="G16" s="38" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="J16" s="12">
+        <v>37900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" s="47" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="12">
         <v>244000</v>
       </c>
-    </row>
-    <row r="18" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="12">
+        <f>142000+20000</f>
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="47" t="s">
         <v>171</v>
       </c>
@@ -3127,8 +3209,12 @@
         <v>180000</v>
       </c>
       <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
       <c r="E19" s="47" t="s">
         <v>172</v>
       </c>
@@ -3137,7 +3223,8 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="20" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
       <c r="E20" s="47" t="s">
         <v>105</v>
       </c>
@@ -3145,7 +3232,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="21" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="47" t="s">
         <v>173</v>
       </c>
@@ -3154,7 +3241,7 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="22" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="47" t="s">
         <v>174</v>
       </c>
@@ -3162,7 +3249,8 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="23" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
       <c r="E23" s="47" t="s">
         <v>175</v>
       </c>
@@ -3170,7 +3258,8 @@
         <v>434700</v>
       </c>
     </row>
-    <row r="24" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
       <c r="E24" s="47" t="s">
         <v>176</v>
       </c>
@@ -3178,7 +3267,7 @@
         <v>212900</v>
       </c>
     </row>
-    <row r="25" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="47" t="s">
         <v>177</v>
       </c>
@@ -3186,7 +3275,8 @@
         <v>358900</v>
       </c>
     </row>
-    <row r="26" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
       <c r="E26" s="47" t="s">
         <v>178</v>
       </c>
@@ -3194,7 +3284,8 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
       <c r="E27" s="47" t="s">
         <v>179</v>
       </c>
@@ -3202,7 +3293,8 @@
         <v>61225</v>
       </c>
     </row>
-    <row r="28" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
       <c r="E28" s="47" t="s">
         <v>180</v>
       </c>
@@ -3210,7 +3302,8 @@
         <v>97750</v>
       </c>
     </row>
-    <row r="29" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
       <c r="E29" s="47" t="s">
         <v>181</v>
       </c>
@@ -3218,7 +3311,8 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="30" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
       <c r="E30" s="47" t="s">
         <v>182</v>
       </c>
@@ -3226,7 +3320,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="31" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="47" t="s">
         <v>183</v>
       </c>
@@ -3237,7 +3331,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="47" t="s">
         <v>184</v>
       </c>
@@ -3330,7 +3424,6 @@
         <v>197</v>
       </c>
       <c r="F41" s="11">
-        <f>99000+12000</f>
         <v>111000</v>
       </c>
     </row>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="208">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -795,10 +795,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>중국집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>베개솜 포함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -811,43 +807,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>상품권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토퍼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접이식 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>협탁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상품권</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토퍼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>접이식 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트롤리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>협탁</t>
+    <t>테이블 배송비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,9 +1115,6 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1137,6 +1138,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1421,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N20" sqref="N20:N21"/>
     </sheetView>
   </sheetViews>
@@ -2891,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J42"/>
+  <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2902,10 +2909,10 @@
     <col min="1" max="1" width="10.875" style="38"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.875" style="38"/>
-    <col min="5" max="5" width="10.875" style="47"/>
+    <col min="5" max="5" width="10.875" style="46"/>
     <col min="6" max="6" width="10.875" style="12"/>
     <col min="7" max="8" width="10.875" style="38"/>
-    <col min="9" max="9" width="10.875" style="47"/>
+    <col min="9" max="9" width="10.875" style="46"/>
     <col min="10" max="10" width="10.875" style="12"/>
     <col min="11" max="16384" width="10.875" style="38"/>
   </cols>
@@ -2917,6 +2924,12 @@
       <c r="B2" s="12">
         <v>87000000</v>
       </c>
+      <c r="I2" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="12">
+        <v>17460</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -2925,35 +2938,46 @@
       <c r="B3" s="12">
         <v>240000</v>
       </c>
+      <c r="I3" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="12">
+        <v>160000</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>151</v>
       </c>
       <c r="F4" s="12">
         <v>10000000</v>
       </c>
       <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="38"/>
+      <c r="I4" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="12">
+        <v>99000</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>9000000</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>154</v>
       </c>
       <c r="F5" s="12">
         <v>1500000</v>
       </c>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -2963,7 +2987,7 @@
         <f>B2*50%</f>
         <v>43500000</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>155</v>
       </c>
       <c r="F6" s="12">
@@ -2977,7 +3001,7 @@
       <c r="B7" s="24">
         <v>33300000</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="12">
@@ -2994,8 +3018,8 @@
       <c r="C8" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>198</v>
+      <c r="E8" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="F8" s="12">
         <f>70000</f>
@@ -3034,17 +3058,17 @@
       <c r="C10" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="45">
-        <f>SUM(F4:F7)+(F8*95%)-SUM(F11:F155)</f>
-        <v>116045</v>
-      </c>
-      <c r="I10" s="44" t="s">
+      <c r="F10" s="44">
+        <f>SUM(F4:F7)+(F8*95%)-SUM(F11:F155)+25</f>
+        <v>392530</v>
+      </c>
+      <c r="I10" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="45">
         <f>SUM(J11:J48)</f>
         <v>488600</v>
       </c>
@@ -3059,7 +3083,10 @@
       <c r="C11" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="D11" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>162</v>
       </c>
       <c r="F11" s="12">
@@ -3069,8 +3096,8 @@
       <c r="G11" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>199</v>
+      <c r="I11" s="46" t="s">
+        <v>197</v>
       </c>
       <c r="J11" s="11">
         <v>41900</v>
@@ -3086,7 +3113,10 @@
       <c r="C12" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>164</v>
       </c>
       <c r="F12" s="12">
@@ -3095,8 +3125,8 @@
       <c r="G12" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>200</v>
+      <c r="I12" s="46" t="s">
+        <v>198</v>
       </c>
       <c r="J12" s="12">
         <v>99900</v>
@@ -3112,14 +3142,17 @@
       <c r="C13" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="D13" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>166</v>
       </c>
       <c r="F13" s="12">
         <v>80000</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>201</v>
+      <c r="I13" s="46" t="s">
+        <v>199</v>
       </c>
       <c r="J13" s="12">
         <v>17900</v>
@@ -3133,19 +3166,25 @@
         <f>B3+B8+B12+B13+B11</f>
         <v>490870</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="D14" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>167</v>
       </c>
       <c r="F14" s="12">
         <v>50000</v>
       </c>
-      <c r="I14" s="47" t="s">
-        <v>202</v>
+      <c r="I14" s="46" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
-      <c r="E15" s="47" t="s">
+      <c r="D15" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="12">
@@ -3154,8 +3193,8 @@
       <c r="G15" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>203</v>
+      <c r="I15" s="46" t="s">
+        <v>201</v>
       </c>
       <c r="J15" s="12">
         <v>129000</v>
@@ -3169,53 +3208,64 @@
         <f>(B5+B9+B10+F5)-B5</f>
         <v>11700000</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="D16" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="12">
-        <f>20940+43680</f>
         <v>64620</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="I16" s="47" t="s">
-        <v>204</v>
+      <c r="I16" s="46" t="s">
+        <v>202</v>
       </c>
       <c r="J16" s="12">
         <v>37900</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="47" t="s">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="12">
         <v>244000</v>
       </c>
-      <c r="I17" s="47" t="s">
-        <v>205</v>
+      <c r="I17" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="J17" s="12">
         <f>142000+20000</f>
         <v>162000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="47" t="s">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>171</v>
       </c>
       <c r="F18" s="12">
         <v>180000</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="47" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="E19" s="47" t="s">
+      <c r="D19" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="46" t="s">
         <v>172</v>
       </c>
       <c r="F19" s="12">
@@ -3223,104 +3273,150 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="E20" s="47" t="s">
+      <c r="D20" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="12">
         <v>70000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="47" t="s">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="46" t="s">
         <v>173</v>
       </c>
       <c r="F21" s="12">
-        <f>8560+6280</f>
         <v>14840</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="47" t="s">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F22" s="12">
         <v>9510</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="E23" s="47" t="s">
+      <c r="D23" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="46" t="s">
         <v>175</v>
       </c>
       <c r="F23" s="12">
         <v>434700</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="E24" s="47" t="s">
+      <c r="D24" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="46" t="s">
         <v>176</v>
       </c>
       <c r="F24" s="12">
         <v>212900</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="47" t="s">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="46" t="s">
         <v>177</v>
       </c>
       <c r="F25" s="12">
         <v>358900</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="E26" s="47" t="s">
+      <c r="D26" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="46" t="s">
         <v>178</v>
       </c>
       <c r="F26" s="12">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
+      <c r="D27" s="49" t="s">
+        <v>205</v>
+      </c>
       <c r="E27" s="47" t="s">
         <v>179</v>
       </c>
       <c r="F27" s="12">
         <v>61225</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
+      <c r="D28" s="49" t="s">
+        <v>205</v>
+      </c>
       <c r="E28" s="47" t="s">
         <v>180</v>
       </c>
       <c r="F28" s="12">
         <v>97750</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
+      <c r="D29" s="49" t="s">
+        <v>205</v>
+      </c>
       <c r="E29" s="47" t="s">
         <v>181</v>
       </c>
       <c r="F29" s="12">
         <v>18700</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
+      <c r="D30" s="49" t="s">
+        <v>205</v>
+      </c>
       <c r="E30" s="47" t="s">
         <v>182</v>
       </c>
       <c r="F30" s="12">
         <v>18700</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="49" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="47" t="s">
         <v>183</v>
       </c>
@@ -3328,111 +3424,128 @@
         <v>36550</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="49" t="s">
+        <v>205</v>
+      </c>
       <c r="E32" s="47" t="s">
         <v>184</v>
       </c>
       <c r="F32" s="12">
         <v>22000</v>
       </c>
-    </row>
-    <row r="33" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+    </row>
+    <row r="33" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="49" t="s">
+        <v>205</v>
+      </c>
       <c r="E33" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F33" s="12">
         <v>42250</v>
       </c>
-    </row>
-    <row r="34" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="47" t="s">
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+    </row>
+    <row r="34" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="46" t="s">
         <v>186</v>
       </c>
       <c r="F34" s="12">
         <v>70000</v>
       </c>
-    </row>
-    <row r="35" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="47" t="s">
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+    </row>
+    <row r="35" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="46" t="s">
         <v>187</v>
       </c>
       <c r="F35" s="12">
         <v>13000</v>
       </c>
-    </row>
-    <row r="36" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="47" t="s">
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="46" t="s">
         <v>188</v>
       </c>
       <c r="F36" s="12">
-        <f>4400-880</f>
         <v>3520</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="37" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="47" t="s">
+      <c r="L36" s="47"/>
+    </row>
+    <row r="37" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="46" t="s">
         <v>188</v>
       </c>
       <c r="F37" s="12">
-        <f>4700-940</f>
         <v>3760</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="38" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="47" t="s">
+      <c r="L37" s="47"/>
+    </row>
+    <row r="38" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="46" t="s">
         <v>188</v>
       </c>
       <c r="F38" s="12">
-        <f>3800-760</f>
         <v>3040</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" s="47"/>
+    </row>
+    <row r="39" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="46" t="s">
         <v>191</v>
       </c>
       <c r="F39" s="12">
         <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="12">
-        <f>18000-540</f>
-        <v>17460</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="11">
-        <v>111000</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="12">
-        <v>160000</v>
+    <row r="40" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="F40" s="11">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1140,10 +1140,10 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2900,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3022,8 +3022,8 @@
         <v>196</v>
       </c>
       <c r="F8" s="12">
-        <f>70000</f>
-        <v>70000</v>
+        <f>70000*95%</f>
+        <v>66500</v>
       </c>
       <c r="G8" s="39"/>
     </row>
@@ -3038,14 +3038,14 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="I9" s="48" t="s">
+      <c r="F9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -3062,8 +3062,8 @@
         <v>159</v>
       </c>
       <c r="F10" s="44">
-        <f>SUM(F4:F7)+(F8*95%)-SUM(F11:F155)+25</f>
-        <v>392530</v>
+        <f>SUM(F4:F7)-SUM(F11:F155)+25</f>
+        <v>326030</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
@@ -3083,7 +3083,7 @@
       <c r="C11" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E11" s="46" t="s">
@@ -3113,7 +3113,7 @@
       <c r="C12" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E12" s="46" t="s">
@@ -3142,7 +3142,7 @@
       <c r="C13" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E13" s="46" t="s">
@@ -3166,7 +3166,7 @@
         <f>B3+B8+B12+B13+B11</f>
         <v>490870</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E14" s="46" t="s">
@@ -3181,7 +3181,7 @@
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E15" s="46" t="s">
@@ -3208,7 +3208,7 @@
         <f>(B5+B9+B10+F5)-B5</f>
         <v>11700000</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E16" s="46" t="s">
@@ -3228,7 +3228,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E17" s="46" t="s">
@@ -3246,7 +3246,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E18" s="46" t="s">
@@ -3262,7 +3262,7 @@
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E19" s="46" t="s">
@@ -3275,7 +3275,7 @@
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E20" s="46" t="s">
@@ -3286,7 +3286,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E21" s="46" t="s">
@@ -3297,7 +3297,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E22" s="46" t="s">
@@ -3309,7 +3309,7 @@
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E23" s="46" t="s">
@@ -3321,7 +3321,7 @@
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E24" s="46" t="s">
@@ -3332,7 +3332,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E25" s="46" t="s">
@@ -3344,7 +3344,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E26" s="46" t="s">
@@ -3356,7 +3356,7 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E27" s="47" t="s">
@@ -3371,7 +3371,7 @@
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E28" s="47" t="s">
@@ -3386,7 +3386,7 @@
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E29" s="47" t="s">
@@ -3401,7 +3401,7 @@
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E30" s="47" t="s">
@@ -3414,7 +3414,7 @@
       <c r="M30" s="47"/>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E31" s="47" t="s">
@@ -3430,7 +3430,7 @@
       <c r="M31" s="47"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E32" s="47" t="s">
@@ -3443,7 +3443,7 @@
       <c r="M32" s="47"/>
     </row>
     <row r="33" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E33" s="47" t="s">
@@ -3456,7 +3456,7 @@
       <c r="M33" s="47"/>
     </row>
     <row r="34" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E34" s="46" t="s">
@@ -3469,7 +3469,7 @@
       <c r="M34" s="47"/>
     </row>
     <row r="35" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E35" s="46" t="s">
@@ -3482,7 +3482,7 @@
       <c r="M35" s="47"/>
     </row>
     <row r="36" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E36" s="46" t="s">
@@ -3497,7 +3497,7 @@
       <c r="L36" s="47"/>
     </row>
     <row r="37" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E37" s="46" t="s">
@@ -3512,7 +3512,7 @@
       <c r="L37" s="47"/>
     </row>
     <row r="38" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E38" s="46" t="s">
@@ -3527,7 +3527,7 @@
       <c r="L38" s="47"/>
     </row>
     <row r="39" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E39" s="46" t="s">
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="40" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E40" s="46" t="s">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B897A0C2-7DD0-CD46-A915-F45AB879492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="211">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -852,18 +853,30 @@
   </si>
   <si>
     <t>테이블 배송비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무인양품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리빙박스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨크로천</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,11 +1003,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,121 +1017,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1127,17 +1140,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -1425,37 +1432,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N20" sqref="N20:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="11"/>
-    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="11"/>
+    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="11"/>
-    <col min="16" max="16384" width="8.625" style="3"/>
+    <col min="15" max="15" width="8.6640625" style="11"/>
+    <col min="16" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1469,12 +1476,12 @@
       <c r="N1" s="2"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1497,7 +1504,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
         <v>121</v>
       </c>
@@ -1505,7 +1512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1537,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1555,7 +1562,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1584,7 +1591,7 @@
       </c>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1647,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1666,7 +1673,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1697,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1721,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1740,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1750,11 +1757,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1764,7 +1771,7 @@
       <c r="L18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1837,7 +1844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1875,7 +1882,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1893,7 +1900,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1909,7 +1916,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1926,7 +1933,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1962,7 +1969,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -2002,7 +2009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1">
       <c r="E28" s="11" t="s">
         <v>101</v>
       </c>
@@ -2011,7 +2018,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -2045,7 +2052,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -2080,7 +2087,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -2114,7 +2121,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -2148,7 +2155,7 @@
       </c>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:18" ht="18.75" customHeight="1">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -2181,7 +2188,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:18" ht="18.75" customHeight="1">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -2214,7 +2221,7 @@
       </c>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:18" ht="18.75" customHeight="1">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -2248,7 +2255,7 @@
       </c>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:18" ht="18.75" customHeight="1">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -2281,7 +2288,7 @@
       </c>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:18" ht="18.75" customHeight="1">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -2299,7 +2306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:18" ht="18.75" customHeight="1">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -2311,7 +2318,7 @@
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:18" ht="18.75" customHeight="1">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2323,7 +2330,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:18" ht="18.75" customHeight="1">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2335,7 +2342,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:18" ht="18.75" customHeight="1">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2347,7 +2354,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:18" ht="18.75" customHeight="1">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2360,7 +2367,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:18" ht="18.75" customHeight="1">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
@@ -2369,7 +2376,7 @@
       <c r="G43" s="4"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:18" ht="18.75" customHeight="1">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2402,7 +2409,7 @@
       </c>
       <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:18" ht="18.75" customHeight="1">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2420,7 +2427,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:18" ht="18.75" customHeight="1">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2462,7 +2469,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:18" ht="18.75" customHeight="1">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2473,7 +2480,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:18" ht="18.75" customHeight="1">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2493,7 +2500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="18.75" customHeight="1">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2512,7 +2519,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="18.75" customHeight="1">
       <c r="E50" s="26" t="s">
         <v>118</v>
       </c>
@@ -2525,7 +2532,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="18.75" customHeight="1">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
@@ -2533,14 +2540,14 @@
       <c r="J51" s="4"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="18.75" customHeight="1">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2549,7 +2556,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="18.75" customHeight="1">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2558,7 +2565,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="18.75" customHeight="1">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2567,14 +2574,14 @@
       <c r="J55" s="4"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2588,7 +2595,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="18.75" customHeight="1">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2621,13 +2628,13 @@
       </c>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="18.75" customHeight="1">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12">
         <f>170000-90000</f>
@@ -2642,7 +2649,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="18.75" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>49</v>
       </c>
@@ -2668,7 +2675,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -2694,7 +2701,7 @@
       <c r="L63" s="11"/>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>50</v>
       </c>
@@ -2724,7 +2731,7 @@
       <c r="L64" s="12"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>44</v>
       </c>
@@ -2741,7 +2748,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2778,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A67" s="11" t="s">
         <v>48</v>
       </c>
@@ -2788,7 +2795,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A68" s="11"/>
       <c r="B68" s="14">
         <f>SUM(B64:B67)</f>
@@ -2816,7 +2823,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -2834,7 +2841,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2842,7 +2849,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>47</v>
       </c>
@@ -2868,25 +2875,25 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1">
       <c r="G78" s="4"/>
     </row>
   </sheetData>
@@ -2897,71 +2904,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="38"/>
+    <col min="1" max="1" width="10.83203125" style="38"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="38"/>
-    <col min="5" max="5" width="10.875" style="46"/>
-    <col min="6" max="6" width="10.875" style="12"/>
-    <col min="7" max="8" width="10.875" style="38"/>
-    <col min="9" max="9" width="10.875" style="46"/>
-    <col min="10" max="10" width="10.875" style="12"/>
-    <col min="11" max="16384" width="10.875" style="38"/>
+    <col min="3" max="4" width="10.83203125" style="38"/>
+    <col min="5" max="5" width="10.83203125" style="35"/>
+    <col min="6" max="6" width="10.83203125" style="12"/>
+    <col min="7" max="8" width="10.83203125" style="38"/>
+    <col min="9" max="9" width="10.83203125" style="35"/>
+    <col min="10" max="10" width="10.83203125" style="12"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12">
         <v>87000000</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="35" t="s">
         <v>192</v>
       </c>
       <c r="J2" s="12">
         <v>17460</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="20" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12">
         <v>240000</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="35" t="s">
         <v>195</v>
       </c>
       <c r="J3" s="12">
         <v>160000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="20" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="35" t="s">
         <v>151</v>
       </c>
       <c r="F4" s="12">
         <v>10000000</v>
       </c>
       <c r="H4" s="39"/>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="35" t="s">
         <v>206</v>
       </c>
       <c r="J4" s="12">
         <v>99000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="20" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>152</v>
       </c>
@@ -2971,7 +2978,7 @@
       <c r="C5" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="35" t="s">
         <v>154</v>
       </c>
       <c r="F5" s="12">
@@ -2979,7 +2986,7 @@
       </c>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="20" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -2987,28 +2994,28 @@
         <f>B2*50%</f>
         <v>43500000</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="35" t="s">
         <v>155</v>
       </c>
       <c r="F6" s="12">
         <v>76000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="20" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="24">
         <v>33300000</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="35" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="12">
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="20" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -3018,16 +3025,18 @@
       <c r="C8" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="35" t="s">
         <v>196</v>
       </c>
       <c r="F8" s="12">
-        <f>70000*95%</f>
-        <v>66500</v>
-      </c>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <f>47740</f>
+        <v>47740</v>
+      </c>
+      <c r="G8" s="39">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -3038,16 +3047,16 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="I9" s="49" t="s">
+      <c r="F9" s="47"/>
+      <c r="I9" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -3062,18 +3071,18 @@
         <v>159</v>
       </c>
       <c r="F10" s="44">
-        <f>SUM(F4:F7)-SUM(F11:F155)+25</f>
-        <v>326030</v>
+        <f>SUM(F4:F8)-SUM(F11:F155)+25</f>
+        <v>90170</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
       </c>
       <c r="J10" s="45">
         <f>SUM(J11:J48)</f>
-        <v>488600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>522930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3083,10 +3092,10 @@
       <c r="C11" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="35" t="s">
         <v>162</v>
       </c>
       <c r="F11" s="12">
@@ -3096,14 +3105,14 @@
       <c r="G11" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="35" t="s">
         <v>197</v>
       </c>
       <c r="J11" s="11">
         <v>41900</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -3113,10 +3122,10 @@
       <c r="C12" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="35" t="s">
         <v>164</v>
       </c>
       <c r="F12" s="12">
@@ -3125,14 +3134,14 @@
       <c r="G12" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="35" t="s">
         <v>198</v>
       </c>
       <c r="J12" s="12">
         <v>99900</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="20" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -3142,23 +3151,23 @@
       <c r="C13" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="35" t="s">
         <v>166</v>
       </c>
       <c r="F13" s="12">
         <v>80000</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="35" t="s">
         <v>199</v>
       </c>
       <c r="J13" s="12">
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="20" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
@@ -3166,25 +3175,25 @@
         <f>B3+B8+B12+B13+B11</f>
         <v>490870</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="35" t="s">
         <v>167</v>
       </c>
       <c r="F14" s="12">
         <v>50000</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="35" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="20" customHeight="1">
       <c r="B15" s="38"/>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="12">
@@ -3193,14 +3202,14 @@
       <c r="G15" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="35" t="s">
         <v>201</v>
       </c>
       <c r="J15" s="12">
         <v>129000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="20" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>168</v>
       </c>
@@ -3208,10 +3217,10 @@
         <f>(B5+B9+B10+F5)-B5</f>
         <v>11700000</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="12">
@@ -3220,24 +3229,25 @@
       <c r="G16" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="35" t="s">
         <v>202</v>
       </c>
       <c r="J16" s="12">
         <v>37900</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="48" t="s">
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="20" customHeight="1">
+      <c r="D17" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="35" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="12">
         <v>244000</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="35" t="s">
         <v>203</v>
       </c>
       <c r="J17" s="12">
@@ -3245,179 +3255,188 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="48" t="s">
+    <row r="18" spans="1:14" ht="20" customHeight="1">
+      <c r="D18" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="35" t="s">
         <v>171</v>
       </c>
       <c r="F18" s="12">
         <v>180000</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="20" customHeight="1">
       <c r="A19" s="11"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="35" t="s">
         <v>172</v>
       </c>
       <c r="F19" s="12">
         <f>60000+110000</f>
         <v>170000</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="12">
+        <v>34330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="35" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="12">
         <v>70000</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="48" t="s">
+      <c r="I20" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="20" customHeight="1">
+      <c r="D21" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="35" t="s">
         <v>173</v>
       </c>
       <c r="F21" s="12">
         <v>14840</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="48" t="s">
+    <row r="22" spans="1:14" ht="20" customHeight="1">
+      <c r="D22" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="35" t="s">
         <v>174</v>
       </c>
       <c r="F22" s="12">
         <v>9510</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="20" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="35" t="s">
         <v>175</v>
       </c>
       <c r="F23" s="12">
         <v>434700</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="20" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="35" t="s">
         <v>176</v>
       </c>
       <c r="F24" s="12">
         <v>212900</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="48" t="s">
+    <row r="25" spans="1:14" ht="20" customHeight="1">
+      <c r="D25" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="35" t="s">
         <v>177</v>
       </c>
       <c r="F25" s="12">
         <v>358900</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="20" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="35" t="s">
         <v>178</v>
       </c>
       <c r="F26" s="12">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="20" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="35" t="s">
         <v>179</v>
       </c>
       <c r="F27" s="12">
         <v>61225</v>
       </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="35" t="s">
         <v>180</v>
       </c>
       <c r="F28" s="12">
         <v>97750</v>
       </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="20" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="35" t="s">
         <v>181</v>
       </c>
       <c r="F29" s="12">
         <v>18700</v>
       </c>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="20" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="35" t="s">
         <v>182</v>
       </c>
       <c r="F30" s="12">
         <v>18700</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-    </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="48" t="s">
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="31" spans="1:14" ht="20" customHeight="1">
+      <c r="D31" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="35" t="s">
         <v>183</v>
       </c>
       <c r="F31" s="12">
@@ -3426,66 +3445,66 @@
       <c r="G31" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-    </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="48" t="s">
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:14" ht="20" customHeight="1">
+      <c r="D32" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="35" t="s">
         <v>184</v>
       </c>
       <c r="F32" s="12">
         <v>22000</v>
       </c>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-    </row>
-    <row r="33" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="48" t="s">
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="4:13" ht="20" customHeight="1">
+      <c r="D33" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="35" t="s">
         <v>185</v>
       </c>
       <c r="F33" s="12">
         <v>42250</v>
       </c>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-    </row>
-    <row r="34" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="48" t="s">
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="4:13" ht="20" customHeight="1">
+      <c r="D34" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="35" t="s">
         <v>186</v>
       </c>
       <c r="F34" s="12">
         <v>70000</v>
       </c>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-    </row>
-    <row r="35" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="48" t="s">
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="4:13" ht="20" customHeight="1">
+      <c r="D35" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="35" t="s">
         <v>187</v>
       </c>
       <c r="F35" s="12">
         <v>13000</v>
       </c>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="48" t="s">
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+    </row>
+    <row r="36" spans="4:13" ht="20" customHeight="1">
+      <c r="D36" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="35" t="s">
         <v>188</v>
       </c>
       <c r="F36" s="12">
@@ -3494,13 +3513,13 @@
       <c r="G36" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="L36" s="47"/>
-    </row>
-    <row r="37" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="48" t="s">
+      <c r="L36" s="35"/>
+    </row>
+    <row r="37" spans="4:13" ht="20" customHeight="1">
+      <c r="D37" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="35" t="s">
         <v>188</v>
       </c>
       <c r="F37" s="12">
@@ -3509,13 +3528,13 @@
       <c r="G37" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="L37" s="47"/>
-    </row>
-    <row r="38" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="48" t="s">
+      <c r="L37" s="35"/>
+    </row>
+    <row r="38" spans="4:13" ht="20" customHeight="1">
+      <c r="D38" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="35" t="s">
         <v>188</v>
       </c>
       <c r="F38" s="12">
@@ -3524,28 +3543,52 @@
       <c r="G38" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="L38" s="47"/>
-    </row>
-    <row r="39" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="48" t="s">
+      <c r="L38" s="35"/>
+    </row>
+    <row r="39" spans="4:13" ht="20" customHeight="1">
+      <c r="D39" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="35" t="s">
         <v>191</v>
       </c>
       <c r="F39" s="12">
         <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="48" t="s">
+    <row r="40" spans="4:13" ht="20" customHeight="1">
+      <c r="D40" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="35" t="s">
         <v>207</v>
       </c>
       <c r="F40" s="11">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" ht="20" customHeight="1">
+      <c r="E41" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="12">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" ht="20" customHeight="1">
+      <c r="E42" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="12">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" ht="20" customHeight="1">
+      <c r="E43" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="12">
+        <v>24600</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B897A0C2-7DD0-CD46-A915-F45AB879492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -871,12 +870,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m\/d"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,121 +1016,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1140,10 +1139,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1432,34 +1431,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N20" sqref="N20:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="11"/>
-    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="11"/>
+    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="11"/>
-    <col min="16" max="16384" width="8.6640625" style="3"/>
+    <col min="15" max="15" width="8.625" style="11"/>
+    <col min="16" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44936</v>
@@ -1476,12 +1475,12 @@
       <c r="N1" s="2"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>121</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1536,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1561,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1590,7 @@
       </c>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1646,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1672,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1696,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1720,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +1739,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1757,11 +1756,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1771,7 +1770,7 @@
       <c r="L18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1844,7 +1843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1882,7 +1881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1916,7 +1915,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1933,7 +1932,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1969,7 +1968,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
         <v>101</v>
       </c>
@@ -2018,7 +2017,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -2052,7 +2051,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -2087,7 +2086,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -2121,7 +2120,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -2155,7 +2154,7 @@
       </c>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="3:18" ht="18.75" customHeight="1">
+    <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -2188,7 +2187,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="3:18" ht="18.75" customHeight="1">
+    <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -2221,7 +2220,7 @@
       </c>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="3:18" ht="18.75" customHeight="1">
+    <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -2255,7 +2254,7 @@
       </c>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="3:18" ht="18.75" customHeight="1">
+    <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -2288,7 +2287,7 @@
       </c>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="3:18" ht="18.75" customHeight="1">
+    <row r="37" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="3:18" ht="18.75" customHeight="1">
+    <row r="38" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -2318,7 +2317,7 @@
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="3:18" ht="18.75" customHeight="1">
+    <row r="39" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2330,7 +2329,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="3:18" ht="18.75" customHeight="1">
+    <row r="40" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2342,7 +2341,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="3:18" ht="18.75" customHeight="1">
+    <row r="41" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2354,7 +2353,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="3:18" ht="18.75" customHeight="1">
+    <row r="42" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2367,7 +2366,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="3:18" ht="18.75" customHeight="1">
+    <row r="43" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
@@ -2376,7 +2375,7 @@
       <c r="G43" s="4"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="3:18" ht="18.75" customHeight="1">
+    <row r="44" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2409,7 +2408,7 @@
       </c>
       <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="3:18" ht="18.75" customHeight="1">
+    <row r="45" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2427,7 +2426,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="3:18" ht="18.75" customHeight="1">
+    <row r="46" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2469,7 +2468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="3:18" ht="18.75" customHeight="1">
+    <row r="47" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2480,7 +2479,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="3:18" ht="18.75" customHeight="1">
+    <row r="48" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2500,7 +2499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1">
+    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1">
+    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="26" t="s">
         <v>118</v>
       </c>
@@ -2532,7 +2531,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1">
+    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
@@ -2540,14 +2539,14 @@
       <c r="J51" s="4"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1">
+    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2556,7 +2555,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1">
+    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2565,7 +2564,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1">
+    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2574,14 +2573,14 @@
       <c r="J55" s="4"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2595,7 +2594,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1">
+    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2628,13 +2627,13 @@
       </c>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1">
+    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="12">
         <f>170000-90000</f>
@@ -2649,7 +2648,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1">
+    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>49</v>
       </c>
@@ -2675,7 +2674,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -2701,7 +2700,7 @@
       <c r="L63" s="11"/>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>50</v>
       </c>
@@ -2731,7 +2730,7 @@
       <c r="L64" s="12"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>44</v>
       </c>
@@ -2748,7 +2747,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>42</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>48</v>
       </c>
@@ -2795,7 +2794,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="14">
         <f>SUM(B64:B67)</f>
@@ -2823,7 +2822,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -2841,7 +2840,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2849,7 +2848,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>47</v>
       </c>
@@ -2875,25 +2874,25 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="4"/>
     </row>
   </sheetData>
@@ -2904,27 +2903,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:N43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="38"/>
+    <col min="1" max="1" width="10.875" style="38"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="38"/>
-    <col min="5" max="5" width="10.83203125" style="35"/>
-    <col min="6" max="6" width="10.83203125" style="12"/>
-    <col min="7" max="8" width="10.83203125" style="38"/>
-    <col min="9" max="9" width="10.83203125" style="35"/>
-    <col min="10" max="10" width="10.83203125" style="12"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="3" max="4" width="10.875" style="38"/>
+    <col min="5" max="5" width="10.875" style="35"/>
+    <col min="6" max="6" width="10.875" style="12"/>
+    <col min="7" max="8" width="10.875" style="38"/>
+    <col min="9" max="9" width="10.875" style="35"/>
+    <col min="10" max="10" width="10.875" style="12"/>
+    <col min="11" max="16384" width="10.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20" customHeight="1">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>17460</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="E4" s="35" t="s">
         <v>151</v>
@@ -2968,7 +2967,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>152</v>
       </c>
@@ -2986,7 +2985,7 @@
       </c>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -3033,10 +3032,10 @@
         <v>47740</v>
       </c>
       <c r="G8" s="39">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -3056,7 +3055,7 @@
       </c>
       <c r="J9" s="47"/>
     </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -3072,17 +3071,17 @@
       </c>
       <c r="F10" s="44">
         <f>SUM(F4:F8)-SUM(F11:F155)+25</f>
-        <v>90170</v>
+        <v>55840</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
       </c>
       <c r="J10" s="45">
         <f>SUM(J11:J48)</f>
-        <v>522930</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1">
+        <v>488600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>99900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20" customHeight="1">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20" customHeight="1">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="D15" s="46" t="s">
         <v>205</v>
@@ -3209,7 +3208,7 @@
         <v>129000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20" customHeight="1">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>168</v>
       </c>
@@ -3237,7 +3236,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="46" t="s">
         <v>205</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="46" t="s">
         <v>205</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="46" t="s">
         <v>205</v>
@@ -3283,13 +3282,10 @@
         <v>170000</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="J19" s="12">
-        <v>34330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="46" t="s">
         <v>205</v>
@@ -3300,11 +3296,8 @@
       <c r="F20" s="12">
         <v>70000</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1">
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="46" t="s">
         <v>205</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="46" t="s">
         <v>205</v>
       </c>
@@ -3326,7 +3319,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="46" t="s">
         <v>205</v>
@@ -3338,7 +3331,7 @@
         <v>434700</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="46" t="s">
         <v>205</v>
@@ -3350,7 +3343,7 @@
         <v>212900</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="46" t="s">
         <v>205</v>
       </c>
@@ -3361,7 +3354,7 @@
         <v>358900</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="46" t="s">
         <v>205</v>
@@ -3373,7 +3366,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="46" t="s">
         <v>205</v>
@@ -3388,7 +3381,7 @@
       <c r="M27" s="35"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="46" t="s">
         <v>205</v>
@@ -3403,7 +3396,7 @@
       <c r="M28" s="35"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1">
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="46" t="s">
         <v>205</v>
@@ -3418,7 +3411,7 @@
       <c r="M29" s="35"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="46" t="s">
         <v>205</v>
@@ -3432,7 +3425,7 @@
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
     </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="46" t="s">
         <v>205</v>
       </c>
@@ -3448,7 +3441,7 @@
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
     </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="46" t="s">
         <v>205</v>
       </c>
@@ -3461,7 +3454,7 @@
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
     </row>
-    <row r="33" spans="4:13" ht="20" customHeight="1">
+    <row r="33" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="46" t="s">
         <v>205</v>
       </c>
@@ -3474,7 +3467,7 @@
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
     </row>
-    <row r="34" spans="4:13" ht="20" customHeight="1">
+    <row r="34" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="46" t="s">
         <v>205</v>
       </c>
@@ -3487,7 +3480,7 @@
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
     </row>
-    <row r="35" spans="4:13" ht="20" customHeight="1">
+    <row r="35" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="46" t="s">
         <v>205</v>
       </c>
@@ -3500,7 +3493,7 @@
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
     </row>
-    <row r="36" spans="4:13" ht="20" customHeight="1">
+    <row r="36" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="46" t="s">
         <v>205</v>
       </c>
@@ -3515,7 +3508,7 @@
       </c>
       <c r="L36" s="35"/>
     </row>
-    <row r="37" spans="4:13" ht="20" customHeight="1">
+    <row r="37" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="46" t="s">
         <v>205</v>
       </c>
@@ -3530,7 +3523,7 @@
       </c>
       <c r="L37" s="35"/>
     </row>
-    <row r="38" spans="4:13" ht="20" customHeight="1">
+    <row r="38" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="46" t="s">
         <v>205</v>
       </c>
@@ -3545,7 +3538,7 @@
       </c>
       <c r="L38" s="35"/>
     </row>
-    <row r="39" spans="4:13" ht="20" customHeight="1">
+    <row r="39" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="46" t="s">
         <v>205</v>
       </c>
@@ -3556,7 +3549,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="4:13" ht="20" customHeight="1">
+    <row r="40" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="46" t="s">
         <v>205</v>
       </c>
@@ -3567,7 +3560,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="41" spans="4:13" ht="20" customHeight="1">
+    <row r="41" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="35" t="s">
         <v>26</v>
       </c>
@@ -3575,7 +3568,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="42" spans="4:13" ht="20" customHeight="1">
+    <row r="42" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E42" s="35" t="s">
         <v>195</v>
       </c>
@@ -3583,12 +3576,28 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="20" customHeight="1">
+    <row r="43" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E43" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F43" s="12">
         <v>24600</v>
+      </c>
+      <c r="G43" s="12">
+        <f>1500+5900+3500</f>
+        <v>10900</v>
+      </c>
+      <c r="H43" s="39"/>
+    </row>
+    <row r="44" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="12">
+        <v>34330</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1461,7 +1461,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -2906,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3028,12 +3028,10 @@
         <v>196</v>
       </c>
       <c r="F8" s="12">
-        <f>47740</f>
-        <v>47740</v>
-      </c>
-      <c r="G8" s="39">
-        <v>18500</v>
-      </c>
+        <f>47740+18500</f>
+        <v>66240</v>
+      </c>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -3071,7 +3069,7 @@
       </c>
       <c r="F10" s="44">
         <f>SUM(F4:F8)-SUM(F11:F155)+25</f>
-        <v>55840</v>
+        <v>74940</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
@@ -3581,12 +3579,9 @@
         <v>208</v>
       </c>
       <c r="F43" s="12">
-        <v>24600</v>
-      </c>
-      <c r="G43" s="12">
-        <f>1500+5900+3500</f>
-        <v>10900</v>
-      </c>
+        <v>24000</v>
+      </c>
+      <c r="G43" s="12"/>
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="211">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -847,10 +847,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블 배송비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -864,6 +860,10 @@
   </si>
   <si>
     <t>벨크로천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국집</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,6 +1147,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2904,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N44"/>
+  <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2930,12 +2933,6 @@
       <c r="B2" s="12">
         <v>87000000</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="12">
-        <v>17460</v>
-      </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -2943,12 +2940,6 @@
       </c>
       <c r="B3" s="12">
         <v>240000</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="J3" s="12">
-        <v>160000</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2960,12 +2951,6 @@
         <v>10000000</v>
       </c>
       <c r="H4" s="39"/>
-      <c r="I4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" s="12">
-        <v>99000</v>
-      </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
@@ -3044,14 +3029,14 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="I9" s="47" t="s">
+      <c r="F9" s="48"/>
+      <c r="I9" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -3069,7 +3054,7 @@
       </c>
       <c r="F10" s="44">
         <f>SUM(F4:F8)-SUM(F11:F155)+25</f>
-        <v>74940</v>
+        <v>57480</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
@@ -3280,7 +3265,7 @@
         <v>170000</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3552,7 +3537,7 @@
         <v>205</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F40" s="11">
         <v>12000</v>
@@ -3576,7 +3561,7 @@
     </row>
     <row r="43" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E43" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F43" s="12">
         <v>24000</v>
@@ -3589,10 +3574,21 @@
         <v>205</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F44" s="12">
         <v>34330</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="12">
+        <v>17460</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A23CF-10CF-BD46-B07E-FDC350110D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="218">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -843,10 +844,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>결제완</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블 배송비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -859,23 +856,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>벨크로천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>중국집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민 결제완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>냄비받침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가리개 천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도마 거치대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한샘 도어후크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금 결제완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m\/d"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,11 +1031,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,121 +1045,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1139,17 +1168,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1434,37 +1457,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N20" sqref="N20:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="11"/>
-    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="11"/>
+    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="11"/>
-    <col min="16" max="16384" width="8.625" style="3"/>
+    <col min="15" max="15" width="8.6640625" style="11"/>
+    <col min="16" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -1478,12 +1501,12 @@
       <c r="N1" s="2"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1521,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1506,7 +1529,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="C6" s="2" t="s">
         <v>121</v>
       </c>
@@ -1514,7 +1537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1539,7 +1562,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1587,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1593,7 +1616,7 @@
       </c>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1645,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1672,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1698,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1722,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1746,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1765,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1759,11 +1782,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1773,7 +1796,7 @@
       <c r="L18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1806,7 +1829,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1846,7 +1869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1884,7 +1907,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1902,7 +1925,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1918,7 +1941,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1935,7 +1958,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1971,7 +1994,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
@@ -1993,7 +2016,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -2011,7 +2034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1">
       <c r="E28" s="11" t="s">
         <v>101</v>
       </c>
@@ -2020,7 +2043,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -2054,7 +2077,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -2089,7 +2112,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -2123,7 +2146,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -2157,7 +2180,7 @@
       </c>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:18" ht="18.75" customHeight="1">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -2190,7 +2213,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:18" ht="18.75" customHeight="1">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -2223,7 +2246,7 @@
       </c>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:18" ht="18.75" customHeight="1">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -2257,7 +2280,7 @@
       </c>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:18" ht="18.75" customHeight="1">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -2290,7 +2313,7 @@
       </c>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:18" ht="18.75" customHeight="1">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -2308,7 +2331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:18" ht="18.75" customHeight="1">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -2320,7 +2343,7 @@
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:18" ht="18.75" customHeight="1">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2332,7 +2355,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:18" ht="18.75" customHeight="1">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2344,7 +2367,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:18" ht="18.75" customHeight="1">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2356,7 +2379,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:18" ht="18.75" customHeight="1">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2369,7 +2392,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:18" ht="18.75" customHeight="1">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
@@ -2378,7 +2401,7 @@
       <c r="G43" s="4"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:18" ht="18.75" customHeight="1">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2411,7 +2434,7 @@
       </c>
       <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:18" ht="18.75" customHeight="1">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2429,7 +2452,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:18" ht="18.75" customHeight="1">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2471,7 +2494,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:18" ht="18.75" customHeight="1">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2482,7 +2505,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:18" ht="18.75" customHeight="1">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2502,7 +2525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="18.75" customHeight="1">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2521,7 +2544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="18.75" customHeight="1">
       <c r="E50" s="26" t="s">
         <v>118</v>
       </c>
@@ -2534,7 +2557,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="18.75" customHeight="1">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
@@ -2542,14 +2565,14 @@
       <c r="J51" s="4"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="18.75" customHeight="1">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2558,7 +2581,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="18.75" customHeight="1">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2567,7 +2590,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="18.75" customHeight="1">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2576,14 +2599,14 @@
       <c r="J55" s="4"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2597,7 +2620,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="18.75" customHeight="1">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2630,13 +2653,13 @@
       </c>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="18.75" customHeight="1">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12">
         <f>170000-90000</f>
@@ -2651,7 +2674,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="18.75" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>49</v>
       </c>
@@ -2677,7 +2700,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -2703,7 +2726,7 @@
       <c r="L63" s="11"/>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>50</v>
       </c>
@@ -2733,7 +2756,7 @@
       <c r="L64" s="12"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>44</v>
       </c>
@@ -2750,7 +2773,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>42</v>
       </c>
@@ -2780,7 +2803,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A67" s="11" t="s">
         <v>48</v>
       </c>
@@ -2797,7 +2820,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A68" s="11"/>
       <c r="B68" s="14">
         <f>SUM(B64:B67)</f>
@@ -2825,7 +2848,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -2843,7 +2866,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2851,7 +2874,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>47</v>
       </c>
@@ -2877,25 +2900,25 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1">
       <c r="G78" s="4"/>
     </row>
   </sheetData>
@@ -2906,27 +2929,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="38"/>
+    <col min="1" max="1" width="10.83203125" style="38"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="38"/>
-    <col min="5" max="5" width="10.875" style="35"/>
-    <col min="6" max="6" width="10.875" style="12"/>
-    <col min="7" max="8" width="10.875" style="38"/>
-    <col min="9" max="9" width="10.875" style="35"/>
-    <col min="10" max="10" width="10.875" style="12"/>
-    <col min="11" max="16384" width="10.875" style="38"/>
+    <col min="3" max="3" width="10.83203125" style="38"/>
+    <col min="4" max="5" width="10.83203125" style="35"/>
+    <col min="6" max="6" width="10.83203125" style="12"/>
+    <col min="7" max="8" width="10.83203125" style="38"/>
+    <col min="9" max="9" width="10.83203125" style="35"/>
+    <col min="10" max="10" width="10.83203125" style="12"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2934,7 +2957,7 @@
         <v>87000000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="20" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2965,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="20" customHeight="1">
       <c r="A4" s="11"/>
       <c r="E4" s="35" t="s">
         <v>151</v>
@@ -2952,7 +2975,7 @@
       </c>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="20" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>152</v>
       </c>
@@ -2970,7 +2993,7 @@
       </c>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="20" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -2985,7 +3008,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="20" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -2999,7 +3022,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="20" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -3018,7 +3041,7 @@
       </c>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="20" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -3029,16 +3052,16 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="I9" s="48" t="s">
+      <c r="F9" s="46"/>
+      <c r="I9" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -3054,7 +3077,7 @@
       </c>
       <c r="F10" s="44">
         <f>SUM(F4:F8)-SUM(F11:F155)+25</f>
-        <v>57480</v>
+        <v>20060</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
@@ -3064,7 +3087,7 @@
         <v>488600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="20" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3074,8 +3097,8 @@
       <c r="C11" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>205</v>
+      <c r="D11" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>162</v>
@@ -3094,7 +3117,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -3104,8 +3127,8 @@
       <c r="C12" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>205</v>
+      <c r="D12" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>164</v>
@@ -3123,7 +3146,7 @@
         <v>99900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="20" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -3133,8 +3156,8 @@
       <c r="C13" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>205</v>
+      <c r="D13" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>166</v>
@@ -3149,7 +3172,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="20" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
@@ -3157,8 +3180,8 @@
         <f>B3+B8+B12+B13+B11</f>
         <v>490870</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>205</v>
+      <c r="D14" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>167</v>
@@ -3170,10 +3193,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="20" customHeight="1">
       <c r="B15" s="38"/>
-      <c r="D15" s="46" t="s">
-        <v>205</v>
+      <c r="D15" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>8</v>
@@ -3191,7 +3214,7 @@
         <v>129000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="20" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>168</v>
       </c>
@@ -3199,8 +3222,8 @@
         <f>(B5+B9+B10+F5)-B5</f>
         <v>11700000</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>205</v>
+      <c r="D16" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>8</v>
@@ -3219,9 +3242,9 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="46" t="s">
-        <v>205</v>
+    <row r="17" spans="1:14" ht="20" customHeight="1">
+      <c r="D17" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>12</v>
@@ -3237,9 +3260,9 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="46" t="s">
-        <v>205</v>
+    <row r="18" spans="1:14" ht="20" customHeight="1">
+      <c r="D18" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>171</v>
@@ -3252,10 +3275,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="20" customHeight="1">
       <c r="A19" s="11"/>
-      <c r="D19" s="46" t="s">
-        <v>205</v>
+      <c r="D19" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>172</v>
@@ -3265,13 +3288,13 @@
         <v>170000</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="D20" s="46" t="s">
-        <v>205</v>
+      <c r="D20" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>105</v>
@@ -3280,9 +3303,9 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="46" t="s">
-        <v>205</v>
+    <row r="21" spans="1:14" ht="20" customHeight="1">
+      <c r="D21" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>173</v>
@@ -3291,9 +3314,9 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="46" t="s">
-        <v>205</v>
+    <row r="22" spans="1:14" ht="20" customHeight="1">
+      <c r="D22" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>174</v>
@@ -3302,10 +3325,10 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="20" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="D23" s="46" t="s">
-        <v>205</v>
+      <c r="D23" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>175</v>
@@ -3314,10 +3337,10 @@
         <v>434700</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="20" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="D24" s="46" t="s">
-        <v>205</v>
+      <c r="D24" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>176</v>
@@ -3326,9 +3349,9 @@
         <v>212900</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="46" t="s">
-        <v>205</v>
+    <row r="25" spans="1:14" ht="20" customHeight="1">
+      <c r="D25" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>177</v>
@@ -3337,10 +3360,10 @@
         <v>358900</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="20" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="D26" s="46" t="s">
-        <v>205</v>
+      <c r="D26" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>178</v>
@@ -3349,10 +3372,10 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="20" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="D27" s="46" t="s">
-        <v>205</v>
+      <c r="D27" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>179</v>
@@ -3364,10 +3387,10 @@
       <c r="M27" s="35"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="D28" s="46" t="s">
-        <v>205</v>
+      <c r="D28" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>180</v>
@@ -3379,10 +3402,10 @@
       <c r="M28" s="35"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="20" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="D29" s="46" t="s">
-        <v>205</v>
+      <c r="D29" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>181</v>
@@ -3394,10 +3417,10 @@
       <c r="M29" s="35"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="20" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="D30" s="46" t="s">
-        <v>205</v>
+      <c r="D30" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>182</v>
@@ -3408,9 +3431,9 @@
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="46" t="s">
-        <v>205</v>
+    <row r="31" spans="1:14" ht="20" customHeight="1">
+      <c r="D31" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>183</v>
@@ -3424,9 +3447,9 @@
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="46" t="s">
-        <v>205</v>
+    <row r="32" spans="1:14" ht="20" customHeight="1">
+      <c r="D32" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>184</v>
@@ -3437,9 +3460,9 @@
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
     </row>
-    <row r="33" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="46" t="s">
-        <v>205</v>
+    <row r="33" spans="4:13" ht="20" customHeight="1">
+      <c r="D33" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>185</v>
@@ -3450,9 +3473,9 @@
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
     </row>
-    <row r="34" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="46" t="s">
-        <v>205</v>
+    <row r="34" spans="4:13" ht="20" customHeight="1">
+      <c r="D34" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>186</v>
@@ -3463,9 +3486,9 @@
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
     </row>
-    <row r="35" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="46" t="s">
-        <v>205</v>
+    <row r="35" spans="4:13" ht="20" customHeight="1">
+      <c r="D35" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>187</v>
@@ -3476,9 +3499,9 @@
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
     </row>
-    <row r="36" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="46" t="s">
-        <v>205</v>
+    <row r="36" spans="4:13" ht="20" customHeight="1">
+      <c r="D36" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>188</v>
@@ -3491,9 +3514,9 @@
       </c>
       <c r="L36" s="35"/>
     </row>
-    <row r="37" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="46" t="s">
-        <v>205</v>
+    <row r="37" spans="4:13" ht="20" customHeight="1">
+      <c r="D37" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>188</v>
@@ -3506,9 +3529,9 @@
       </c>
       <c r="L37" s="35"/>
     </row>
-    <row r="38" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="46" t="s">
-        <v>205</v>
+    <row r="38" spans="4:13" ht="20" customHeight="1">
+      <c r="D38" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>188</v>
@@ -3521,9 +3544,9 @@
       </c>
       <c r="L38" s="35"/>
     </row>
-    <row r="39" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="46" t="s">
-        <v>205</v>
+    <row r="39" spans="4:13" ht="20" customHeight="1">
+      <c r="D39" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>191</v>
@@ -3532,18 +3555,21 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="46" t="s">
+    <row r="40" spans="4:13" ht="20" customHeight="1">
+      <c r="D40" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>205</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>206</v>
       </c>
       <c r="F40" s="11">
         <v>12000</v>
       </c>
     </row>
-    <row r="41" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" ht="20" customHeight="1">
+      <c r="D41" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="E41" s="35" t="s">
         <v>26</v>
       </c>
@@ -3551,7 +3577,10 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="42" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" ht="20" customHeight="1">
+      <c r="D42" s="35" t="s">
+        <v>211</v>
+      </c>
       <c r="E42" s="35" t="s">
         <v>195</v>
       </c>
@@ -3559,9 +3588,12 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" ht="20" customHeight="1">
+      <c r="D43" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="E43" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F43" s="12">
         <v>24000</v>
@@ -3569,26 +3601,73 @@
       <c r="G43" s="12"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="46" t="s">
-        <v>205</v>
+    <row r="44" spans="4:13" ht="20" customHeight="1">
+      <c r="D44" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F44" s="12">
         <v>34330</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="47" t="s">
+    <row r="45" spans="4:13" ht="20" customHeight="1">
+      <c r="D45" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="35" t="s">
         <v>192</v>
       </c>
       <c r="F45" s="12">
         <v>17460</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" ht="20" customHeight="1">
+      <c r="D46" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" ht="20" customHeight="1">
+      <c r="D47" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="12">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" ht="20" customHeight="1">
+      <c r="D48" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F48" s="12">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="20" customHeight="1">
+      <c r="D49" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="12">
+        <v>11720</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sodami/Documents/GitHub/FED-PJ-2022-dami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_소다미\FED-PJ-2022-dami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A23CF-10CF-BD46-B07E-FDC350110D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -899,12 +898,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m\/d"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,121 +1044,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1168,10 +1167,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1457,34 +1456,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N20" sqref="N20:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="11"/>
-    <col min="12" max="12" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="11"/>
+    <col min="12" max="12" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="11"/>
-    <col min="16" max="16384" width="8.6640625" style="3"/>
+    <col min="15" max="15" width="8.625" style="11"/>
+    <col min="16" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
         <v>44938</v>
@@ -1501,12 +1500,12 @@
       <c r="N1" s="2"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="4"/>
       <c r="H2" s="11"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>121</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1561,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1587,7 +1586,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1616,7 +1615,7 @@
       </c>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1671,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1698,7 +1697,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1721,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1746,7 +1745,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1765,7 +1764,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11" t="s">
@@ -1782,11 +1781,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="E18" s="11"/>
       <c r="G18" s="10"/>
@@ -1796,7 +1795,7 @@
       <c r="L18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <f>F20</f>
         <v>434700</v>
@@ -1869,7 +1868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <f>F21</f>
         <v>212900</v>
@@ -1907,7 +1906,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>110000</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="11" t="s">
@@ -1941,7 +1940,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="D24" s="3">
         <v>309000</v>
@@ -1958,7 +1957,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f>F25</f>
@@ -1994,7 +1993,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>41900</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
         <v>101</v>
       </c>
@@ -2043,7 +2042,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>17300</v>
       </c>
@@ -2077,7 +2076,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <f>58225+3000</f>
         <v>61225</v>
@@ -2112,7 +2111,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>97750</v>
       </c>
@@ -2146,7 +2145,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>18700</v>
       </c>
@@ -2180,7 +2179,7 @@
       </c>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="3:18" ht="18.75" customHeight="1">
+    <row r="33" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>18700</v>
       </c>
@@ -2213,7 +2212,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="3:18" ht="18.75" customHeight="1">
+    <row r="34" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>17850</v>
       </c>
@@ -2246,7 +2245,7 @@
       </c>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="3:18" ht="18.75" customHeight="1">
+    <row r="35" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>22000</v>
       </c>
@@ -2280,7 +2279,7 @@
       </c>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="3:18" ht="18.75" customHeight="1">
+    <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f>38250+4000</f>
         <v>42250</v>
@@ -2313,7 +2312,7 @@
       </c>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="3:18" ht="18.75" customHeight="1">
+    <row r="37" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>169000</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="3:18" ht="18.75" customHeight="1">
+    <row r="38" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="11" t="s">
@@ -2343,7 +2342,7 @@
       </c>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="3:18" ht="18.75" customHeight="1">
+    <row r="39" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>7900</v>
       </c>
@@ -2355,7 +2354,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="3:18" ht="18.75" customHeight="1">
+    <row r="40" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>99900</v>
       </c>
@@ -2367,7 +2366,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="3:18" ht="18.75" customHeight="1">
+    <row r="41" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>17900</v>
       </c>
@@ -2379,7 +2378,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="3:18" ht="18.75" customHeight="1">
+    <row r="42" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>2500</v>
       </c>
@@ -2392,7 +2391,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="3:18" ht="18.75" customHeight="1">
+    <row r="43" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
@@ -2401,7 +2400,7 @@
       <c r="G43" s="4"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="3:18" ht="18.75" customHeight="1">
+    <row r="44" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="16">
         <f>F44</f>
@@ -2434,7 +2433,7 @@
       </c>
       <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="3:18" ht="18.75" customHeight="1">
+    <row r="45" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="16">
         <f>48900+14000</f>
@@ -2452,7 +2451,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="3:18" ht="18.75" customHeight="1">
+    <row r="46" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f>99000+12000</f>
         <v>111000</v>
@@ -2494,7 +2493,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="3:18" ht="18.75" customHeight="1">
+    <row r="47" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3">
         <v>146020</v>
       </c>
@@ -2505,7 +2504,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="3:18" ht="18.75" customHeight="1">
+    <row r="48" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f>15000+3000</f>
         <v>18000</v>
@@ -2525,7 +2524,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1">
+    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4">
         <v>50000</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1">
+    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="26" t="s">
         <v>118</v>
       </c>
@@ -2557,7 +2556,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1">
+    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>56</v>
       </c>
@@ -2565,14 +2564,14 @@
       <c r="J51" s="4"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1">
+    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="11" t="s">
         <v>27</v>
@@ -2581,7 +2580,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1">
+    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="11" t="s">
         <v>28</v>
@@ -2590,7 +2589,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1">
+    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="26" t="s">
         <v>31</v>
@@ -2599,14 +2598,14 @@
       <c r="J55" s="4"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="26" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="4"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="3">
         <v>200000</v>
       </c>
@@ -2620,7 +2619,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1">
+    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <v>110000</v>
       </c>
@@ -2653,13 +2652,13 @@
       </c>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1">
+    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="12">
         <f>170000-90000</f>
@@ -2674,7 +2673,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1">
+    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>49</v>
       </c>
@@ -2700,7 +2699,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -2726,7 +2725,7 @@
       <c r="L63" s="11"/>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>50</v>
       </c>
@@ -2756,7 +2755,7 @@
       <c r="L64" s="12"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>44</v>
       </c>
@@ -2773,7 +2772,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>42</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>56720</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>48</v>
       </c>
@@ -2820,7 +2819,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="14">
         <f>SUM(B64:B67)</f>
@@ -2848,7 +2847,7 @@
         <v>83720</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -2866,7 +2865,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2874,7 +2873,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>47</v>
       </c>
@@ -2900,25 +2899,25 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="4"/>
     </row>
   </sheetData>
@@ -2929,27 +2928,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="38"/>
+    <col min="1" max="1" width="10.875" style="38"/>
     <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="38"/>
-    <col min="4" max="5" width="10.83203125" style="35"/>
-    <col min="6" max="6" width="10.83203125" style="12"/>
-    <col min="7" max="8" width="10.83203125" style="38"/>
-    <col min="9" max="9" width="10.83203125" style="35"/>
-    <col min="10" max="10" width="10.83203125" style="12"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="3" max="3" width="10.875" style="38"/>
+    <col min="4" max="5" width="10.875" style="35"/>
+    <col min="6" max="6" width="10.875" style="12"/>
+    <col min="7" max="8" width="10.875" style="38"/>
+    <col min="9" max="9" width="10.875" style="35"/>
+    <col min="10" max="10" width="10.875" style="12"/>
+    <col min="11" max="16384" width="10.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20" customHeight="1">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>87000000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="E4" s="35" t="s">
         <v>151</v>
@@ -2975,7 +2974,7 @@
       </c>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>152</v>
       </c>
@@ -2993,7 +2992,7 @@
       </c>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -3041,7 +3040,7 @@
       </c>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3060,7 @@
       </c>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>488600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>99900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20" customHeight="1">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20" customHeight="1">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="D15" s="35" t="s">
         <v>217</v>
@@ -3214,7 +3213,7 @@
         <v>129000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20" customHeight="1">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>168</v>
       </c>
@@ -3242,7 +3241,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="35" t="s">
         <v>217</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="35" t="s">
         <v>217</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="35" t="s">
         <v>217</v>
@@ -3291,7 +3290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="35" t="s">
         <v>217</v>
@@ -3303,7 +3302,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="35" t="s">
         <v>209</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>14840</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="35" t="s">
         <v>209</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="35" t="s">
         <v>209</v>
@@ -3337,7 +3336,7 @@
         <v>434700</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="35" t="s">
         <v>209</v>
@@ -3349,7 +3348,7 @@
         <v>212900</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="35" t="s">
         <v>209</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>358900</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="35" t="s">
         <v>209</v>
@@ -3372,7 +3371,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="35" t="s">
         <v>217</v>
@@ -3387,7 +3386,7 @@
       <c r="M27" s="35"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="35" t="s">
         <v>217</v>
@@ -3402,7 +3401,7 @@
       <c r="M28" s="35"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1">
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="35" t="s">
         <v>217</v>
@@ -3417,7 +3416,7 @@
       <c r="M29" s="35"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="35" t="s">
         <v>217</v>
@@ -3431,7 +3430,7 @@
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
     </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="35" t="s">
         <v>217</v>
       </c>
@@ -3447,7 +3446,7 @@
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
     </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="35" t="s">
         <v>217</v>
       </c>
@@ -3460,7 +3459,7 @@
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
     </row>
-    <row r="33" spans="4:13" ht="20" customHeight="1">
+    <row r="33" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="35" t="s">
         <v>217</v>
       </c>
@@ -3473,7 +3472,7 @@
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
     </row>
-    <row r="34" spans="4:13" ht="20" customHeight="1">
+    <row r="34" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="35" t="s">
         <v>209</v>
       </c>
@@ -3486,7 +3485,7 @@
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
     </row>
-    <row r="35" spans="4:13" ht="20" customHeight="1">
+    <row r="35" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="35" t="s">
         <v>209</v>
       </c>
@@ -3499,7 +3498,7 @@
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
     </row>
-    <row r="36" spans="4:13" ht="20" customHeight="1">
+    <row r="36" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="35" t="s">
         <v>209</v>
       </c>
@@ -3514,7 +3513,7 @@
       </c>
       <c r="L36" s="35"/>
     </row>
-    <row r="37" spans="4:13" ht="20" customHeight="1">
+    <row r="37" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="35" t="s">
         <v>209</v>
       </c>
@@ -3529,7 +3528,7 @@
       </c>
       <c r="L37" s="35"/>
     </row>
-    <row r="38" spans="4:13" ht="20" customHeight="1">
+    <row r="38" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="35" t="s">
         <v>209</v>
       </c>
@@ -3544,7 +3543,7 @@
       </c>
       <c r="L38" s="35"/>
     </row>
-    <row r="39" spans="4:13" ht="20" customHeight="1">
+    <row r="39" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="35" t="s">
         <v>209</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="4:13" ht="20" customHeight="1">
+    <row r="40" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="35" t="s">
         <v>217</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="41" spans="4:13" ht="20" customHeight="1">
+    <row r="41" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="35" t="s">
         <v>210</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="42" spans="4:13" ht="20" customHeight="1">
+    <row r="42" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="35" t="s">
         <v>211</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="20" customHeight="1">
+    <row r="43" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="35" t="s">
         <v>210</v>
       </c>
@@ -3601,7 +3600,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="4:13" ht="20" customHeight="1">
+    <row r="44" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="35" t="s">
         <v>210</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>34330</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="20" customHeight="1">
+    <row r="45" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="35" t="s">
         <v>212</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="4:13" ht="20" customHeight="1">
+    <row r="46" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="35" t="s">
         <v>212</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="47" spans="4:13" ht="20" customHeight="1">
+    <row r="47" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="35" t="s">
         <v>212</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="48" spans="4:13" ht="20" customHeight="1">
+    <row r="48" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="35" t="s">
         <v>212</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="20" customHeight="1">
+    <row r="49" spans="4:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="35" t="s">
         <v>212</v>
       </c>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="223">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -892,6 +892,26 @@
   </si>
   <si>
     <t>현금 결제완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,000 누리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도마, 열수축 튜브, 양면테이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무인양품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생리대 수납 박스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,6 +1192,9 @@
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1486,7 +1509,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -2929,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N49"/>
+  <dimension ref="A2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3051,14 +3074,14 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="I9" s="46" t="s">
+      <c r="F9" s="47"/>
+      <c r="I9" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -3076,7 +3099,7 @@
       </c>
       <c r="F10" s="44">
         <f>SUM(F4:F8)-SUM(F11:F155)+25</f>
-        <v>20060</v>
+        <v>13560</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
@@ -3635,6 +3658,9 @@
       <c r="F46" s="12">
         <v>4000</v>
       </c>
+      <c r="G46" s="38" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="47" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="35" t="s">
@@ -3658,8 +3684,8 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="35" t="s">
+    <row r="49" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="46" t="s">
         <v>212</v>
       </c>
       <c r="E49" s="35" t="s">
@@ -3667,6 +3693,34 @@
       </c>
       <c r="F49" s="12">
         <v>11720</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="12">
+        <v>4000</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="12">
+        <v>2500</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -2954,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="232">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -912,6 +912,42 @@
   </si>
   <si>
     <t>생리대 수납 박스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축봉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상부장 수납 선반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모던하우스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화병, 행주, 숟가락, 포크, 나이프 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가리개 천 수선비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1054,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,6 +1228,9 @@
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1509,7 +1548,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -2952,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N51"/>
+  <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3074,14 +3113,14 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="I9" s="47" t="s">
+      <c r="F9" s="48"/>
+      <c r="I9" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -3098,15 +3137,15 @@
         <v>159</v>
       </c>
       <c r="F10" s="44">
-        <f>SUM(F4:F8)-SUM(F11:F155)+25</f>
-        <v>13560</v>
+        <f>SUM(F4:F8)-SUM(F11:F156)+25</f>
+        <v>-113070</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
       </c>
       <c r="J10" s="45">
-        <f>SUM(J11:J48)</f>
-        <v>488600</v>
+        <f>SUM(J11:J49)</f>
+        <v>446700</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3133,10 +3172,10 @@
         <v>152</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J11" s="11">
-        <v>41900</v>
+        <v>198</v>
+      </c>
+      <c r="J11" s="12">
+        <v>99900</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3162,10 +3201,10 @@
         <v>165</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J12" s="12">
-        <v>99900</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3188,10 +3227,7 @@
         <v>80000</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" s="12">
-        <v>17900</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3212,7 +3248,10 @@
         <v>50000</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="J14" s="12">
+        <v>129000</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,10 +3269,10 @@
         <v>169</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J15" s="12">
-        <v>129000</v>
+        <v>37900</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3257,10 +3296,11 @@
         <v>170</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J16" s="12">
-        <v>37900</v>
+        <f>142000+20000</f>
+        <v>162000</v>
       </c>
       <c r="M16" s="12"/>
     </row>
@@ -3275,11 +3315,7 @@
         <v>244000</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="12">
-        <f>142000+20000</f>
-        <v>162000</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3294,7 +3330,7 @@
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="35" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3309,9 +3345,6 @@
         <f>60000+110000</f>
         <v>170000</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
@@ -3674,53 +3707,115 @@
       </c>
     </row>
     <row r="48" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" s="12">
+        <v>10000</v>
+      </c>
+      <c r="I48" s="47"/>
+    </row>
+    <row r="49" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="12">
         <v>15800</v>
       </c>
     </row>
-    <row r="49" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="46" t="s">
+    <row r="50" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E50" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <v>11720</v>
       </c>
     </row>
-    <row r="50" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="35" t="s">
+    <row r="51" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E51" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>4000</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G51" s="38" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="46" t="s">
+    <row r="52" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E52" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>2500</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G52" s="38" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="11">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="12">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="12">
+        <v>53030</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="235">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -948,6 +948,18 @@
   </si>
   <si>
     <t>가리개 천 수선비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이케아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2991,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N56"/>
+  <dimension ref="A2:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3138,7 +3150,7 @@
       </c>
       <c r="F10" s="44">
         <f>SUM(F4:F8)-SUM(F11:F156)+25</f>
-        <v>-113070</v>
+        <v>-217270</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
@@ -3718,7 +3730,7 @@
       </c>
       <c r="I48" s="47"/>
     </row>
-    <row r="49" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="35" t="s">
         <v>212</v>
       </c>
@@ -3729,7 +3741,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="50" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="46" t="s">
         <v>212</v>
       </c>
@@ -3740,7 +3752,7 @@
         <v>11720</v>
       </c>
     </row>
-    <row r="51" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="35" t="s">
         <v>212</v>
       </c>
@@ -3754,7 +3766,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="46" t="s">
         <v>212</v>
       </c>
@@ -3768,7 +3780,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="47" t="s">
         <v>212</v>
       </c>
@@ -3779,7 +3791,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="35" t="s">
         <v>224</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="35" t="s">
         <v>226</v>
       </c>
@@ -3804,7 +3816,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="56" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="35" t="s">
         <v>230</v>
       </c>
@@ -3816,6 +3828,20 @@
       </c>
       <c r="G56" s="38" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" s="12">
+        <v>104200</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="234">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -867,10 +867,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>삼성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -959,7 +955,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>무2</t>
+    <t>무3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,6 +1236,9 @@
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1560,7 +1559,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44943</v>
+        <v>44946</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -3005,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3125,14 +3124,14 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="I9" s="48" t="s">
+      <c r="F9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -3150,7 +3149,7 @@
       </c>
       <c r="F10" s="44">
         <f>SUM(F4:F8)-SUM(F11:F156)+25</f>
-        <v>-217270</v>
+        <v>-296970</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>160</v>
@@ -3171,7 +3170,7 @@
         <v>161</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>162</v>
@@ -3201,7 +3200,7 @@
         <v>163</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>164</v>
@@ -3230,7 +3229,7 @@
         <v>163</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>166</v>
@@ -3251,7 +3250,7 @@
         <v>490870</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>167</v>
@@ -3269,7 +3268,7 @@
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="D15" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>8</v>
@@ -3318,7 +3317,7 @@
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>12</v>
@@ -3332,7 +3331,7 @@
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>171</v>
@@ -3348,7 +3347,7 @@
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>172</v>
@@ -3361,7 +3360,7 @@
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>105</v>
@@ -3442,7 +3441,7 @@
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>179</v>
@@ -3457,7 +3456,7 @@
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>180</v>
@@ -3472,7 +3471,7 @@
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>181</v>
@@ -3487,7 +3486,7 @@
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>182</v>
@@ -3500,7 +3499,7 @@
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>183</v>
@@ -3516,7 +3515,7 @@
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>184</v>
@@ -3529,7 +3528,7 @@
     </row>
     <row r="33" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>185</v>
@@ -3624,7 +3623,7 @@
     </row>
     <row r="40" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>205</v>
@@ -3645,8 +3644,8 @@
       </c>
     </row>
     <row r="42" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="35" t="s">
-        <v>211</v>
+      <c r="D42" s="48" t="s">
+        <v>216</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>195</v>
@@ -3681,7 +3680,7 @@
     </row>
     <row r="45" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>192</v>
@@ -3695,24 +3694,24 @@
     </row>
     <row r="46" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>212</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>213</v>
       </c>
       <c r="F46" s="12">
         <v>4000</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" s="12">
         <v>5900</v>
@@ -3720,10 +3719,10 @@
     </row>
     <row r="48" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F48" s="12">
         <v>10000</v>
@@ -3732,10 +3731,10 @@
     </row>
     <row r="49" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F49" s="12">
         <v>15800</v>
@@ -3743,10 +3742,10 @@
     </row>
     <row r="50" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F50" s="12">
         <v>11720</v>
@@ -3754,35 +3753,35 @@
     </row>
     <row r="51" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F51" s="12">
         <v>4000</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F52" s="12">
         <v>2500</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>197</v>
@@ -3793,24 +3792,24 @@
     </row>
     <row r="54" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F54" s="12">
         <v>3000</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>226</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>227</v>
       </c>
       <c r="F55" s="12">
         <v>19100</v>
@@ -3818,30 +3817,30 @@
     </row>
     <row r="56" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F56" s="12">
         <v>53030</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="F57" s="12">
+        <v>183900</v>
+      </c>
+      <c r="H57" s="38" t="s">
         <v>233</v>
-      </c>
-      <c r="F57" s="12">
-        <v>104200</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="243">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -831,10 +831,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>접이식 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>트롤리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -955,7 +951,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>퇴직금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나 대출상환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만년중 회비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원이 생일 회비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나 대출상환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나 대출이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무2</t>
+  </si>
+  <si>
     <t>무3</t>
+  </si>
+  <si>
+    <t>⅓</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1247,6 +1281,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1559,7 +1602,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44946</v>
+        <v>44952</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -3002,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N57"/>
+  <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3018,10 +3061,15 @@
     <col min="7" max="8" width="10.875" style="38"/>
     <col min="9" max="9" width="10.875" style="35"/>
     <col min="10" max="10" width="10.875" style="12"/>
-    <col min="11" max="16384" width="10.875" style="38"/>
+    <col min="11" max="11" width="10.875" style="38"/>
+    <col min="12" max="12" width="10.875" style="49"/>
+    <col min="13" max="13" width="10.875" style="12"/>
+    <col min="14" max="14" width="10.875" style="38"/>
+    <col min="15" max="15" width="10.875" style="12"/>
+    <col min="16" max="16384" width="10.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +3077,7 @@
         <v>87000000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -3037,7 +3085,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="E4" s="35" t="s">
         <v>151</v>
@@ -3047,7 +3095,7 @@
       </c>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>152</v>
       </c>
@@ -3065,7 +3113,7 @@
       </c>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -3080,7 +3128,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -3093,8 +3141,9 @@
       <c r="F7" s="12">
         <v>120000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -3113,7 +3162,7 @@
       </c>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -3124,16 +3173,20 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="I9" s="49" t="s">
+      <c r="F9" s="50"/>
+      <c r="I9" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="50"/>
+      <c r="M9" s="51">
+        <f>M10-SUM(M11:M20)</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -3156,10 +3209,16 @@
       </c>
       <c r="J10" s="45">
         <f>SUM(J11:J49)</f>
-        <v>446700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>408800</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="12">
+        <v>4059118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +3229,7 @@
         <v>161</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>162</v>
@@ -3188,8 +3247,15 @@
       <c r="J11" s="12">
         <v>99900</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="12">
+        <v>183543</v>
+      </c>
+      <c r="N11" s="39"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -3200,7 +3266,7 @@
         <v>163</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>164</v>
@@ -3217,8 +3283,17 @@
       <c r="J12" s="12">
         <v>17900</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="12">
+        <v>300000</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -3229,7 +3304,7 @@
         <v>163</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>166</v>
@@ -3240,8 +3315,15 @@
       <c r="I13" s="35" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="M13" s="12">
+        <f>80000-24000</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
@@ -3250,7 +3332,7 @@
         <v>490870</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>167</v>
@@ -3264,11 +3346,17 @@
       <c r="J14" s="12">
         <v>129000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="12">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="D15" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>8</v>
@@ -3283,10 +3371,17 @@
         <v>202</v>
       </c>
       <c r="J15" s="12">
-        <v>37900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <f>142000+20000</f>
+        <v>162000</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="M15" s="12">
+        <v>493460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>168</v>
       </c>
@@ -3295,7 +3390,7 @@
         <v>11700000</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>8</v>
@@ -3309,15 +3404,16 @@
       <c r="I16" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="J16" s="12">
-        <f>142000+20000</f>
-        <v>162000</v>
-      </c>
-      <c r="M16" s="12"/>
+      <c r="L16" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1115</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>12</v>
@@ -3325,13 +3421,10 @@
       <c r="F17" s="12">
         <v>244000</v>
       </c>
-      <c r="I17" s="35" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>171</v>
@@ -3340,14 +3433,11 @@
         <v>180000</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="35" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>172</v>
@@ -3360,7 +3450,7 @@
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>105</v>
@@ -3371,7 +3461,7 @@
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>173</v>
@@ -3382,7 +3472,7 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>174</v>
@@ -3394,7 +3484,7 @@
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>175</v>
@@ -3406,7 +3496,7 @@
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>176</v>
@@ -3417,7 +3507,7 @@
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>177</v>
@@ -3429,7 +3519,7 @@
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>178</v>
@@ -3441,7 +3531,7 @@
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>179</v>
@@ -3449,14 +3539,13 @@
       <c r="F27" s="12">
         <v>61225</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>180</v>
@@ -3464,14 +3553,13 @@
       <c r="F28" s="12">
         <v>97750</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>181</v>
@@ -3479,14 +3567,13 @@
       <c r="F29" s="12">
         <v>18700</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>182</v>
@@ -3494,12 +3581,11 @@
       <c r="F30" s="12">
         <v>18700</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>183</v>
@@ -3510,12 +3596,11 @@
       <c r="G31" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>184</v>
@@ -3523,12 +3608,11 @@
       <c r="F32" s="12">
         <v>22000</v>
       </c>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>185</v>
@@ -3536,12 +3620,11 @@
       <c r="F33" s="12">
         <v>42250</v>
       </c>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>186</v>
@@ -3549,12 +3632,11 @@
       <c r="F34" s="12">
         <v>70000</v>
       </c>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
+      <c r="M34" s="11"/>
     </row>
     <row r="35" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>187</v>
@@ -3562,12 +3644,11 @@
       <c r="F35" s="12">
         <v>13000</v>
       </c>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>188</v>
@@ -3578,11 +3659,10 @@
       <c r="G36" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="L36" s="35"/>
     </row>
     <row r="37" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>188</v>
@@ -3593,11 +3673,10 @@
       <c r="G37" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="L37" s="35"/>
     </row>
     <row r="38" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>188</v>
@@ -3608,11 +3687,10 @@
       <c r="G38" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="L38" s="35"/>
     </row>
     <row r="39" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>191</v>
@@ -3623,18 +3701,18 @@
     </row>
     <row r="40" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" s="11">
         <v>12000</v>
       </c>
     </row>
     <row r="41" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="35" t="s">
-        <v>210</v>
+      <c r="D41" s="49" t="s">
+        <v>208</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>26</v>
@@ -3645,7 +3723,7 @@
     </row>
     <row r="42" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>195</v>
@@ -3656,10 +3734,10 @@
     </row>
     <row r="43" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F43" s="12">
         <v>24000</v>
@@ -3669,10 +3747,10 @@
     </row>
     <row r="44" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F44" s="12">
         <v>34330</v>
@@ -3680,7 +3758,7 @@
     </row>
     <row r="45" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>192</v>
@@ -3689,29 +3767,29 @@
         <v>17460</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="F46" s="12">
         <v>4000</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F47" s="12">
         <v>5900</v>
@@ -3719,10 +3797,10 @@
     </row>
     <row r="48" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F48" s="12">
         <v>10000</v>
@@ -3731,10 +3809,10 @@
     </row>
     <row r="49" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" s="12">
         <v>15800</v>
@@ -3742,10 +3820,10 @@
     </row>
     <row r="50" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F50" s="12">
         <v>11720</v>
@@ -3753,35 +3831,35 @@
     </row>
     <row r="51" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F51" s="12">
         <v>4000</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" s="12">
         <v>2500</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>197</v>
@@ -3792,24 +3870,24 @@
     </row>
     <row r="54" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F54" s="12">
         <v>3000</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>225</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>226</v>
       </c>
       <c r="F55" s="12">
         <v>19100</v>
@@ -3817,30 +3895,58 @@
     </row>
     <row r="56" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F56" s="12">
         <v>53030</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="E57" s="35" t="s">
-        <v>232</v>
-      </c>
       <c r="F57" s="12">
-        <v>183900</v>
+        <v>61300</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>233</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="12">
+        <v>61300</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="12">
+        <v>61300</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="244">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -990,6 +990,10 @@
   </si>
   <si>
     <t>⅓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 월세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1294,9 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1602,7 +1609,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -3048,7 +3055,7 @@
   <dimension ref="A2:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3069,7 +3076,7 @@
     <col min="16" max="16384" width="10.875" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3077,15 +3084,19 @@
         <v>87000000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12">
         <v>240000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="51">
+        <f>O4-SUM(O5:O12)</f>
+        <v>294592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="E4" s="35" t="s">
         <v>151</v>
@@ -3094,8 +3105,12 @@
         <v>10000000</v>
       </c>
       <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="12">
+        <f>3495882-3000000</f>
+        <v>495882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>152</v>
       </c>
@@ -3112,8 +3127,14 @@
         <v>1500000</v>
       </c>
       <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="O5" s="12">
+        <v>201290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -3128,7 +3149,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -3143,7 +3164,7 @@
       </c>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -3162,7 +3183,7 @@
       </c>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -3173,20 +3194,20 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="I9" s="50" t="s">
+      <c r="F9" s="53"/>
+      <c r="I9" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="53"/>
       <c r="M9" s="51">
         <f>M10-SUM(M11:M20)</f>
         <v>3000000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -3218,7 +3239,7 @@
         <v>4059118</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3255,7 +3276,7 @@
       </c>
       <c r="N11" s="39"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3314,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -3323,7 +3344,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
@@ -3353,7 +3374,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="D15" s="35" t="s">
         <v>215</v>
@@ -3381,7 +3402,7 @@
         <v>493460</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>168</v>
       </c>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -3055,7 +3055,7 @@
   <dimension ref="A2:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3169,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="12">
-        <v>40870</v>
+        <v>30590</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>145</v>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B14" s="12">
         <f>B3+B8+B12+B13+B11</f>
-        <v>490870</v>
+        <v>480590</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>215</v>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="245">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -994,6 +994,10 @@
   </si>
   <si>
     <t>1월 월세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔프로젝터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1609,7 +1613,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44953</v>
+        <v>44956</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -3054,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3204,7 +3208,7 @@
       <c r="J9" s="53"/>
       <c r="M9" s="51">
         <f>M10-SUM(M11:M20)</f>
-        <v>3000000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3441,6 +3445,12 @@
       </c>
       <c r="F17" s="12">
         <v>244000</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" s="12">
+        <v>200000</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="248">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -998,6 +998,18 @@
   </si>
   <si>
     <t>빔프로젝터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카뱅 대출이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 전세대출이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1140,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,16 +1303,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1613,7 +1628,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44956</v>
+        <v>44959</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -3058,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3075,7 +3090,7 @@
     <col min="11" max="11" width="10.875" style="38"/>
     <col min="12" max="12" width="10.875" style="49"/>
     <col min="13" max="13" width="10.875" style="12"/>
-    <col min="14" max="14" width="10.875" style="38"/>
+    <col min="14" max="14" width="10.875" style="52"/>
     <col min="15" max="15" width="10.875" style="12"/>
     <col min="16" max="16384" width="10.875" style="38"/>
   </cols>
@@ -3095,9 +3110,9 @@
       <c r="B3" s="12">
         <v>240000</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="50">
         <f>O4-SUM(O5:O12)</f>
-        <v>294592</v>
+        <v>287550</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3131,7 +3146,7 @@
         <v>1500000</v>
       </c>
       <c r="G5" s="39"/>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="52" t="s">
         <v>243</v>
       </c>
       <c r="O5" s="12">
@@ -3152,6 +3167,12 @@
       <c r="F6" s="12">
         <v>76000</v>
       </c>
+      <c r="N6" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="O6" s="12">
+        <v>7042</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -3166,7 +3187,9 @@
       <c r="F7" s="12">
         <v>120000</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="11" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -3206,7 +3229,7 @@
         <v>158</v>
       </c>
       <c r="J9" s="53"/>
-      <c r="M9" s="51">
+      <c r="M9" s="50">
         <f>M10-SUM(M11:M20)</f>
         <v>2800000</v>
       </c>
@@ -3278,7 +3301,7 @@
       <c r="M11" s="12">
         <v>183543</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -3314,7 +3337,7 @@
       <c r="M12" s="12">
         <v>300000</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="51" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3452,6 +3475,9 @@
       <c r="M17" s="12">
         <v>200000</v>
       </c>
+      <c r="N17" s="52" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="35" t="s">
@@ -3571,7 +3597,7 @@
         <v>61225</v>
       </c>
       <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
@@ -3585,7 +3611,7 @@
         <v>97750</v>
       </c>
       <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
@@ -3599,7 +3625,7 @@
         <v>18700</v>
       </c>
       <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="249">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1010,6 +1010,10 @@
   </si>
   <si>
     <t>우리 전세대출이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 대출이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1312,10 +1316,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1628,7 +1632,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -3074,7 +3078,7 @@
   <dimension ref="A2:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O5" activeCellId="1" sqref="O7:O8 O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3112,7 +3116,7 @@
       </c>
       <c r="O3" s="50">
         <f>O4-SUM(O5:O12)</f>
-        <v>287550</v>
+        <v>197960</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3190,6 +3194,9 @@
       <c r="N7" s="11" t="s">
         <v>247</v>
       </c>
+      <c r="O7" s="12">
+        <v>39590</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -3209,6 +3216,12 @@
         <v>66240</v>
       </c>
       <c r="G8" s="39"/>
+      <c r="N8" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" s="12">
+        <v>50000</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -3221,14 +3234,14 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="I9" s="53" t="s">
+      <c r="F9" s="54"/>
+      <c r="I9" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="54"/>
       <c r="M9" s="50">
         <f>M10-SUM(M11:M20)</f>
         <v>2800000</v>
@@ -3301,7 +3314,7 @@
       <c r="M11" s="12">
         <v>183543</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1021,8 +1021,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="m\/d"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -1156,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,6 +1322,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3077,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" activeCellId="1" sqref="O7:O8 O5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3825,6 +3829,7 @@
       <c r="F44" s="12">
         <v>34330</v>
       </c>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="35" t="s">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="252">
   <si>
     <t>보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -997,14 +997,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>빔프로젝터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카뱅 대출이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1014,6 +1006,26 @@
   </si>
   <si>
     <t>엄마 대출이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음쓰통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 버즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이케아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1157,7 +1169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,11 +1332,14 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1636,7 +1651,7 @@
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="13"/>
@@ -3081,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3176,7 +3191,7 @@
         <v>76000</v>
       </c>
       <c r="N6" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O6" s="12">
         <v>7042</v>
@@ -3196,7 +3211,7 @@
         <v>120000</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O7" s="12">
         <v>39590</v>
@@ -3221,7 +3236,7 @@
       </c>
       <c r="G8" s="39"/>
       <c r="N8" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O8" s="12">
         <v>50000</v>
@@ -3238,17 +3253,17 @@
       <c r="C9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="I9" s="54" t="s">
+      <c r="F9" s="55"/>
+      <c r="I9" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="J9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="M9" s="50">
         <f>M10-SUM(M11:M20)</f>
-        <v>2800000</v>
+        <v>2647600</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3487,13 +3502,10 @@
         <v>244000</v>
       </c>
       <c r="L17" s="49" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M17" s="12">
-        <v>200000</v>
-      </c>
-      <c r="N17" s="52" t="s">
-        <v>245</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3507,6 +3519,12 @@
         <v>180000</v>
       </c>
       <c r="H18" s="39"/>
+      <c r="L18" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M18" s="12">
+        <v>37900</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
@@ -3520,6 +3538,12 @@
         <f>60000+110000</f>
         <v>170000</v>
       </c>
+      <c r="L19" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="M19" s="12">
+        <v>50000</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
@@ -3532,6 +3556,14 @@
       <c r="F20" s="12">
         <v>70000</v>
       </c>
+      <c r="L20" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="M20" s="12">
+        <f>173500-9000</f>
+        <v>164500</v>
+      </c>
+      <c r="N20" s="56"/>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="35" t="s">
@@ -3542,6 +3574,12 @@
       </c>
       <c r="F21" s="12">
         <v>14840</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="12">
+        <v>30000</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3829,7 +3867,7 @@
       <c r="F44" s="12">
         <v>34330</v>
       </c>
-      <c r="G44" s="55"/>
+      <c r="G44" s="54"/>
     </row>
     <row r="45" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="35" t="s">
